--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -682,28 +682,28 @@
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
         <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>3.2</v>
@@ -712,7 +712,7 @@
         <v>1.87</v>
       </c>
       <c r="U2" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.18</v>
@@ -745,16 +745,16 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AG2" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH2" t="n">
         <v>22</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>17</v>
@@ -769,7 +769,7 @@
         <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>130</v>
@@ -802,13 +802,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="G3" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H3" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="I3" t="n">
         <v>1.53</v>
@@ -817,7 +817,7 @@
         <v>4.6</v>
       </c>
       <c r="K3" t="n">
-        <v>5.4</v>
+        <v>5.3</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>2.16</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G5" t="n">
         <v>1.41</v>
@@ -1111,10 +1111,10 @@
         <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T5" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U5" t="n">
         <v>1.78</v>
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.2</v>
+        <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H6" t="n">
         <v>2.92</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.68</v>
+        <v>2.66</v>
       </c>
       <c r="G7" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="I7" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J7" t="n">
         <v>3.35</v>
@@ -1486,7 +1486,7 @@
         <v>1.61</v>
       </c>
       <c r="I8" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J8" t="n">
         <v>4</v>
@@ -1615,13 +1615,13 @@
         <v>4.2</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="H9" t="n">
         <v>2.02</v>
       </c>
       <c r="I9" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
@@ -1645,7 +1645,7 @@
         <v>1.67</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1750,10 +1750,10 @@
         <v>3.45</v>
       </c>
       <c r="G10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="H10" t="n">
-        <v>2.32</v>
+        <v>2.38</v>
       </c>
       <c r="I10" t="n">
         <v>2.56</v>
@@ -1780,7 +1780,7 @@
         <v>1.54</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1885,19 +1885,19 @@
         <v>1.82</v>
       </c>
       <c r="G11" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="I11" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="J11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>7.4</v>
+        <v>6.8</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.36</v>
+        <v>2.38</v>
       </c>
       <c r="G12" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H12" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I12" t="n">
         <v>3.45</v>
@@ -2164,7 +2164,7 @@
         <v>5.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K13" t="n">
         <v>3.9</v>
@@ -2191,7 +2191,7 @@
         <v>1.34</v>
       </c>
       <c r="S13" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="T13" t="n">
         <v>1.98</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
         <v>17.5</v>
@@ -2218,7 +2218,7 @@
         <v>170</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AC13" t="n">
         <v>8.4</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="G14" t="n">
         <v>3.95</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2452,7 +2452,7 @@
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q15" t="n">
         <v>1.82</v>
@@ -2515,7 +2515,7 @@
         <v>75</v>
       </c>
       <c r="AK15" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AL15" t="n">
         <v>60</v>
@@ -2563,16 +2563,16 @@
         <v>1.17</v>
       </c>
       <c r="H16" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I16" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J16" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -2590,7 +2590,7 @@
         <v>3.1</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.33</v>
+        <v>1.39</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -682,10 +682,10 @@
         <v>4.1</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="L2" t="n">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -721,58 +721,58 @@
         <v>2.42</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y2" t="n">
         <v>21</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AB2" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G3" t="n">
         <v>8.4</v>
@@ -1111,13 +1111,13 @@
         <v>1.41</v>
       </c>
       <c r="S5" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
         <v>2.24</v>
       </c>
       <c r="U5" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1210,19 +1210,19 @@
         <v>2.12</v>
       </c>
       <c r="G6" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="I6" t="n">
         <v>4.2</v>
       </c>
       <c r="J6" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1348,7 +1348,7 @@
         <v>2.7</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>2.98</v>
       </c>
       <c r="I7" t="n">
         <v>3.05</v>
@@ -1642,10 +1642,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1753,7 +1753,7 @@
         <v>3.85</v>
       </c>
       <c r="H10" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="I10" t="n">
         <v>2.56</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>1.94</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O12" t="n">
         <v>1.34</v>
@@ -2095,7 +2095,7 @@
         <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG12" t="n">
         <v>12</v>
@@ -2104,10 +2104,10 @@
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
         <v>26</v>
@@ -2176,7 +2176,7 @@
         <v>1.08</v>
       </c>
       <c r="N13" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O13" t="n">
         <v>1.35</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Y13" t="n">
         <v>17.5</v>
@@ -2239,7 +2239,7 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AJ13" t="n">
         <v>18.5</v>
@@ -2317,10 +2317,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -2425,7 +2425,7 @@
         <v>3.85</v>
       </c>
       <c r="G15" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="H15" t="n">
         <v>2.08</v>
@@ -2446,13 +2446,13 @@
         <v>1.06</v>
       </c>
       <c r="N15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.27</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
         <v>1.82</v>
@@ -2464,10 +2464,10 @@
         <v>3.05</v>
       </c>
       <c r="T15" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U15" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2491,7 +2491,7 @@
         <v>16</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AD15" t="n">
         <v>11</v>
@@ -2506,19 +2506,19 @@
         <v>16</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ15" t="n">
         <v>75</v>
       </c>
       <c r="AK15" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
         <v>80</v>
@@ -2572,7 +2572,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K16" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO16"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="G2" t="n">
         <v>1.7</v>
@@ -772,13 +772,13 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Serik Belediyespor</t>
+          <t>Kepez Belediyespor</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Batman Petrolspor</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>6.2</v>
+        <v>1.01</v>
       </c>
       <c r="G3" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="H3" t="n">
-        <v>1.46</v>
+        <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>1.53</v>
+        <v>1000</v>
       </c>
       <c r="J3" t="n">
-        <v>4.6</v>
+        <v>1.02</v>
       </c>
       <c r="K3" t="n">
-        <v>5.3</v>
+        <v>950</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>2.16</v>
+        <v>1.24</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.68</v>
+        <v>1.21</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Iskenderunspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.29</v>
+        <v>1.01</v>
       </c>
       <c r="G4" t="n">
-        <v>1.46</v>
+        <v>1000</v>
       </c>
       <c r="H4" t="n">
-        <v>3.1</v>
+        <v>1.01</v>
       </c>
       <c r="I4" t="n">
         <v>1000</v>
       </c>
       <c r="J4" t="n">
-        <v>4.7</v>
+        <v>1.02</v>
       </c>
       <c r="K4" t="n">
         <v>950</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>2.02</v>
+        <v>1.15</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.57</v>
+        <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,33 +1058,33 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Serik Belediyespor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1.4</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>1.41</v>
+        <v>8.4</v>
       </c>
       <c r="H5" t="n">
-        <v>10</v>
+        <v>1.46</v>
       </c>
       <c r="I5" t="n">
-        <v>10.5</v>
+        <v>1.56</v>
       </c>
       <c r="J5" t="n">
-        <v>5.2</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
         <v>5.3</v>
@@ -1093,31 +1093,31 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="R5" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1126,58 +1126,58 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>430</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>15.5</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="AN5" t="n">
-        <v>6.8</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1193,36 +1193,36 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>07:30:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Umraniyespor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.12</v>
+        <v>1.29</v>
       </c>
       <c r="G6" t="n">
-        <v>2.88</v>
+        <v>1.46</v>
       </c>
       <c r="H6" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="I6" t="n">
-        <v>4.2</v>
+        <v>1000</v>
       </c>
       <c r="J6" t="n">
-        <v>2.98</v>
+        <v>4.8</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>950</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>1.64</v>
+        <v>2.02</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.93</v>
+        <v>1.57</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1318,7 +1318,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,66 +1328,66 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.66</v>
+        <v>1.4</v>
       </c>
       <c r="G7" t="n">
-        <v>2.7</v>
+        <v>1.41</v>
       </c>
       <c r="H7" t="n">
-        <v>2.98</v>
+        <v>10</v>
       </c>
       <c r="I7" t="n">
-        <v>3.05</v>
+        <v>10.5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.35</v>
+        <v>5.3</v>
       </c>
       <c r="K7" t="n">
-        <v>3.4</v>
+        <v>5.4</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="O7" t="n">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="P7" t="n">
-        <v>1.75</v>
+        <v>2.06</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.28</v>
+        <v>1.91</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
       <c r="S7" t="n">
-        <v>4.3</v>
+        <v>3.25</v>
       </c>
       <c r="T7" t="n">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="U7" t="n">
-        <v>1.99</v>
+        <v>1.77</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1396,64 +1396,64 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="Y7" t="n">
+        <v>29</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>100</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>430</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>38</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG7" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>55</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AH7" t="n">
-        <v>19.5</v>
+        <v>34</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>34</v>
+        <v>15.5</v>
       </c>
       <c r="AL7" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM7" t="n">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>7</v>
       </c>
       <c r="AO7" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,66 +1463,66 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Erzurum BB</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>2.12</v>
       </c>
       <c r="G8" t="n">
-        <v>7.6</v>
+        <v>2.82</v>
       </c>
       <c r="H8" t="n">
-        <v>1.61</v>
+        <v>2.88</v>
       </c>
       <c r="I8" t="n">
-        <v>1.62</v>
+        <v>4.2</v>
       </c>
       <c r="J8" t="n">
-        <v>4</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>4.2</v>
+        <v>5.6</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>1.81</v>
+        <v>1.64</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.14</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1531,64 +1531,64 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO8" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>7</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4</v>
+      </c>
+      <c r="K9" t="n">
         <v>4.2</v>
       </c>
-      <c r="G9" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="I9" t="n">
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q9" t="n">
         <v>2.14</v>
       </c>
-      <c r="J9" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2.28</v>
-      </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,64 +1666,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,66 +1733,66 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.45</v>
+        <v>2.74</v>
       </c>
       <c r="G10" t="n">
-        <v>3.85</v>
+        <v>2.78</v>
       </c>
       <c r="H10" t="n">
-        <v>2.36</v>
+        <v>2.92</v>
       </c>
       <c r="I10" t="n">
-        <v>2.56</v>
+        <v>2.94</v>
       </c>
       <c r="J10" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P10" t="n">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.48</v>
+        <v>2.28</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,64 +1801,64 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,36 +1868,36 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>1.82</v>
+        <v>4.4</v>
       </c>
       <c r="G11" t="n">
-        <v>2.32</v>
+        <v>4.7</v>
       </c>
       <c r="H11" t="n">
-        <v>3.35</v>
+        <v>2.06</v>
       </c>
       <c r="I11" t="n">
-        <v>4.9</v>
+        <v>2.1</v>
       </c>
       <c r="J11" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K11" t="n">
-        <v>6.8</v>
+        <v>3.45</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -1912,10 +1912,10 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>1.94</v>
+        <v>1.67</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1993,7 +1993,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.38</v>
+        <v>3.55</v>
       </c>
       <c r="G12" t="n">
-        <v>2.4</v>
+        <v>3.85</v>
       </c>
       <c r="H12" t="n">
-        <v>3.35</v>
+        <v>2.46</v>
       </c>
       <c r="I12" t="n">
-        <v>3.45</v>
+        <v>2.58</v>
       </c>
       <c r="J12" t="n">
-        <v>3.45</v>
+        <v>3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB12" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF12" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG12" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ12" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK12" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL12" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO12" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,66 +2138,66 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>76 Igdir Belediyespor</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="G13" t="n">
-        <v>1.79</v>
+        <v>2.32</v>
       </c>
       <c r="H13" t="n">
-        <v>5.4</v>
+        <v>3.35</v>
       </c>
       <c r="I13" t="n">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="J13" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
-        <v>3.9</v>
+        <v>6.8</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.06</v>
+        <v>1.65</v>
       </c>
       <c r="R13" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -2206,64 +2206,64 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG13" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI13" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN13" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO13" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.55</v>
+        <v>2.34</v>
       </c>
       <c r="G14" t="n">
-        <v>3.95</v>
+        <v>2.38</v>
       </c>
       <c r="H14" t="n">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.36</v>
+        <v>3.45</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>2.08</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,58 +2341,58 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2408,66 +2408,66 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="H15" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="J15" t="n">
         <v>3.85</v>
       </c>
-      <c r="G15" t="n">
+      <c r="K15" t="n">
         <v>3.9</v>
       </c>
-      <c r="H15" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="I15" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N15" t="n">
         <v>3.65</v>
       </c>
-      <c r="K15" t="n">
+      <c r="O15" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S15" t="n">
         <v>3.75</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N15" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P15" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R15" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S15" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T15" t="n">
-        <v>1.71</v>
+        <v>1.98</v>
       </c>
       <c r="U15" t="n">
-        <v>2.32</v>
+        <v>1.97</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,58 +2476,58 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
+        <v>14</v>
+      </c>
+      <c r="Y15" t="n">
         <v>17.5</v>
       </c>
-      <c r="Y15" t="n">
-        <v>11.5</v>
-      </c>
       <c r="Z15" t="n">
-        <v>14.5</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="AB15" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="AC15" t="n">
         <v>8.4</v>
       </c>
       <c r="AD15" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="AF15" t="n">
-        <v>32</v>
+        <v>10.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AH15" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AI15" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AJ15" t="n">
-        <v>75</v>
+        <v>18.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>44</v>
+        <v>19.5</v>
       </c>
       <c r="AL15" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM15" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AN15" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AO15" t="n">
-        <v>13.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -2543,125 +2543,395 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="H16" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I16" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="J16" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="n">
+        <v>0</v>
+      </c>
+      <c r="X16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H17" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I17" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N17" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O17" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P17" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T17" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U17" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
+        <v>0</v>
+      </c>
+      <c r="X17" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Sporting Lisbon</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Rio Ave</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F18" t="n">
         <v>1.16</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G18" t="n">
         <v>1.17</v>
       </c>
-      <c r="H16" t="n">
+      <c r="H18" t="n">
         <v>21</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I18" t="n">
         <v>26</v>
       </c>
-      <c r="J16" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="K16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
+      <c r="J18" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="K18" t="n">
+        <v>10</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
         <v>3.1</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="Q18" t="n">
         <v>1.39</v>
       </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0</v>
-      </c>
-      <c r="X16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO16" t="n">
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H2" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="I2" t="n">
         <v>6.4</v>
@@ -694,16 +694,16 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
         <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S2" t="n">
         <v>3.2</v>
@@ -718,7 +718,7 @@
         <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="X2" t="n">
         <v>16</v>
@@ -769,7 +769,7 @@
         <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO2" t="n">
         <v>100</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.24</v>
+        <v>1.01</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="Q3" t="n">
         <v>1.21</v>
@@ -961,28 +961,28 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="S4" t="n">
         <v>1.01</v>
       </c>
       <c r="T4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U4" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V4" t="n">
         <v>1.01</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
         <v>8.4</v>
@@ -1081,103 +1081,103 @@
         <v>1.46</v>
       </c>
       <c r="I5" t="n">
-        <v>1.56</v>
+        <v>1.58</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
         <v>5.3</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AH5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="AK5" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="AM5" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AN5" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="n">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -1207,118 +1207,118 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="H6" t="n">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="I6" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>950</v>
+        <v>6.2</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="P6" t="n">
-        <v>2.02</v>
+        <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.57</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,123 +1328,123 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>1.41</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>4.9</v>
       </c>
       <c r="I7" t="n">
-        <v>10.5</v>
+        <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>5.3</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
-        <v>5.4</v>
+        <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>4.1</v>
+        <v>1.84</v>
       </c>
       <c r="O7" t="n">
-        <v>1.3</v>
+        <v>1.01</v>
       </c>
       <c r="P7" t="n">
-        <v>2.06</v>
+        <v>1.84</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.41</v>
+        <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>2.24</v>
+        <v>1.01</v>
       </c>
       <c r="U7" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X7" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>430</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AC7" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE7" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>7.6</v>
+        <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AH7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
-        <v>240</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1453,7 +1453,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>2.12</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>2.82</v>
+        <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>2.88</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>4.2</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>5.2</v>
       </c>
       <c r="K8" t="n">
-        <v>5.6</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>1.64</v>
+        <v>2.06</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>410</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="AF8" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,66 +1598,66 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Erzurum BB</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>7</v>
+        <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>7.6</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
-        <v>1.6</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>1.62</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>4</v>
+        <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>1.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.14</v>
+        <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>2.18</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1666,64 +1666,64 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>8.6</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AO9" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1738,61 +1738,61 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.74</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>2.78</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.94</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>1.75</v>
+        <v>1.24</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.28</v>
+        <v>1.01</v>
       </c>
       <c r="R10" t="n">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1801,64 +1801,64 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>13.5</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>16.5</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="AM10" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="AN10" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AO10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,66 +1868,66 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>4.4</v>
+        <v>7.2</v>
       </c>
       <c r="G11" t="n">
-        <v>4.7</v>
+        <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>2.06</v>
+        <v>1.6</v>
       </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>1.62</v>
       </c>
       <c r="J11" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>3.45</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.67</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1936,64 +1936,64 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>8.6</v>
       </c>
       <c r="AA11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="n">
-        <v>0</v>
+        <v>9.4</v>
       </c>
       <c r="AD11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE11" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AG11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AJ11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="AL11" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO11" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,66 +2003,66 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>3.55</v>
+        <v>2.76</v>
       </c>
       <c r="G12" t="n">
-        <v>3.85</v>
+        <v>2.8</v>
       </c>
       <c r="H12" t="n">
-        <v>2.46</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>2.58</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
-        <v>3</v>
+        <v>3.35</v>
       </c>
       <c r="K12" t="n">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>1.09</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.55</v>
+        <v>1.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.48</v>
+        <v>2.26</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2071,64 +2071,64 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AB12" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD12" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AK12" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="AL12" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,37 +2138,37 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.82</v>
+        <v>4.6</v>
       </c>
       <c r="G13" t="n">
-        <v>2.32</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.35</v>
+        <v>2.06</v>
       </c>
       <c r="I13" t="n">
-        <v>4.9</v>
+        <v>2.08</v>
       </c>
       <c r="J13" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.4</v>
       </c>
-      <c r="K13" t="n">
-        <v>6.8</v>
-      </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
@@ -2182,10 +2182,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>1.96</v>
+        <v>1.67</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.65</v>
+        <v>2.28</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2263,7 +2263,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,66 +2273,66 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.34</v>
+        <v>3.55</v>
       </c>
       <c r="G14" t="n">
-        <v>2.38</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>2.46</v>
       </c>
       <c r="I14" t="n">
-        <v>3.45</v>
+        <v>2.58</v>
       </c>
       <c r="J14" t="n">
-        <v>3.45</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>1.9</v>
+        <v>1.55</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.08</v>
+        <v>2.48</v>
       </c>
       <c r="R14" t="n">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.14</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -2341,64 +2341,64 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AL14" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM14" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,66 +2408,66 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>76 Igdir Belediyespor</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.76</v>
+        <v>1.95</v>
       </c>
       <c r="G15" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="H15" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="I15" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="J15" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K15" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="Q15" t="n">
         <v>1.78</v>
       </c>
-      <c r="H15" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="K15" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N15" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O15" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="P15" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>2.06</v>
-      </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>3.75</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2476,64 +2476,64 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>17.5</v>
+        <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
       <c r="AG15" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
-        <v>19.5</v>
+        <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
-        <v>12.5</v>
+        <v>0</v>
       </c>
       <c r="AO15" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,66 +2543,66 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>3.55</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>3.95</v>
+        <v>2.38</v>
       </c>
       <c r="H16" t="n">
-        <v>2.24</v>
+        <v>3.45</v>
       </c>
       <c r="I16" t="n">
-        <v>2.36</v>
+        <v>3.5</v>
       </c>
       <c r="J16" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.78</v>
+        <v>1.92</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -2611,58 +2611,58 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AC16" t="n">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF16" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>0</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AK16" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AL16" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AM16" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO16" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2678,66 +2678,66 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>4</v>
+        <v>1.76</v>
       </c>
       <c r="G17" t="n">
-        <v>4.1</v>
+        <v>1.77</v>
       </c>
       <c r="H17" t="n">
-        <v>2.08</v>
+        <v>5.7</v>
       </c>
       <c r="I17" t="n">
-        <v>2.1</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K17" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N17" t="n">
         <v>3.65</v>
       </c>
-      <c r="K17" t="n">
+      <c r="O17" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="P17" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="R17" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S17" t="n">
         <v>3.75</v>
       </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N17" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O17" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P17" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="S17" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T17" t="n">
-        <v>1.7</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="n">
-        <v>2.32</v>
+        <v>1.97</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2746,58 +2746,58 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>17.5</v>
+        <v>14</v>
       </c>
       <c r="Y17" t="n">
-        <v>11.5</v>
+        <v>18</v>
       </c>
       <c r="Z17" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>26</v>
+        <v>170</v>
       </c>
       <c r="AB17" t="n">
-        <v>16.5</v>
+        <v>8</v>
       </c>
       <c r="AC17" t="n">
         <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="AE17" t="n">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="AF17" t="n">
-        <v>30</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AH17" t="n">
-        <v>16.5</v>
+        <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>34</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="n">
-        <v>75</v>
+        <v>18.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>44</v>
+        <v>19.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>80</v>
+        <v>150</v>
       </c>
       <c r="AN17" t="n">
-        <v>40</v>
+        <v>12.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>13.5</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18">
@@ -2813,125 +2813,395 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="G18" t="n">
+        <v>4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J18" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K18" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>4</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="I19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="J19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K19" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N19" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="P19" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="S19" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T19" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U19" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
+        <v>0</v>
+      </c>
+      <c r="X19" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>34</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>44</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>50</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>40</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>17:30:00</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Sporting Lisbon</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Rio Ave</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F20" t="n">
         <v>1.16</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G20" t="n">
         <v>1.17</v>
       </c>
-      <c r="H18" t="n">
+      <c r="H20" t="n">
         <v>21</v>
       </c>
-      <c r="I18" t="n">
-        <v>26</v>
-      </c>
-      <c r="J18" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="I20" t="n">
+        <v>38</v>
+      </c>
+      <c r="J20" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="K20" t="n">
         <v>10</v>
       </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q20" t="n">
         <v>1.39</v>
       </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO18" t="n">
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>2.06</v>
@@ -826,28 +826,28 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.01</v>
+        <v>1.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="Q3" t="n">
         <v>1.21</v>
       </c>
       <c r="R3" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="S3" t="n">
         <v>1.21</v>
       </c>
       <c r="T3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U3" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V3" t="n">
         <v>1.01</v>
@@ -961,22 +961,22 @@
         <v>1.01</v>
       </c>
       <c r="N4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="O4" t="n">
         <v>1.01</v>
       </c>
       <c r="P4" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="Q4" t="n">
         <v>1.01</v>
       </c>
       <c r="R4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="S4" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="T4" t="n">
         <v>1.04</v>
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G5" t="n">
         <v>8.4</v>
@@ -1081,7 +1081,7 @@
         <v>1.46</v>
       </c>
       <c r="I5" t="n">
-        <v>1.58</v>
+        <v>1.56</v>
       </c>
       <c r="J5" t="n">
         <v>4.5</v>
@@ -1111,7 +1111,7 @@
         <v>1.47</v>
       </c>
       <c r="S5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="T5" t="n">
         <v>1.75</v>
@@ -1240,7 +1240,7 @@
         <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
@@ -1249,10 +1249,10 @@
         <v>2.38</v>
       </c>
       <c r="T6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V6" t="n">
         <v>1.07</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H7" t="n">
         <v>4.9</v>
@@ -1354,7 +1354,7 @@
         <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
@@ -1366,7 +1366,7 @@
         <v>1.01</v>
       </c>
       <c r="N7" t="n">
-        <v>1.84</v>
+        <v>2.78</v>
       </c>
       <c r="O7" t="n">
         <v>1.01</v>
@@ -1384,16 +1384,16 @@
         <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U7" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1516,10 +1516,10 @@
         <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="U8" t="n">
         <v>1.77</v>
@@ -1579,7 +1579,7 @@
         <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>300</v>
@@ -1615,7 +1615,7 @@
         <v>2.24</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
         <v>3.25</v>
@@ -1630,16 +1630,16 @@
         <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>2.78</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P9" t="n">
         <v>1.75</v>
@@ -1648,76 +1648,76 @@
         <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
@@ -1747,112 +1747,112 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>2.66</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.24</v>
+        <v>1.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
@@ -1888,19 +1888,19 @@
         <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1909,7 +1909,7 @@
         <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
         <v>1.81</v>
@@ -1930,61 +1930,61 @@
         <v>1.77</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.64</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X11" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
         <v>20</v>
       </c>
       <c r="AC11" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AH11" t="n">
         <v>29</v>
       </c>
       <c r="AI11" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK11" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AL11" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AM11" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>1000</v>
+        <v>210</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.76</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J12" t="n">
         <v>3.35</v>
@@ -2035,10 +2035,10 @@
         <v>3.4</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M12" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
         <v>3.2</v>
@@ -2047,10 +2047,10 @@
         <v>1.43</v>
       </c>
       <c r="P12" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R12" t="n">
         <v>1.27</v>
@@ -2059,16 +2059,16 @@
         <v>4.3</v>
       </c>
       <c r="T12" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U12" t="n">
         <v>1.99</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
@@ -2077,19 +2077,19 @@
         <v>10</v>
       </c>
       <c r="Z12" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE12" t="n">
         <v>36</v>
@@ -2101,16 +2101,16 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>42</v>
       </c>
       <c r="AK12" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
         <v>55</v>
@@ -2122,7 +2122,7 @@
         <v>34</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -2302,7 +2302,7 @@
         <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -2587,10 +2587,10 @@
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R16" t="n">
         <v>1.35</v>
@@ -2599,7 +2599,7 @@
         <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
         <v>2.14</v>
@@ -2638,16 +2638,16 @@
         <v>14.5</v>
       </c>
       <c r="AG16" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AH16" t="n">
         <v>18.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AJ16" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
         <v>26</v>
@@ -2692,16 +2692,16 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="G17" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="H17" t="n">
         <v>5.7</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="J17" t="n">
         <v>3.8</v>
@@ -2761,7 +2761,7 @@
         <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AD17" t="n">
         <v>22</v>
@@ -2839,7 +2839,7 @@
         <v>2.24</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="G19" t="n">
         <v>4</v>
       </c>
-      <c r="G19" t="n">
-        <v>4.1</v>
-      </c>
       <c r="H19" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="I19" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
@@ -2992,7 +2992,7 @@
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q19" t="n">
         <v>1.82</v>
@@ -3004,10 +3004,10 @@
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -3103,10 +3103,10 @@
         <v>1.17</v>
       </c>
       <c r="H20" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I20" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="J20" t="n">
         <v>9.199999999999999</v>
@@ -3202,6 +3202,141 @@
         <v>0</v>
       </c>
       <c r="AO20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Honduras Liga Nacional</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>18:00:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CD Marathon</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Olancho</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="K21" t="n">
+        <v>950</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="R21" t="n">
+        <v>0</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" t="n">
+        <v>0</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="n">
+        <v>0</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -673,10 +673,10 @@
         <v>1.69</v>
       </c>
       <c r="H2" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -694,13 +694,13 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
         <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="R2" t="n">
         <v>1.41</v>
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
         <v>2.44</v>
@@ -730,7 +730,7 @@
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AB2" t="n">
         <v>8.800000000000001</v>
@@ -766,7 +766,7 @@
         <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
         <v>9.6</v>
@@ -826,13 +826,13 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="O3" t="n">
         <v>1.21</v>
       </c>
       <c r="P3" t="n">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="Q3" t="n">
         <v>1.21</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.6</v>
+        <v>5.8</v>
       </c>
       <c r="G5" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="I5" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R5" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.6</v>
+        <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.75</v>
+        <v>1.81</v>
       </c>
       <c r="U5" t="n">
-        <v>1.79</v>
+        <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.78</v>
+        <v>2.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="X5" t="n">
-        <v>24</v>
+        <v>19.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>15.5</v>
+        <v>970</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
         <v>10.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="AM5" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1240,13 +1240,13 @@
         <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1345,7 +1345,7 @@
         <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
         <v>4.9</v>
@@ -1354,13 +1354,13 @@
         <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.01</v>
+        <v>1.32</v>
       </c>
       <c r="M7" t="n">
         <v>1.01</v>
@@ -1381,7 +1381,7 @@
         <v>1.26</v>
       </c>
       <c r="S7" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T7" t="n">
         <v>1.04</v>
@@ -1393,7 +1393,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1495,7 +1495,7 @@
         <v>5.3</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1516,7 +1516,7 @@
         <v>1.41</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="T8" t="n">
         <v>2.22</v>
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
         <v>95</v>
@@ -1564,7 +1564,7 @@
         <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
         <v>11</v>
@@ -1576,10 +1576,10 @@
         <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="AO8" t="n">
         <v>300</v>
@@ -1612,16 +1612,16 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>3.15</v>
@@ -1630,16 +1630,16 @@
         <v>3.7</v>
       </c>
       <c r="L9" t="n">
-        <v>1.01</v>
+        <v>1.44</v>
       </c>
       <c r="M9" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>2.78</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
         <v>1.75</v>
@@ -1648,16 +1648,16 @@
         <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>3.2</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
-        <v>1.04</v>
+        <v>1.82</v>
       </c>
       <c r="U9" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.36</v>
@@ -1666,58 +1666,58 @@
         <v>1.65</v>
       </c>
       <c r="X9" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="Y9" t="n">
-        <v>990</v>
+        <v>14.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="n">
-        <v>990</v>
+        <v>11.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>990</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD9" t="n">
-        <v>990</v>
+        <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AF9" t="n">
-        <v>1000</v>
+        <v>18</v>
       </c>
       <c r="AG9" t="n">
-        <v>990</v>
+        <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AK9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>29</v>
       </c>
       <c r="AO9" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -1747,22 +1747,22 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="G10" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="I10" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="J10" t="n">
         <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1777,16 +1777,16 @@
         <v>1.01</v>
       </c>
       <c r="P10" t="n">
-        <v>1.63</v>
+        <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
         <v>1.22</v>
       </c>
       <c r="S10" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1795,7 +1795,7 @@
         <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="W10" t="n">
         <v>1.25</v>
@@ -1885,7 +1885,7 @@
         <v>7.2</v>
       </c>
       <c r="G11" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="H11" t="n">
         <v>1.59</v>
@@ -1915,10 +1915,10 @@
         <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1933,7 +1933,7 @@
         <v>2.64</v>
       </c>
       <c r="W11" t="n">
-        <v>1.15</v>
+        <v>1.16</v>
       </c>
       <c r="X11" t="n">
         <v>12.5</v>
@@ -1957,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
         <v>60</v>
@@ -1966,10 +1966,10 @@
         <v>28</v>
       </c>
       <c r="AH11" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
         <v>250</v>
@@ -1978,7 +1978,7 @@
         <v>130</v>
       </c>
       <c r="AL11" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="n">
         <v>190</v>
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G12" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="H12" t="n">
         <v>2.9</v>
@@ -2029,52 +2029,52 @@
         <v>2.92</v>
       </c>
       <c r="J12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.35</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.4</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R12" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S12" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
-        <v>1.99</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
         <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
         <v>11</v>
       </c>
       <c r="Y12" t="n">
-        <v>10</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
         <v>17.5</v>
@@ -2083,13 +2083,13 @@
         <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>36</v>
@@ -2101,13 +2101,13 @@
         <v>12.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
         <v>34</v>
@@ -2119,10 +2119,10 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2152,34 +2152,34 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
         <v>2.06</v>
       </c>
       <c r="I13" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="J13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K13" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>2.98</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="P13" t="n">
         <v>1.67</v>
@@ -2188,76 +2188,76 @@
         <v>2.28</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>1.92</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="Z13" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="AK13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AM13" t="n">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="AN13" t="n">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AO13" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -2290,109 +2290,109 @@
         <v>3.55</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
         <v>2.46</v>
       </c>
       <c r="I14" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="P14" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="Q14" t="n">
         <v>2.48</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.37</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>8.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AG14" t="n">
-        <v>0</v>
+        <v>16.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AK14" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AM14" t="n">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AN14" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AO14" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2425,7 +2425,7 @@
         <v>1.95</v>
       </c>
       <c r="G15" t="n">
-        <v>2.26</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
         <v>3.65</v>
@@ -2440,16 +2440,16 @@
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
         <v>2.02</v>
@@ -2458,76 +2458,76 @@
         <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Z15" t="n">
-        <v>0</v>
+        <v>44</v>
       </c>
       <c r="AA15" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AE15" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AG15" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AK15" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL15" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AM15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO15" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16">
@@ -2560,13 +2560,13 @@
         <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="I16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
@@ -2575,7 +2575,7 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2590,7 +2590,7 @@
         <v>1.91</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="R16" t="n">
         <v>1.35</v>
@@ -2599,70 +2599,70 @@
         <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="n">
         <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
         <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE16" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AK16" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.7</v>
+        <v>5.4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
         <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -2719,7 +2719,7 @@
         <v>3.65</v>
       </c>
       <c r="O17" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
         <v>1.9</v>
@@ -2746,16 +2746,16 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="Z17" t="n">
         <v>44</v>
       </c>
       <c r="AA17" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB17" t="n">
         <v>8</v>
@@ -2779,25 +2779,25 @@
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AJ17" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AL17" t="n">
         <v>42</v>
       </c>
       <c r="AM17" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18">
@@ -2830,16 +2830,16 @@
         <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I18" t="n">
         <v>2.24</v>
       </c>
       <c r="J18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
@@ -2860,7 +2860,7 @@
         <v>1.78</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -2962,13 +2962,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="G19" t="n">
         <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
         <v>2.12</v>
@@ -2986,7 +2986,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
         <v>11.5</v>
@@ -3025,13 +3025,13 @@
         <v>14</v>
       </c>
       <c r="AA19" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
         <v>11</v>
@@ -3043,7 +3043,7 @@
         <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH19" t="n">
         <v>16.5</v>
@@ -3052,19 +3052,19 @@
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AL19" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AM19" t="n">
         <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3106,7 +3106,7 @@
         <v>23</v>
       </c>
       <c r="I20" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
         <v>9.199999999999999</v>
@@ -3127,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="n">
         <v>1.39</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
         <v>1.69</v>
@@ -676,7 +676,7 @@
         <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
         <v>4.1</v>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
         <v>2.06</v>
@@ -715,7 +715,7 @@
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
         <v>2.44</v>
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
         <v>16.5</v>
@@ -1078,7 +1078,7 @@
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I5" t="n">
         <v>1.66</v>
@@ -1090,7 +1090,7 @@
         <v>5</v>
       </c>
       <c r="L5" t="n">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1114,7 +1114,7 @@
         <v>2.74</v>
       </c>
       <c r="T5" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U5" t="n">
         <v>2</v>
@@ -1123,19 +1123,19 @@
         <v>2.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>970</v>
+        <v>16</v>
       </c>
       <c r="AB5" t="n">
         <v>30</v>
@@ -1144,19 +1144,19 @@
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE5" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AF5" t="n">
         <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>990</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1165,7 +1165,7 @@
         <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="n">
         <v>100</v>
@@ -1177,7 +1177,7 @@
         <v>110</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.800000000000001</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1345,7 +1345,7 @@
         <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="H7" t="n">
         <v>4.9</v>
@@ -1363,13 +1363,13 @@
         <v>1.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="n">
         <v>2.78</v>
       </c>
       <c r="O7" t="n">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="P7" t="n">
         <v>1.84</v>
@@ -1393,7 +1393,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="G8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -1621,13 +1621,13 @@
         <v>3.2</v>
       </c>
       <c r="I9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
         <v>3.15</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1663,7 +1663,7 @@
         <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="X9" t="n">
         <v>15</v>
@@ -1699,10 +1699,10 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AJ9" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
@@ -1768,13 +1768,13 @@
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N10" t="n">
         <v>2.66</v>
       </c>
       <c r="O10" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="P10" t="n">
         <v>1.66</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="G11" t="n">
         <v>7.2</v>
       </c>
-      <c r="G11" t="n">
-        <v>7.4</v>
-      </c>
       <c r="H11" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="I11" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
@@ -1915,7 +1915,7 @@
         <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
         <v>1.31</v>
@@ -1930,7 +1930,7 @@
         <v>1.77</v>
       </c>
       <c r="V11" t="n">
-        <v>2.64</v>
+        <v>2.58</v>
       </c>
       <c r="W11" t="n">
         <v>1.16</v>
@@ -1942,13 +1942,13 @@
         <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC11" t="n">
         <v>9.199999999999999</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>2.86</v>
       </c>
       <c r="I12" t="n">
-        <v>2.92</v>
+        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2035,7 +2035,7 @@
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M12" t="n">
         <v>1.1</v>
@@ -2059,25 +2059,25 @@
         <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>46</v>
@@ -2086,7 +2086,7 @@
         <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>13</v>
@@ -2098,7 +2098,7 @@
         <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>20</v>
@@ -2116,13 +2116,13 @@
         <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2161,7 @@
         <v>2.06</v>
       </c>
       <c r="I13" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
         <v>3.3</v>
@@ -2290,7 +2290,7 @@
         <v>3.55</v>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="H14" t="n">
         <v>2.46</v>
@@ -2311,7 +2311,7 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.51</v>
@@ -2320,7 +2320,7 @@
         <v>1.57</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
@@ -2329,7 +2329,7 @@
         <v>5.1</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="U14" t="n">
         <v>1.84</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="G15" t="n">
         <v>2.16</v>
@@ -2446,13 +2446,13 @@
         <v>1.01</v>
       </c>
       <c r="N15" t="n">
-        <v>2.04</v>
+        <v>2.22</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q15" t="n">
         <v>1.78</v>
@@ -2461,13 +2461,13 @@
         <v>1.33</v>
       </c>
       <c r="S15" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="T15" t="n">
-        <v>1.01</v>
+        <v>1.47</v>
       </c>
       <c r="U15" t="n">
-        <v>1.01</v>
+        <v>1.81</v>
       </c>
       <c r="V15" t="n">
         <v>1.26</v>
@@ -2524,10 +2524,10 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.34</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.36</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
@@ -2575,7 +2575,7 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2605,10 +2605,10 @@
         <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
         <v>12.5</v>
@@ -2650,7 +2650,7 @@
         <v>30</v>
       </c>
       <c r="AK16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
@@ -2659,10 +2659,10 @@
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17">
@@ -2692,25 +2692,25 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G17" t="n">
         <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
         <v>3.85</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -2734,70 +2734,70 @@
         <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U17" t="n">
         <v>1.97</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="X17" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Y17" t="n">
         <v>17.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AA17" t="n">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="AB17" t="n">
         <v>8</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
         <v>22</v>
       </c>
       <c r="AI17" t="n">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AK17" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL17" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>130</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G18" t="n">
         <v>4.1</v>
@@ -2839,100 +2839,100 @@
         <v>2.24</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.25</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1.07</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z18" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="AB18" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC18" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD18" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="AE18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AF18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AG18" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AH18" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AK18" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2992,10 +2992,10 @@
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
@@ -3043,16 +3043,16 @@
         <v>30</v>
       </c>
       <c r="AG19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>34</v>
       </c>
       <c r="AJ19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK19" t="n">
         <v>46</v>
@@ -3112,7 +3112,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -709,10 +709,10 @@
         <v>3.2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -748,7 +748,7 @@
         <v>10</v>
       </c>
       <c r="AG2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AH2" t="n">
         <v>21</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H5" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="I5" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1123,7 +1123,7 @@
         <v>2.52</v>
       </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X5" t="n">
         <v>20</v>
@@ -1132,10 +1132,10 @@
         <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AB5" t="n">
         <v>30</v>
@@ -1153,10 +1153,10 @@
         <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1165,7 +1165,7 @@
         <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
         <v>100</v>
@@ -1177,7 +1177,7 @@
         <v>110</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>9.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>1.32</v>
       </c>
       <c r="G6" t="n">
-        <v>1.4</v>
+        <v>1.46</v>
       </c>
       <c r="H6" t="n">
         <v>10</v>
@@ -1219,7 +1219,7 @@
         <v>14.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.2</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
         <v>6.2</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="H7" t="n">
         <v>4.9</v>
@@ -1372,7 +1372,7 @@
         <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="Q7" t="n">
         <v>1.96</v>
@@ -1393,7 +1393,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -1489,10 +1489,10 @@
         <v>10.5</v>
       </c>
       <c r="J8" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.36</v>
@@ -1525,10 +1525,10 @@
         <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1579,7 +1579,7 @@
         <v>210</v>
       </c>
       <c r="AN8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>300</v>
@@ -1753,7 +1753,7 @@
         <v>4.9</v>
       </c>
       <c r="H10" t="n">
-        <v>1.93</v>
+        <v>1.97</v>
       </c>
       <c r="I10" t="n">
         <v>2.46</v>
@@ -1762,7 +1762,7 @@
         <v>3.05</v>
       </c>
       <c r="K10" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,7 +1771,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.66</v>
+        <v>2.68</v>
       </c>
       <c r="O10" t="n">
         <v>1.07</v>
@@ -1780,7 +1780,7 @@
         <v>1.66</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.99</v>
       </c>
       <c r="R10" t="n">
         <v>1.22</v>
@@ -1798,7 +1798,7 @@
         <v>1.69</v>
       </c>
       <c r="W10" t="n">
-        <v>1.25</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
         <v>990</v>
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="G11" t="n">
         <v>7.2</v>
@@ -1891,7 +1891,7 @@
         <v>1.61</v>
       </c>
       <c r="I11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J11" t="n">
         <v>4.2</v>
@@ -1909,7 +1909,7 @@
         <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
         <v>1.81</v>
@@ -1927,10 +1927,10 @@
         <v>2.24</v>
       </c>
       <c r="U11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="W11" t="n">
         <v>1.16</v>
@@ -1984,7 +1984,7 @@
         <v>190</v>
       </c>
       <c r="AN11" t="n">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.84</v>
       </c>
-      <c r="G12" t="n">
+      <c r="I12" t="n">
         <v>2.86</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.88</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2047,10 +2047,10 @@
         <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.38</v>
+        <v>2.36</v>
       </c>
       <c r="R12" t="n">
         <v>1.26</v>
@@ -2062,7 +2062,7 @@
         <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="V12" t="n">
         <v>1.53</v>
@@ -2074,7 +2074,7 @@
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
         <v>17</v>
@@ -2086,7 +2086,7 @@
         <v>9.4</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
         <v>13</v>
@@ -2155,16 +2155,16 @@
         <v>4.5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
         <v>2.06</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J13" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K13" t="n">
         <v>3.45</v>
@@ -2203,7 +2203,7 @@
         <v>1.92</v>
       </c>
       <c r="W13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X13" t="n">
         <v>11</v>
@@ -2239,7 +2239,7 @@
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>980</v>
       </c>
       <c r="AJ13" t="n">
         <v>140</v>
@@ -2290,7 +2290,7 @@
         <v>3.55</v>
       </c>
       <c r="G14" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
         <v>2.46</v>
@@ -2329,7 +2329,7 @@
         <v>5.1</v>
       </c>
       <c r="T14" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U14" t="n">
         <v>1.84</v>
@@ -2350,7 +2350,7 @@
         <v>15.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AB14" t="n">
         <v>11</v>
@@ -2362,7 +2362,7 @@
         <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>36</v>
+        <v>980</v>
       </c>
       <c r="AF14" t="n">
         <v>26</v>
@@ -2392,7 +2392,7 @@
         <v>80</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="G16" t="n">
         <v>2.3</v>
       </c>
-      <c r="G16" t="n">
-        <v>2.32</v>
-      </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
@@ -2575,7 +2575,7 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2605,31 +2605,31 @@
         <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
         <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
         <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC16" t="n">
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
         <v>42</v>
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="G17" t="n">
         <v>1.8</v>
@@ -2701,13 +2701,13 @@
         <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="L17" t="n">
         <v>1.42</v>
@@ -2728,13 +2728,13 @@
         <v>2.06</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
         <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U17" t="n">
         <v>1.97</v>
@@ -2755,7 +2755,7 @@
         <v>42</v>
       </c>
       <c r="AA17" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AB17" t="n">
         <v>8</v>
@@ -2839,7 +2839,7 @@
         <v>2.24</v>
       </c>
       <c r="J18" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
@@ -2848,13 +2848,13 @@
         <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.07</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>1.06</v>
+        <v>3.2</v>
       </c>
       <c r="O18" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
         <v>1.76</v>
@@ -2863,16 +2863,16 @@
         <v>2.14</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="U18" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.8</v>
@@ -2881,58 +2881,58 @@
         <v>1.32</v>
       </c>
       <c r="X18" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>15.5</v>
+        <v>980</v>
       </c>
       <c r="AA18" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AB18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>9</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AF18" t="n">
-        <v>30</v>
+        <v>980</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>16.5</v>
       </c>
       <c r="AH18" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AO18" t="n">
         <v>22</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>60</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.12</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
@@ -2980,7 +2980,7 @@
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2992,7 +2992,7 @@
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
         <v>1.83</v>
@@ -3010,61 +3010,61 @@
         <v>2.32</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="Z19" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA19" t="n">
         <v>25</v>
       </c>
       <c r="AB19" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="AD19" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AG19" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH19" t="n">
         <v>16</v>
       </c>
       <c r="AI19" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ19" t="n">
         <v>75</v>
       </c>
       <c r="AK19" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AL19" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AM19" t="n">
         <v>80</v>
       </c>
       <c r="AN19" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AO19" t="n">
         <v>13</v>
@@ -3115,94 +3115,94 @@
         <v>10.5</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="P20" t="n">
         <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>1.79</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.89</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Z20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AD20" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AE20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="AG20" t="n">
-        <v>0</v>
+        <v>15.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AK20" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AL20" t="n">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO20" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -667,13 +667,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="G2" t="n">
         <v>1.69</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
         <v>6</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -700,13 +700,13 @@
         <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="R2" t="n">
         <v>1.41</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
         <v>1.88</v>
@@ -730,7 +730,7 @@
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AB2" t="n">
         <v>8.800000000000001</v>
@@ -1075,10 +1075,10 @@
         <v>5.9</v>
       </c>
       <c r="G5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="I5" t="n">
         <v>1.64</v>
@@ -1087,7 +1087,7 @@
         <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
@@ -1105,13 +1105,13 @@
         <v>2.14</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="R5" t="n">
         <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.74</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
         <v>1.8</v>
@@ -1120,10 +1120,10 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="W5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
         <v>20</v>
@@ -1144,19 +1144,19 @@
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>9.800000000000001</v>
+        <v>11</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH5" t="n">
-        <v>23</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1165,7 +1165,7 @@
         <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AL5" t="n">
         <v>100</v>
@@ -1240,7 +1240,7 @@
         <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
@@ -1258,7 +1258,7 @@
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="H7" t="n">
         <v>4.9</v>
@@ -1354,7 +1354,7 @@
         <v>6.8</v>
       </c>
       <c r="J7" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="K7" t="n">
         <v>4.2</v>
@@ -1375,7 +1375,7 @@
         <v>1.85</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
         <v>1.26</v>
@@ -1393,7 +1393,7 @@
         <v>1.17</v>
       </c>
       <c r="W7" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.42</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.43</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -1507,10 +1507,10 @@
         <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
         <v>1.41</v>
@@ -1525,7 +1525,7 @@
         <v>1.77</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
         <v>3.35</v>
@@ -1573,7 +1573,7 @@
         <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>210</v>
@@ -1651,7 +1651,7 @@
         <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T9" t="n">
         <v>1.82</v>
@@ -1666,7 +1666,7 @@
         <v>1.64</v>
       </c>
       <c r="X9" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y9" t="n">
         <v>14.5</v>
@@ -1885,7 +1885,7 @@
         <v>6.8</v>
       </c>
       <c r="G11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H11" t="n">
         <v>1.61</v>
@@ -1894,7 +1894,7 @@
         <v>1.62</v>
       </c>
       <c r="J11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1909,7 +1909,7 @@
         <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
         <v>1.81</v>
@@ -2020,16 +2020,16 @@
         <v>2.86</v>
       </c>
       <c r="G12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.9</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.86</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
         <v>3.35</v>
@@ -2047,10 +2047,10 @@
         <v>1.45</v>
       </c>
       <c r="P12" t="n">
-        <v>1.7</v>
+        <v>1.71</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>2.34</v>
       </c>
       <c r="R12" t="n">
         <v>1.26</v>
@@ -2065,7 +2065,7 @@
         <v>1.97</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
         <v>1.53</v>
@@ -2074,7 +2074,7 @@
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z12" t="n">
         <v>17</v>
@@ -2083,7 +2083,7 @@
         <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2113,13 +2113,13 @@
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
         <v>38</v>
@@ -2194,7 +2194,7 @@
         <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
         <v>1.87</v>
@@ -2320,7 +2320,7 @@
         <v>1.57</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="R14" t="n">
         <v>1.2</v>
@@ -2329,7 +2329,7 @@
         <v>5.1</v>
       </c>
       <c r="T14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U14" t="n">
         <v>1.84</v>
@@ -2452,22 +2452,22 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q15" t="n">
         <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S15" t="n">
-        <v>2.64</v>
+        <v>2.68</v>
       </c>
       <c r="T15" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U15" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="V15" t="n">
         <v>1.26</v>
@@ -2494,7 +2494,7 @@
         <v>12.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE15" t="n">
         <v>65</v>
@@ -2524,7 +2524,7 @@
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO15" t="n">
         <v>65</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
         <v>3.6</v>
@@ -2587,7 +2587,7 @@
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="Q16" t="n">
         <v>2.06</v>
@@ -2605,7 +2605,7 @@
         <v>2.14</v>
       </c>
       <c r="V16" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
         <v>1.76</v>
@@ -2632,7 +2632,7 @@
         <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -2698,10 +2698,10 @@
         <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
         <v>3.8</v>
@@ -2848,7 +2848,7 @@
         <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N18" t="n">
         <v>3.2</v>
@@ -2860,7 +2860,7 @@
         <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>1.29</v>
@@ -2926,7 +2926,7 @@
         <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN18" t="n">
         <v>1000</v>
@@ -2971,7 +2971,7 @@
         <v>2.08</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
@@ -3016,7 +3016,7 @@
         <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
         <v>11</v>
@@ -3121,10 +3121,10 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>6</v>
+        <v>7.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="P20" t="n">
         <v>3.1</v>
@@ -3133,16 +3133,16 @@
         <v>1.41</v>
       </c>
       <c r="R20" t="n">
-        <v>1.79</v>
+        <v>1.86</v>
       </c>
       <c r="S20" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.01</v>
+        <v>2.28</v>
       </c>
       <c r="U20" t="n">
-        <v>1.01</v>
+        <v>1.64</v>
       </c>
       <c r="V20" t="n">
         <v>1.04</v>
@@ -3151,55 +3151,55 @@
         <v>6.8</v>
       </c>
       <c r="X20" t="n">
-        <v>46</v>
+        <v>990</v>
       </c>
       <c r="Y20" t="n">
-        <v>85</v>
+        <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>1000</v>
+        <v>290</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="AD20" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="AE20" t="n">
-        <v>1000</v>
+        <v>470</v>
       </c>
       <c r="AF20" t="n">
-        <v>10.5</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG20" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>990</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>310</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK20" t="n">
         <v>15.5</v>
       </c>
-      <c r="AH20" t="n">
-        <v>55</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>18</v>
-      </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>1000</v>
+        <v>280</v>
       </c>
       <c r="AN20" t="n">
-        <v>1000</v>
+        <v>3.05</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3244,100 +3244,100 @@
         <v>1000</v>
       </c>
       <c r="J21" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="K21" t="n">
         <v>950</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="Q21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="U21" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="V21" t="n">
         <v>1.01</v>
       </c>
-      <c r="R21" t="n">
-        <v>0</v>
-      </c>
-      <c r="S21" t="n">
-        <v>0</v>
-      </c>
-      <c r="T21" t="n">
-        <v>0</v>
-      </c>
-      <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
-        <v>0</v>
-      </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AD21" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AE21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AH21" t="n">
-        <v>0</v>
+        <v>990</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
         <v>1.69</v>
@@ -694,7 +694,7 @@
         <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
         <v>2.06</v>
@@ -721,7 +721,7 @@
         <v>2.44</v>
       </c>
       <c r="X2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="Y2" t="n">
         <v>21</v>
@@ -736,7 +736,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>9</v>
       </c>
       <c r="AD2" t="n">
         <v>23</v>
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="G3" t="n">
         <v>1000</v>
@@ -811,10 +811,10 @@
         <v>1.01</v>
       </c>
       <c r="I3" t="n">
-        <v>1000</v>
+        <v>2.84</v>
       </c>
       <c r="J3" t="n">
-        <v>1.02</v>
+        <v>1.55</v>
       </c>
       <c r="K3" t="n">
         <v>950</v>
@@ -850,7 +850,7 @@
         <v>1.04</v>
       </c>
       <c r="V3" t="n">
-        <v>1.01</v>
+        <v>1.54</v>
       </c>
       <c r="W3" t="n">
         <v>1.01</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.9</v>
+        <v>5.7</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.55</v>
+        <v>1.56</v>
       </c>
       <c r="I5" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1120,7 +1120,7 @@
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="W5" t="n">
         <v>1.17</v>
@@ -1150,7 +1150,7 @@
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
         <v>25</v>
@@ -1207,19 +1207,19 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="G6" t="n">
-        <v>1.46</v>
+        <v>1.42</v>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="I6" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>5.1</v>
       </c>
       <c r="K6" t="n">
         <v>6.2</v>
@@ -1231,22 +1231,22 @@
         <v>1.01</v>
       </c>
       <c r="N6" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O6" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P6" t="n">
         <v>2.24</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="R6" t="n">
         <v>1.39</v>
       </c>
       <c r="S6" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1258,7 +1258,7 @@
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.15</v>
+        <v>3.35</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="G7" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="H7" t="n">
         <v>4.9</v>
       </c>
       <c r="I7" t="n">
-        <v>6.8</v>
+        <v>6</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1366,19 +1366,19 @@
         <v>1.06</v>
       </c>
       <c r="N7" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="O7" t="n">
         <v>1.06</v>
       </c>
       <c r="P7" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="Q7" t="n">
         <v>1.97</v>
       </c>
       <c r="R7" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S7" t="n">
         <v>3.1</v>
@@ -1390,10 +1390,10 @@
         <v>1.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X7" t="n">
         <v>1000</v>
@@ -1546,7 +1546,7 @@
         <v>7.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
         <v>38</v>
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1891,7 +1891,7 @@
         <v>1.61</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
@@ -1909,7 +1909,7 @@
         <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
         <v>1.81</v>
@@ -1918,7 +1918,7 @@
         <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1930,7 +1930,7 @@
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="W11" t="n">
         <v>1.16</v>
@@ -2032,7 +2032,7 @@
         <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.51</v>
@@ -2074,7 +2074,7 @@
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Z12" t="n">
         <v>17</v>
@@ -2083,7 +2083,7 @@
         <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2119,7 +2119,7 @@
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AO12" t="n">
         <v>38</v>
@@ -2155,7 +2155,7 @@
         <v>4.5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="H13" t="n">
         <v>2.06</v>
@@ -2194,7 +2194,7 @@
         <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>1.87</v>
@@ -2206,7 +2206,7 @@
         <v>1.28</v>
       </c>
       <c r="X13" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="Y13" t="n">
         <v>7.6</v>
@@ -2227,13 +2227,13 @@
         <v>11</v>
       </c>
       <c r="AE13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
@@ -2311,10 +2311,10 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.7</v>
+        <v>2.66</v>
       </c>
       <c r="O14" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="P14" t="n">
         <v>1.57</v>
@@ -2335,7 +2335,7 @@
         <v>1.84</v>
       </c>
       <c r="V14" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W14" t="n">
         <v>1.37</v>
@@ -2440,13 +2440,13 @@
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.01</v>
+        <v>1.36</v>
       </c>
       <c r="M15" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>2.22</v>
+        <v>4</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2458,76 +2458,76 @@
         <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.34</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.68</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.5</v>
+        <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>1.84</v>
+        <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.26</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
         <v>1.86</v>
       </c>
       <c r="X15" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>36</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AK15" t="n">
         <v>25</v>
       </c>
-      <c r="Y15" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>30</v>
-      </c>
       <c r="AL15" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM15" t="n">
         <v>1000</v>
       </c>
       <c r="AN15" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16">
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.65</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
@@ -2575,7 +2575,7 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2602,13 +2602,13 @@
         <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V16" t="n">
         <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="X16" t="n">
         <v>12.5</v>
@@ -2617,16 +2617,16 @@
         <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
         <v>70</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD16" t="n">
         <v>14.5</v>
@@ -2716,7 +2716,7 @@
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O17" t="n">
         <v>1.36</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
         <v>4.1</v>
@@ -2869,10 +2869,10 @@
         <v>3.95</v>
       </c>
       <c r="T18" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U18" t="n">
-        <v>1.04</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
         <v>1.8</v>
@@ -2986,7 +2986,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
@@ -2995,7 +2995,7 @@
         <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
@@ -3010,7 +3010,7 @@
         <v>2.32</v>
       </c>
       <c r="V19" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="W19" t="n">
         <v>1.33</v>
@@ -3097,7 +3097,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="G20" t="n">
         <v>1.17</v>
@@ -3133,13 +3133,13 @@
         <v>1.41</v>
       </c>
       <c r="R20" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="S20" t="n">
         <v>2</v>
       </c>
       <c r="T20" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="U20" t="n">
         <v>1.64</v>
@@ -3235,7 +3235,7 @@
         <v>1.04</v>
       </c>
       <c r="G21" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="H21" t="n">
         <v>1.04</v>
@@ -3256,13 +3256,13 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="O21" t="n">
         <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="Q21" t="n">
         <v>1.28</v>
@@ -3283,7 +3283,7 @@
         <v>1.01</v>
       </c>
       <c r="W21" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="X21" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -694,25 +694,25 @@
         <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="Q2" t="n">
         <v>1.88</v>
       </c>
       <c r="R2" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S2" t="n">
         <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -736,7 +736,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>9</v>
+        <v>9.4</v>
       </c>
       <c r="AD2" t="n">
         <v>23</v>
@@ -769,7 +769,7 @@
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>100</v>
@@ -1117,7 +1117,7 @@
         <v>1.8</v>
       </c>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V5" t="n">
         <v>2.52</v>
@@ -1258,7 +1258,7 @@
         <v>1.07</v>
       </c>
       <c r="W6" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1351,7 +1351,7 @@
         <v>4.9</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>5.8</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1363,13 +1363,13 @@
         <v>1.32</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>2.82</v>
+        <v>3.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.06</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
         <v>1.86</v>
@@ -1378,19 +1378,19 @@
         <v>1.97</v>
       </c>
       <c r="R7" t="n">
-        <v>1.27</v>
+        <v>1.32</v>
       </c>
       <c r="S7" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.04</v>
+        <v>1.9</v>
       </c>
       <c r="V7" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="W7" t="n">
         <v>2.16</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>1000</v>
+        <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1423,7 +1423,7 @@
         <v>1000</v>
       </c>
       <c r="AG7" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="G9" t="n">
         <v>2.54</v>
@@ -1663,7 +1663,7 @@
         <v>1.36</v>
       </c>
       <c r="W9" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1678,10 +1678,10 @@
         <v>80</v>
       </c>
       <c r="AB9" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AC9" t="n">
-        <v>9.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AD9" t="n">
         <v>18</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="G10" t="n">
         <v>4.9</v>
@@ -1756,13 +1756,13 @@
         <v>1.97</v>
       </c>
       <c r="I10" t="n">
-        <v>2.46</v>
+        <v>2.44</v>
       </c>
       <c r="J10" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1783,10 +1783,10 @@
         <v>1.99</v>
       </c>
       <c r="R10" t="n">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="S10" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T10" t="n">
         <v>1.04</v>
@@ -1891,7 +1891,7 @@
         <v>1.61</v>
       </c>
       <c r="I11" t="n">
-        <v>1.64</v>
+        <v>1.63</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
@@ -1909,7 +1909,7 @@
         <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
         <v>1.81</v>
@@ -1918,7 +1918,7 @@
         <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.86</v>
+        <v>2.8</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>2.84</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.92</v>
       </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.94</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2044,7 +2044,7 @@
         <v>3.1</v>
       </c>
       <c r="O12" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="P12" t="n">
         <v>1.71</v>
@@ -2062,28 +2062,28 @@
         <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="V12" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="X12" t="n">
         <v>10.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA12" t="n">
         <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2113,13 +2113,13 @@
         <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AO12" t="n">
         <v>38</v>
@@ -2431,7 +2431,7 @@
         <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>4.8</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
         <v>3.55</v>
@@ -2440,7 +2440,7 @@
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.36</v>
+        <v>1.31</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2458,7 +2458,7 @@
         <v>1.78</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S15" t="n">
         <v>2.96</v>
@@ -2470,7 +2470,7 @@
         <v>2.18</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
         <v>1.86</v>
@@ -2575,7 +2575,7 @@
         <v>3.5</v>
       </c>
       <c r="L16" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
@@ -2596,7 +2596,7 @@
         <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="T16" t="n">
         <v>1.82</v>
@@ -2698,7 +2698,7 @@
         <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
         <v>5.7</v>
@@ -2734,7 +2734,7 @@
         <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="U17" t="n">
         <v>1.97</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G18" t="n">
         <v>4.1</v>
@@ -2851,13 +2851,13 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
         <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
@@ -2866,7 +2866,7 @@
         <v>1.29</v>
       </c>
       <c r="S18" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
         <v>1.86</v>
@@ -2995,7 +2995,7 @@
         <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
@@ -3256,13 +3256,13 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="O21" t="n">
         <v>1.28</v>
       </c>
       <c r="P21" t="n">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="Q21" t="n">
         <v>1.28</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -706,10 +706,10 @@
         <v>1.4</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -757,7 +757,7 @@
         <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AK2" t="n">
         <v>17.5</v>
@@ -772,7 +772,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -1072,7 +1072,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.7</v>
+        <v>5.8</v>
       </c>
       <c r="G5" t="n">
         <v>6.8</v>
@@ -1081,7 +1081,7 @@
         <v>1.56</v>
       </c>
       <c r="I5" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1090,13 +1090,13 @@
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="O5" t="n">
         <v>1.24</v>
@@ -1126,16 +1126,16 @@
         <v>1.17</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>10.5</v>
       </c>
       <c r="AA5" t="n">
-        <v>1000</v>
+        <v>16</v>
       </c>
       <c r="AB5" t="n">
         <v>30</v>
@@ -1162,13 +1162,13 @@
         <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>250</v>
+        <v>230</v>
       </c>
       <c r="AK5" t="n">
         <v>95</v>
       </c>
       <c r="AL5" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="n">
         <v>150</v>
@@ -1210,19 +1210,19 @@
         <v>1.34</v>
       </c>
       <c r="G6" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H6" t="n">
         <v>9.6</v>
       </c>
       <c r="I6" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="J6" t="n">
         <v>5.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
         <v>1.01</v>
@@ -1243,10 +1243,10 @@
         <v>1.66</v>
       </c>
       <c r="R6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="S6" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="T6" t="n">
         <v>1.04</v>
@@ -1255,7 +1255,7 @@
         <v>1.04</v>
       </c>
       <c r="V6" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="W6" t="n">
         <v>3.3</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.73</v>
+        <v>1.78</v>
       </c>
       <c r="G7" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.8</v>
+        <v>5.6</v>
       </c>
       <c r="J7" t="n">
         <v>3.55</v>
@@ -1360,43 +1360,43 @@
         <v>4.2</v>
       </c>
       <c r="L7" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.05</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="U7" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
         <v>1.21</v>
       </c>
       <c r="W7" t="n">
-        <v>2.16</v>
+        <v>2.08</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>17</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1411,7 +1411,7 @@
         <v>8.6</v>
       </c>
       <c r="AC7" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1624,10 +1624,10 @@
         <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1642,13 +1642,13 @@
         <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="Q9" t="n">
         <v>2.06</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
         <v>3.8</v>
@@ -1660,7 +1660,7 @@
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
         <v>1.65</v>
@@ -1714,7 +1714,7 @@
         <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AO9" t="n">
         <v>60</v>
@@ -1750,7 +1750,7 @@
         <v>3.4</v>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="H10" t="n">
         <v>1.97</v>
@@ -1777,7 +1777,7 @@
         <v>1.07</v>
       </c>
       <c r="P10" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="Q10" t="n">
         <v>1.99</v>
@@ -1888,7 +1888,7 @@
         <v>7.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I11" t="n">
         <v>1.63</v>
@@ -1900,7 +1900,7 @@
         <v>4.3</v>
       </c>
       <c r="L11" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M11" t="n">
         <v>1.08</v>
@@ -1918,7 +1918,7 @@
         <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1969,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>250</v>
@@ -2155,7 +2155,7 @@
         <v>4.5</v>
       </c>
       <c r="G13" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
         <v>2.06</v>
@@ -2176,19 +2176,19 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>2.98</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
       </c>
       <c r="P13" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="Q13" t="n">
         <v>2.28</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
         <v>4.4</v>
@@ -2197,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
         <v>1.92</v>
@@ -2233,7 +2233,7 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
@@ -2311,25 +2311,25 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.66</v>
+        <v>2.74</v>
       </c>
       <c r="O14" t="n">
         <v>1.52</v>
       </c>
       <c r="P14" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.48</v>
+        <v>2.54</v>
       </c>
       <c r="R14" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="U14" t="n">
         <v>1.84</v>
@@ -2341,10 +2341,10 @@
         <v>1.37</v>
       </c>
       <c r="X14" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z14" t="n">
         <v>15.5</v>
@@ -2422,25 +2422,25 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.96</v>
+        <v>1.97</v>
       </c>
       <c r="G15" t="n">
         <v>2.16</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K15" t="n">
         <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
@@ -2455,22 +2455,22 @@
         <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="T15" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
         <v>1.86</v>
@@ -2485,7 +2485,7 @@
         <v>36</v>
       </c>
       <c r="AA15" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
         <v>13</v>
@@ -2494,13 +2494,13 @@
         <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AE15" t="n">
         <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AG15" t="n">
         <v>13</v>
@@ -2515,7 +2515,7 @@
         <v>30</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL15" t="n">
         <v>40</v>
@@ -2527,7 +2527,7 @@
         <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16">
@@ -2995,7 +2995,7 @@
         <v>2.16</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.04</v>
+        <v>1.47</v>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>1.61</v>
       </c>
       <c r="H21" t="n">
-        <v>1.04</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
-        <v>1000</v>
+        <v>9.6</v>
       </c>
       <c r="J21" t="n">
-        <v>1.03</v>
+        <v>3.6</v>
       </c>
       <c r="K21" t="n">
-        <v>950</v>
+        <v>5.2</v>
       </c>
       <c r="L21" t="n">
         <v>1.01</v>
@@ -3256,22 +3256,22 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>1.36</v>
+        <v>2.88</v>
       </c>
       <c r="O21" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>1.36</v>
+        <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="S21" t="n">
-        <v>1.28</v>
+        <v>2.44</v>
       </c>
       <c r="T21" t="n">
         <v>1.04</v>
@@ -3280,10 +3280,10 @@
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="W21" t="n">
-        <v>1.22</v>
+        <v>2.62</v>
       </c>
       <c r="X21" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -679,7 +679,7 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K2" t="n">
         <v>4.3</v>
@@ -709,7 +709,7 @@
         <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -1081,7 +1081,7 @@
         <v>1.56</v>
       </c>
       <c r="I5" t="n">
-        <v>1.65</v>
+        <v>1.64</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1090,7 +1090,7 @@
         <v>4.9</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1120,7 +1120,7 @@
         <v>2.02</v>
       </c>
       <c r="V5" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="W5" t="n">
         <v>1.17</v>
@@ -1210,7 +1210,7 @@
         <v>1.34</v>
       </c>
       <c r="G6" t="n">
-        <v>1.43</v>
+        <v>1.5</v>
       </c>
       <c r="H6" t="n">
         <v>9.6</v>
@@ -1219,7 +1219,7 @@
         <v>13.5</v>
       </c>
       <c r="J6" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="K6" t="n">
         <v>6</v>
@@ -1258,7 +1258,7 @@
         <v>1.08</v>
       </c>
       <c r="W6" t="n">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="X6" t="n">
         <v>1000</v>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.96</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="J7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="K7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L7" t="n">
         <v>1.33</v>
@@ -1366,37 +1366,37 @@
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="O7" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.32</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T7" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U7" t="n">
         <v>1.94</v>
       </c>
-      <c r="R7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1.96</v>
-      </c>
       <c r="V7" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="X7" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1408,10 +1408,10 @@
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AG7" t="n">
         <v>11</v>
@@ -1543,7 +1543,7 @@
         <v>410</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
         <v>11.5</v>
@@ -1645,7 +1645,7 @@
         <v>1.76</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R9" t="n">
         <v>1.29</v>
@@ -1753,7 +1753,7 @@
         <v>5.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.97</v>
+        <v>1.91</v>
       </c>
       <c r="I10" t="n">
         <v>2.44</v>
@@ -1762,7 +1762,7 @@
         <v>3.2</v>
       </c>
       <c r="K10" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1771,7 +1771,7 @@
         <v>1.07</v>
       </c>
       <c r="N10" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O10" t="n">
         <v>1.07</v>
@@ -1780,7 +1780,7 @@
         <v>1.68</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="R10" t="n">
         <v>1.24</v>
@@ -1888,7 +1888,7 @@
         <v>7.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I11" t="n">
         <v>1.63</v>
@@ -1930,7 +1930,7 @@
         <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>2.56</v>
+        <v>2.58</v>
       </c>
       <c r="W11" t="n">
         <v>1.16</v>
@@ -1969,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
         <v>250</v>
@@ -2116,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
         <v>36</v>
@@ -2287,7 +2287,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="G14" t="n">
         <v>3.7</v>
@@ -2296,7 +2296,7 @@
         <v>2.46</v>
       </c>
       <c r="I14" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2332,16 +2332,16 @@
         <v>2.06</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W14" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="X14" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
         <v>8.199999999999999</v>
@@ -2356,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.2</v>
+        <v>7.8</v>
       </c>
       <c r="AD14" t="n">
         <v>13</v>
@@ -2425,7 +2425,7 @@
         <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
@@ -2461,7 +2461,7 @@
         <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T15" t="n">
         <v>1.68</v>
@@ -2470,10 +2470,10 @@
         <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.86</v>
+        <v>1.8</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2620,7 +2620,7 @@
         <v>23</v>
       </c>
       <c r="AA16" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB16" t="n">
         <v>9.800000000000001</v>
@@ -2701,7 +2701,7 @@
         <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.8</v>
@@ -2710,7 +2710,7 @@
         <v>3.9</v>
       </c>
       <c r="L17" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -2830,10 +2830,10 @@
         <v>3.75</v>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I18" t="n">
         <v>2.24</v>
@@ -2851,19 +2851,19 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="O18" t="n">
         <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
       </c>
       <c r="R18" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S18" t="n">
         <v>3.9</v>
@@ -2878,7 +2878,7 @@
         <v>1.8</v>
       </c>
       <c r="W18" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X18" t="n">
         <v>12.5</v>
@@ -2932,7 +2932,7 @@
         <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19">
@@ -3127,7 +3127,7 @@
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q20" t="n">
         <v>1.41</v>
@@ -3178,7 +3178,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="AG20" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
         <v>990</v>
@@ -3250,13 +3250,13 @@
         <v>5.2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.01</v>
+        <v>1.29</v>
       </c>
       <c r="M21" t="n">
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.88</v>
+        <v>2.74</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -667,10 +667,10 @@
         </is>
       </c>
       <c r="F2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2" t="n">
         <v>1.67</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1.69</v>
       </c>
       <c r="H2" t="n">
         <v>5.9</v>
@@ -679,10 +679,10 @@
         <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.38</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -700,7 +700,7 @@
         <v>2.04</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="R2" t="n">
         <v>1.4</v>
@@ -709,7 +709,7 @@
         <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -718,7 +718,7 @@
         <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
@@ -745,7 +745,7 @@
         <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AG2" t="n">
         <v>9.6</v>
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
         <v>16</v>
@@ -769,7 +769,7 @@
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AO2" t="n">
         <v>95</v>
@@ -1072,25 +1072,25 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.8</v>
+        <v>5</v>
       </c>
       <c r="G5" t="n">
-        <v>6.8</v>
+        <v>5.9</v>
       </c>
       <c r="H5" t="n">
-        <v>1.56</v>
+        <v>1.66</v>
       </c>
       <c r="I5" t="n">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1099,64 +1099,64 @@
         <v>4.2</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.14</v>
+        <v>2.1</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>2.78</v>
+        <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U5" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>2.56</v>
+        <v>2.36</v>
       </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AB5" t="n">
         <v>30</v>
       </c>
       <c r="AC5" t="n">
-        <v>10.5</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
       </c>
       <c r="AE5" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AF5" t="n">
         <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1165,19 +1165,19 @@
         <v>230</v>
       </c>
       <c r="AK5" t="n">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>140</v>
       </c>
       <c r="AM5" t="n">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="AN5" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AO5" t="n">
-        <v>9.800000000000001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
@@ -1207,64 +1207,64 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="G6" t="n">
         <v>1.5</v>
       </c>
       <c r="H6" t="n">
-        <v>9.6</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>13.5</v>
+        <v>11.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="K6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="N6" t="n">
-        <v>3.85</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.18</v>
+        <v>1.21</v>
       </c>
       <c r="P6" t="n">
-        <v>2.24</v>
+        <v>2.14</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.66</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="S6" t="n">
-        <v>2.46</v>
+        <v>2.78</v>
       </c>
       <c r="T6" t="n">
-        <v>1.04</v>
+        <v>1.94</v>
       </c>
       <c r="U6" t="n">
-        <v>1.04</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="W6" t="n">
-        <v>3</v>
+        <v>2.92</v>
       </c>
       <c r="X6" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="Z6" t="n">
         <v>1000</v>
@@ -1273,43 +1273,43 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AG6" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AH6" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AL6" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AM6" t="n">
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,61 +1342,61 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="G7" t="n">
-        <v>1.96</v>
+        <v>1.89</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.45</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R7" t="n">
         <v>1.33</v>
       </c>
-      <c r="P7" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.32</v>
-      </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
         <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="V7" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.04</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1423,7 +1423,7 @@
         <v>12</v>
       </c>
       <c r="AG7" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
         <v>1000</v>
@@ -1615,10 +1615,10 @@
         <v>2.26</v>
       </c>
       <c r="G9" t="n">
-        <v>2.54</v>
+        <v>2.52</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
         <v>3.75</v>
@@ -1627,7 +1627,7 @@
         <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1663,7 +1663,7 @@
         <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1687,7 +1687,7 @@
         <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AF9" t="n">
         <v>18</v>
@@ -1747,79 +1747,79 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.4</v>
+        <v>3.9</v>
       </c>
       <c r="G10" t="n">
-        <v>5.1</v>
+        <v>4.4</v>
       </c>
       <c r="H10" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.44</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>5.5</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.07</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.68</v>
+        <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>1.98</v>
       </c>
       <c r="V10" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
         <v>1.33</v>
       </c>
       <c r="X10" t="n">
-        <v>990</v>
+        <v>15</v>
       </c>
       <c r="Y10" t="n">
-        <v>990</v>
+        <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>990</v>
+        <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>990</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>990</v>
+        <v>13</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>990</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
-        <v>990</v>
+        <v>24</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1852,7 +1852,7 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1906,16 +1906,16 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
         <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="R11" t="n">
         <v>1.3</v>
@@ -1927,7 +1927,7 @@
         <v>2.24</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V11" t="n">
         <v>2.58</v>
@@ -2023,16 +2023,16 @@
         <v>2.84</v>
       </c>
       <c r="H12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="I12" t="n">
         <v>2.92</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.94</v>
-      </c>
       <c r="J12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="K12" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="L12" t="n">
         <v>1.51</v>
@@ -2065,7 +2065,7 @@
         <v>1.96</v>
       </c>
       <c r="V12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
         <v>1.54</v>
@@ -2077,7 +2077,7 @@
         <v>9.6</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>46</v>
@@ -2101,7 +2101,7 @@
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
@@ -2116,7 +2116,7 @@
         <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
         <v>36</v>
@@ -2176,7 +2176,7 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -2200,7 +2200,7 @@
         <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="W13" t="n">
         <v>1.28</v>
@@ -2290,7 +2290,7 @@
         <v>3.45</v>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
         <v>2.46</v>
@@ -2302,7 +2302,7 @@
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.57</v>
@@ -2311,13 +2311,13 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.74</v>
+        <v>2.68</v>
       </c>
       <c r="O14" t="n">
         <v>1.52</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q14" t="n">
         <v>2.54</v>
@@ -2338,7 +2338,7 @@
         <v>1.66</v>
       </c>
       <c r="W14" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
         <v>9</v>
@@ -2425,13 +2425,13 @@
         <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="J15" t="n">
         <v>3.6</v>
@@ -2470,10 +2470,10 @@
         <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
         <v>2.34</v>
@@ -2602,7 +2602,7 @@
         <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="V16" t="n">
         <v>1.38</v>
@@ -2698,10 +2698,10 @@
         <v>1.8</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="I17" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="J17" t="n">
         <v>3.8</v>
@@ -2743,7 +2743,7 @@
         <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -2776,7 +2776,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI17" t="n">
         <v>85</v>
@@ -2839,7 +2839,7 @@
         <v>2.24</v>
       </c>
       <c r="J18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
@@ -2851,13 +2851,13 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q18" t="n">
         <v>2.12</v>
@@ -2875,7 +2875,7 @@
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W18" t="n">
         <v>1.33</v>
@@ -2980,7 +2980,7 @@
         <v>3.75</v>
       </c>
       <c r="L19" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2992,7 +2992,7 @@
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
         <v>1.82</v>
@@ -3142,7 +3142,7 @@
         <v>2.3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.64</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
         <v>1.04</v>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="G21" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I21" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>3.6</v>
+        <v>3.85</v>
       </c>
       <c r="K21" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="L21" t="n">
         <v>1.29</v>
@@ -3256,7 +3256,7 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
@@ -3265,13 +3265,13 @@
         <v>1.92</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>1.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S21" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="T21" t="n">
         <v>1.04</v>
@@ -3280,10 +3280,10 @@
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W21" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="X21" t="n">
         <v>990</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -670,7 +670,7 @@
         <v>1.66</v>
       </c>
       <c r="G2" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="H2" t="n">
         <v>5.9</v>
@@ -691,7 +691,7 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O2" t="n">
         <v>1.3</v>
@@ -733,7 +733,7 @@
         <v>160</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
@@ -802,94 +802,94 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.54</v>
+        <v>1.09</v>
       </c>
       <c r="G3" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="H3" t="n">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="I3" t="n">
-        <v>2.84</v>
+        <v>1.18</v>
       </c>
       <c r="J3" t="n">
-        <v>1.55</v>
+        <v>6.6</v>
       </c>
       <c r="K3" t="n">
-        <v>950</v>
+        <v>11</v>
       </c>
       <c r="L3" t="n">
-        <v>1.01</v>
+        <v>1.22</v>
       </c>
       <c r="M3" t="n">
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>1.34</v>
+        <v>4.1</v>
       </c>
       <c r="O3" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>1.34</v>
+        <v>2.4</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.21</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="S3" t="n">
-        <v>1.21</v>
+        <v>2.18</v>
       </c>
       <c r="T3" t="n">
-        <v>1.04</v>
+        <v>2.72</v>
       </c>
       <c r="U3" t="n">
-        <v>1.04</v>
+        <v>1.43</v>
       </c>
       <c r="V3" t="n">
-        <v>1.54</v>
+        <v>5.7</v>
       </c>
       <c r="W3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AH3" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AI3" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>1000</v>
+        <v>4.2</v>
       </c>
     </row>
     <row r="4">
@@ -937,58 +937,58 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.01</v>
+        <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>1000</v>
+        <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>1.01</v>
+        <v>2.72</v>
       </c>
       <c r="I4" t="n">
-        <v>1000</v>
+        <v>3.6</v>
       </c>
       <c r="J4" t="n">
-        <v>1.02</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
-        <v>950</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.01</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>1.17</v>
+        <v>2.78</v>
       </c>
       <c r="O4" t="n">
-        <v>1.01</v>
+        <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.17</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.01</v>
+        <v>1.96</v>
       </c>
       <c r="R4" t="n">
-        <v>1.1</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>1.05</v>
+        <v>3.45</v>
       </c>
       <c r="T4" t="n">
-        <v>1.04</v>
+        <v>1.8</v>
       </c>
       <c r="U4" t="n">
-        <v>1.04</v>
+        <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.01</v>
+        <v>1.39</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,16 +1072,16 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="G5" t="n">
-        <v>5.9</v>
+        <v>6.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="I5" t="n">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="J5" t="n">
         <v>4.3</v>
@@ -1090,7 +1090,7 @@
         <v>4.6</v>
       </c>
       <c r="L5" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1102,40 +1102,40 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
         <v>1.74</v>
       </c>
       <c r="R5" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>2.84</v>
       </c>
       <c r="T5" t="n">
-        <v>1.76</v>
+        <v>1.79</v>
       </c>
       <c r="U5" t="n">
         <v>2.06</v>
       </c>
       <c r="V5" t="n">
-        <v>2.36</v>
+        <v>2.46</v>
       </c>
       <c r="W5" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="X5" t="n">
         <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>30</v>
@@ -1144,40 +1144,40 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
         <v>17.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>48</v>
       </c>
       <c r="AG5" t="n">
         <v>22</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>230</v>
+        <v>160</v>
       </c>
       <c r="AK5" t="n">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="AL5" t="n">
         <v>140</v>
       </c>
       <c r="AM5" t="n">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="AN5" t="n">
-        <v>180</v>
+        <v>85</v>
       </c>
       <c r="AO5" t="n">
-        <v>1000</v>
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -1207,25 +1207,25 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
         <v>11.5</v>
       </c>
       <c r="J6" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="K6" t="n">
         <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="M6" t="n">
         <v>1.04</v>
@@ -1234,31 +1234,31 @@
         <v>4.3</v>
       </c>
       <c r="O6" t="n">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q6" t="n">
         <v>1.72</v>
       </c>
       <c r="R6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="S6" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.94</v>
+        <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>2.92</v>
+        <v>3.05</v>
       </c>
       <c r="X6" t="n">
         <v>24</v>
@@ -1300,7 +1300,7 @@
         <v>15</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AL6" t="n">
         <v>44</v>
@@ -1309,7 +1309,7 @@
         <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>1.86</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
@@ -1360,28 +1360,28 @@
         <v>4</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="T7" t="n">
         <v>1.86</v>
@@ -1393,10 +1393,10 @@
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="X7" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="Y7" t="n">
         <v>1000</v>
@@ -1480,7 +1480,7 @@
         <v>1.41</v>
       </c>
       <c r="G8" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="H8" t="n">
         <v>10</v>
@@ -1489,10 +1489,10 @@
         <v>10.5</v>
       </c>
       <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.36</v>
@@ -1501,7 +1501,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
         <v>1.3</v>
@@ -1510,10 +1510,10 @@
         <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="S8" t="n">
         <v>3.3</v>
@@ -1522,13 +1522,13 @@
         <v>2.22</v>
       </c>
       <c r="U8" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V8" t="n">
         <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1537,13 +1537,13 @@
         <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AA8" t="n">
         <v>410</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AC8" t="n">
         <v>11.5</v>
@@ -1573,10 +1573,10 @@
         <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="AN8" t="n">
         <v>7</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="G10" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="H10" t="n">
         <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K10" t="n">
         <v>3.65</v>
@@ -1780,7 +1780,7 @@
         <v>1.77</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
@@ -1888,7 +1888,7 @@
         <v>7.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I11" t="n">
         <v>1.63</v>
@@ -1906,7 +1906,7 @@
         <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O11" t="n">
         <v>1.39</v>
@@ -1927,7 +1927,7 @@
         <v>2.24</v>
       </c>
       <c r="U11" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
         <v>2.58</v>
@@ -1969,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>250</v>
@@ -2023,7 +2023,7 @@
         <v>2.84</v>
       </c>
       <c r="H12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="I12" t="n">
         <v>2.92</v>
@@ -2062,7 +2062,7 @@
         <v>1.98</v>
       </c>
       <c r="U12" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="V12" t="n">
         <v>1.52</v>
@@ -2287,13 +2287,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="H14" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="I14" t="n">
         <v>2.52</v>
@@ -2302,7 +2302,7 @@
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="L14" t="n">
         <v>1.57</v>
@@ -2317,7 +2317,7 @@
         <v>1.52</v>
       </c>
       <c r="P14" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q14" t="n">
         <v>2.54</v>
@@ -2335,10 +2335,10 @@
         <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="X14" t="n">
         <v>9</v>
@@ -2425,7 +2425,7 @@
         <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
@@ -2461,19 +2461,19 @@
         <v>1.41</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.84</v>
+        <v>1.86</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G16" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="H16" t="n">
         <v>3.55</v>
@@ -2602,13 +2602,13 @@
         <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="V16" t="n">
         <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.74</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
         <v>12.5</v>
@@ -2617,7 +2617,7 @@
         <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
         <v>65</v>
@@ -2635,7 +2635,7 @@
         <v>40</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -2659,7 +2659,7 @@
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO16" t="n">
         <v>42</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="G17" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="H17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="I17" t="n">
         <v>5.7</v>
       </c>
       <c r="J17" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2728,7 +2728,7 @@
         <v>2.06</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="n">
         <v>3.75</v>
@@ -2737,13 +2737,13 @@
         <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.97</v>
+        <v>1.99</v>
       </c>
       <c r="V17" t="n">
         <v>1.21</v>
       </c>
       <c r="W17" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -2836,7 +2836,7 @@
         <v>2.16</v>
       </c>
       <c r="I18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J18" t="n">
         <v>3.4</v>
@@ -2854,7 +2854,7 @@
         <v>3.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P18" t="n">
         <v>1.79</v>
@@ -2965,10 +2965,10 @@
         <v>3.95</v>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
         <v>2.12</v>
@@ -2977,7 +2977,7 @@
         <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -2986,7 +2986,7 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="O19" t="n">
         <v>1.27</v>
@@ -3016,7 +3016,7 @@
         <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y19" t="n">
         <v>11</v>
@@ -3127,22 +3127,22 @@
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="T20" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="V20" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -697,7 +697,7 @@
         <v>1.3</v>
       </c>
       <c r="P2" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="Q2" t="n">
         <v>1.89</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I3" t="n">
         <v>1.18</v>
       </c>
       <c r="J3" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="K3" t="n">
         <v>11</v>
@@ -847,7 +847,7 @@
         <v>2.72</v>
       </c>
       <c r="U3" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="V3" t="n">
         <v>5.7</v>
@@ -877,7 +877,7 @@
         <v>17.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -943,16 +943,16 @@
         <v>3.25</v>
       </c>
       <c r="H4" t="n">
-        <v>2.72</v>
+        <v>2.58</v>
       </c>
       <c r="I4" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
@@ -970,7 +970,7 @@
         <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
@@ -985,7 +985,7 @@
         <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="W4" t="n">
         <v>1.45</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>6.6</v>
+        <v>8.6</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6</v>
+        <v>1.46</v>
       </c>
       <c r="I5" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="K5" t="n">
-        <v>4.6</v>
+        <v>5.2</v>
       </c>
       <c r="L5" t="n">
         <v>1.28</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.74</v>
+        <v>1.71</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
-        <v>2.46</v>
+        <v>2.88</v>
       </c>
       <c r="W5" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>14</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>990</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AD5" t="n">
         <v>11</v>
       </c>
-      <c r="AA5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AE5" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
+        <v>110</v>
+      </c>
+      <c r="AM5" t="n">
         <v>140</v>
       </c>
-      <c r="AM5" t="n">
-        <v>100</v>
-      </c>
       <c r="AN5" t="n">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.800000000000001</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6">
@@ -1210,7 +1210,7 @@
         <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
         <v>8.4</v>
@@ -1252,13 +1252,13 @@
         <v>1.97</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
         <v>1.1</v>
       </c>
       <c r="W6" t="n">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="X6" t="n">
         <v>24</v>
@@ -1267,7 +1267,7 @@
         <v>36</v>
       </c>
       <c r="Z6" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
@@ -1345,7 +1345,7 @@
         <v>1.83</v>
       </c>
       <c r="G7" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
@@ -1357,7 +1357,7 @@
         <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1384,16 +1384,16 @@
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
         <v>18</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="G8" t="n">
         <v>1.43</v>
       </c>
       <c r="H8" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="I8" t="n">
         <v>10</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10.5</v>
       </c>
       <c r="J8" t="n">
         <v>5</v>
@@ -1495,7 +1495,7 @@
         <v>5.1</v>
       </c>
       <c r="L8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1504,7 +1504,7 @@
         <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
         <v>2.04</v>
@@ -1525,7 +1525,7 @@
         <v>1.79</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W8" t="n">
         <v>3.3</v>
@@ -1534,40 +1534,40 @@
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
         <v>90</v>
       </c>
       <c r="AA8" t="n">
-        <v>410</v>
+        <v>390</v>
       </c>
       <c r="AB8" t="n">
         <v>7.6</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AK8" t="n">
         <v>15.5</v>
@@ -1579,10 +1579,10 @@
         <v>200</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>300</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.52</v>
+        <v>2.46</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.75</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="K9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>
@@ -1654,16 +1654,16 @@
         <v>3.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1678,7 +1678,7 @@
         <v>80</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -1759,10 +1759,10 @@
         <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1777,10 +1777,10 @@
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
@@ -1789,13 +1789,13 @@
         <v>3.85</v>
       </c>
       <c r="T10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.84</v>
-      </c>
-      <c r="U10" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.83</v>
       </c>
       <c r="W10" t="n">
         <v>1.33</v>
@@ -1882,13 +1882,13 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="H11" t="n">
-        <v>1.62</v>
+        <v>1.61</v>
       </c>
       <c r="I11" t="n">
         <v>1.63</v>
@@ -1897,7 +1897,7 @@
         <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
@@ -1912,7 +1912,7 @@
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="Q11" t="n">
         <v>2.16</v>
@@ -1924,7 +1924,7 @@
         <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U11" t="n">
         <v>1.78</v>
@@ -2017,13 +2017,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="G12" t="n">
         <v>2.84</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
         <v>2.92</v>
@@ -2047,10 +2047,10 @@
         <v>1.44</v>
       </c>
       <c r="P12" t="n">
-        <v>1.71</v>
+        <v>1.7</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.34</v>
+        <v>2.36</v>
       </c>
       <c r="R12" t="n">
         <v>1.26</v>
@@ -2059,7 +2059,7 @@
         <v>4.5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="U12" t="n">
         <v>1.98</v>
@@ -2197,7 +2197,7 @@
         <v>2</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V13" t="n">
         <v>1.93</v>
@@ -2290,10 +2290,10 @@
         <v>3.5</v>
       </c>
       <c r="G14" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="H14" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="I14" t="n">
         <v>2.52</v>
@@ -2302,7 +2302,7 @@
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
         <v>1.57</v>
@@ -2356,7 +2356,7 @@
         <v>11</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
         <v>13</v>
@@ -2425,13 +2425,13 @@
         <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="H15" t="n">
         <v>3.6</v>
       </c>
       <c r="I15" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="J15" t="n">
         <v>3.6</v>
@@ -2464,7 +2464,7 @@
         <v>2.94</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="U15" t="n">
         <v>2.2</v>
@@ -2473,7 +2473,7 @@
         <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="X15" t="n">
         <v>21</v>
@@ -2608,7 +2608,7 @@
         <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
         <v>12.5</v>
@@ -2626,7 +2626,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD16" t="n">
         <v>14.5</v>
@@ -2701,7 +2701,7 @@
         <v>5.5</v>
       </c>
       <c r="I17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
@@ -2725,10 +2725,10 @@
         <v>1.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="S17" t="n">
         <v>3.75</v>
@@ -2833,16 +2833,16 @@
         <v>4</v>
       </c>
       <c r="H18" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="I18" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2851,16 +2851,16 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O18" t="n">
         <v>1.38</v>
       </c>
       <c r="P18" t="n">
-        <v>1.79</v>
+        <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>1.3</v>
@@ -2869,13 +2869,13 @@
         <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="U18" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
         <v>1.33</v>
@@ -2887,7 +2887,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="AA18" t="n">
         <v>980</v>
@@ -2896,7 +2896,7 @@
         <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AD18" t="n">
         <v>11</v>
@@ -2911,7 +2911,7 @@
         <v>16.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI18" t="n">
         <v>980</v>
@@ -2920,10 +2920,10 @@
         <v>80</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
         <v>140</v>
@@ -2968,16 +2968,16 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.1</v>
       </c>
-      <c r="I19" t="n">
-        <v>2.12</v>
-      </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -3010,7 +3010,7 @@
         <v>2.32</v>
       </c>
       <c r="V19" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="W19" t="n">
         <v>1.33</v>
@@ -3046,7 +3046,7 @@
         <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
         <v>32</v>
@@ -3106,7 +3106,7 @@
         <v>23</v>
       </c>
       <c r="I20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J20" t="n">
         <v>9.199999999999999</v>
@@ -3130,19 +3130,19 @@
         <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R20" t="n">
         <v>1.86</v>
       </c>
       <c r="S20" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="T20" t="n">
         <v>2.32</v>
       </c>
       <c r="U20" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="V20" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -709,7 +709,7 @@
         <v>3.3</v>
       </c>
       <c r="T2" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
         <v>2</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
+        <v>28</v>
+      </c>
+      <c r="G3" t="n">
+        <v>40</v>
+      </c>
+      <c r="H3" t="n">
         <v>1.13</v>
       </c>
-      <c r="G3" t="n">
-        <v>38</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.14</v>
-      </c>
       <c r="I3" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="J3" t="n">
-        <v>7.4</v>
+        <v>8.4</v>
       </c>
       <c r="K3" t="n">
         <v>11</v>
@@ -826,31 +826,31 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>4.1</v>
+        <v>5.1</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="R3" t="n">
-        <v>1.56</v>
+        <v>1.57</v>
       </c>
       <c r="S3" t="n">
-        <v>2.18</v>
+        <v>2.34</v>
       </c>
       <c r="T3" t="n">
         <v>2.72</v>
       </c>
       <c r="U3" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>5.7</v>
+        <v>6.4</v>
       </c>
       <c r="W3" t="n">
         <v>1.02</v>
@@ -940,10 +940,10 @@
         <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="I4" t="n">
         <v>3.5</v>
@@ -970,13 +970,13 @@
         <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="T4" t="n">
         <v>1.8</v>
@@ -985,10 +985,10 @@
         <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="W4" t="n">
-        <v>1.45</v>
+        <v>1.51</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1081,7 +1081,7 @@
         <v>1.46</v>
       </c>
       <c r="I5" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J5" t="n">
         <v>4.7</v>
@@ -1090,46 +1090,46 @@
         <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.5</v>
+        <v>4.6</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.24</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.71</v>
+        <v>1.66</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
-        <v>2.78</v>
+        <v>2.66</v>
       </c>
       <c r="T5" t="n">
         <v>1.84</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="V5" t="n">
-        <v>2.88</v>
+        <v>2.92</v>
       </c>
       <c r="W5" t="n">
         <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Z5" t="n">
         <v>9.4</v>
@@ -1141,7 +1141,7 @@
         <v>990</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
@@ -1159,7 +1159,7 @@
         <v>25</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
@@ -1174,7 +1174,7 @@
         <v>140</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="n">
         <v>7.4</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
@@ -1354,10 +1354,10 @@
         <v>5.1</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
@@ -1384,7 +1384,7 @@
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="U7" t="n">
         <v>1.96</v>
@@ -1489,10 +1489,10 @@
         <v>10</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
         <v>1.37</v>
@@ -1501,25 +1501,25 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
         <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="R8" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="U8" t="n">
         <v>1.79</v>
@@ -1528,7 +1528,7 @@
         <v>1.11</v>
       </c>
       <c r="W8" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="X8" t="n">
         <v>17</v>
@@ -1543,7 +1543,7 @@
         <v>390</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1552,7 +1552,7 @@
         <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AF8" t="n">
         <v>7.6</v>
@@ -1564,7 +1564,7 @@
         <v>30</v>
       </c>
       <c r="AI8" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AJ8" t="n">
         <v>11.5</v>
@@ -1576,7 +1576,7 @@
         <v>42</v>
       </c>
       <c r="AM8" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="AN8" t="n">
         <v>7.2</v>
@@ -1621,10 +1621,10 @@
         <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="K9" t="n">
         <v>3.6</v>
@@ -1639,7 +1639,7 @@
         <v>3.25</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P9" t="n">
         <v>1.76</v>
@@ -1663,7 +1663,7 @@
         <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X9" t="n">
         <v>14.5</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="G10" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I10" t="n">
         <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>3.6</v>
@@ -1774,13 +1774,13 @@
         <v>3.3</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P10" t="n">
         <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
@@ -1795,10 +1795,10 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
         <v>15</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="G11" t="n">
         <v>7</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.2</v>
       </c>
       <c r="H11" t="n">
         <v>1.61</v>
@@ -1897,7 +1897,7 @@
         <v>4.1</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
@@ -1912,7 +1912,7 @@
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
         <v>2.16</v>
@@ -1924,13 +1924,13 @@
         <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.26</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V11" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="W11" t="n">
         <v>1.16</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="G12" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="H12" t="n">
         <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.3</v>
@@ -2035,94 +2035,94 @@
         <v>3.35</v>
       </c>
       <c r="L12" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.36</v>
+        <v>2.54</v>
       </c>
       <c r="R12" t="n">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="S12" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T12" t="n">
-        <v>1.97</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="V12" t="n">
         <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
-        <v>9.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>19.5</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AJ12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>38</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>150</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO12" t="n">
         <v>44</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>34</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="13">
@@ -2152,22 +2152,22 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="G13" t="n">
         <v>4.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="I13" t="n">
         <v>2.08</v>
       </c>
       <c r="J13" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="K13" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="L13" t="n">
         <v>1.49</v>
@@ -2188,7 +2188,7 @@
         <v>2.28</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="S13" t="n">
         <v>4.4</v>
@@ -2203,7 +2203,7 @@
         <v>1.93</v>
       </c>
       <c r="W13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="G14" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="H14" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="I14" t="n">
         <v>2.52</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.57</v>
@@ -2311,22 +2311,22 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.68</v>
+        <v>2.7</v>
       </c>
       <c r="O14" t="n">
         <v>1.52</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.59</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="R14" t="n">
         <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T14" t="n">
         <v>2.06</v>
@@ -2335,7 +2335,7 @@
         <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="W14" t="n">
         <v>1.37</v>
@@ -2347,13 +2347,13 @@
         <v>8.199999999999999</v>
       </c>
       <c r="Z14" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
         <v>980</v>
       </c>
       <c r="AB14" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC14" t="n">
         <v>7</v>
@@ -2365,7 +2365,7 @@
         <v>980</v>
       </c>
       <c r="AF14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
         <v>16.5</v>
@@ -2377,7 +2377,7 @@
         <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="n">
         <v>60</v>
@@ -2392,7 +2392,7 @@
         <v>80</v>
       </c>
       <c r="AO14" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2425,13 +2425,13 @@
         <v>1.97</v>
       </c>
       <c r="G15" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="H15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>4.3</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
         <v>3.6</v>
@@ -2446,7 +2446,7 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
@@ -2455,10 +2455,10 @@
         <v>2.06</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>1.77</v>
       </c>
       <c r="R15" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="S15" t="n">
         <v>2.94</v>
@@ -2473,13 +2473,13 @@
         <v>1.31</v>
       </c>
       <c r="W15" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="X15" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
         <v>36</v>
@@ -2515,7 +2515,7 @@
         <v>30</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
         <v>40</v>
@@ -2557,7 +2557,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
         <v>2.32</v>
@@ -2566,7 +2566,7 @@
         <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
@@ -2587,13 +2587,13 @@
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.92</v>
+        <v>1.91</v>
       </c>
       <c r="Q16" t="n">
         <v>2.06</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="S16" t="n">
         <v>3.7</v>
@@ -2608,7 +2608,7 @@
         <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
         <v>12.5</v>
@@ -2623,7 +2623,7 @@
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="AC16" t="n">
         <v>7.6</v>
@@ -2647,7 +2647,7 @@
         <v>55</v>
       </c>
       <c r="AJ16" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK16" t="n">
         <v>24</v>
@@ -2698,7 +2698,7 @@
         <v>1.82</v>
       </c>
       <c r="H17" t="n">
-        <v>5.5</v>
+        <v>5.4</v>
       </c>
       <c r="I17" t="n">
         <v>5.6</v>
@@ -2725,7 +2725,7 @@
         <v>1.9</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="R17" t="n">
         <v>1.35</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H18" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="I18" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.6</v>
@@ -2875,46 +2875,46 @@
         <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W18" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y18" t="n">
         <v>8.800000000000001</v>
       </c>
       <c r="Z18" t="n">
-        <v>1000</v>
+        <v>13</v>
       </c>
       <c r="AA18" t="n">
-        <v>980</v>
+        <v>28</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD18" t="n">
         <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>980</v>
+        <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>980</v>
+        <v>26</v>
       </c>
       <c r="AG18" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AI18" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AJ18" t="n">
         <v>80</v>
@@ -2923,16 +2923,16 @@
         <v>50</v>
       </c>
       <c r="AL18" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -2965,19 +2965,19 @@
         <v>3.95</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="J19" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K19" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K19" t="n">
-        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -2995,7 +2995,7 @@
         <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
@@ -3010,7 +3010,7 @@
         <v>2.32</v>
       </c>
       <c r="V19" t="n">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="W19" t="n">
         <v>1.33</v>
@@ -3103,13 +3103,13 @@
         <v>1.17</v>
       </c>
       <c r="H20" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I20" t="n">
         <v>27</v>
       </c>
       <c r="J20" t="n">
-        <v>9.199999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="K20" t="n">
         <v>10.5</v>
@@ -3130,19 +3130,19 @@
         <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="R20" t="n">
         <v>1.86</v>
       </c>
       <c r="S20" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="T20" t="n">
         <v>2.32</v>
       </c>
       <c r="U20" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="V20" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -676,7 +676,7 @@
         <v>5.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
         <v>4.3</v>
@@ -700,7 +700,7 @@
         <v>2.06</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="R2" t="n">
         <v>1.4</v>
@@ -712,7 +712,7 @@
         <v>1.92</v>
       </c>
       <c r="U2" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="V2" t="n">
         <v>1.2</v>
@@ -733,7 +733,7 @@
         <v>160</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
@@ -802,19 +802,19 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="I3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="J3" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="K3" t="n">
         <v>11</v>
@@ -826,22 +826,22 @@
         <v>1.01</v>
       </c>
       <c r="N3" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.42</v>
+        <v>2.46</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="R3" t="n">
-        <v>1.57</v>
+        <v>1.58</v>
       </c>
       <c r="S3" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
         <v>2.72</v>
@@ -853,7 +853,7 @@
         <v>6.4</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="X3" t="n">
         <v>34</v>
@@ -868,16 +868,16 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB3" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="AC3" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD3" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AE3" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
@@ -886,10 +886,10 @@
         <v>990</v>
       </c>
       <c r="AH3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AI3" t="n">
         <v>85</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>90</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -940,16 +940,16 @@
         <v>2.48</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.62</v>
+        <v>2.58</v>
       </c>
       <c r="I4" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="J4" t="n">
-        <v>2.78</v>
+        <v>2.8</v>
       </c>
       <c r="K4" t="n">
         <v>4.8</v>
@@ -970,7 +970,7 @@
         <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
@@ -985,10 +985,10 @@
         <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.4</v>
+        <v>1.41</v>
       </c>
       <c r="W4" t="n">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,67 +1072,67 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="I5" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="J5" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
         <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.66</v>
+        <v>1.71</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.66</v>
+        <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="U5" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>2.92</v>
+        <v>2.84</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
         <v>12</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA5" t="n">
         <v>14</v>
@@ -1141,7 +1141,7 @@
         <v>990</v>
       </c>
       <c r="AC5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
         <v>11</v>
@@ -1150,31 +1150,31 @@
         <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>980</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>25</v>
+        <v>990</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AL5" t="n">
         <v>110</v>
       </c>
       <c r="AM5" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AO5" t="n">
         <v>7.4</v>
@@ -1210,16 +1210,16 @@
         <v>1.41</v>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="I6" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
         <v>5.5</v>
@@ -1249,13 +1249,13 @@
         <v>2.8</v>
       </c>
       <c r="T6" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="V6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="W6" t="n">
         <v>3.25</v>
@@ -1384,7 +1384,7 @@
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
         <v>1.96</v>
@@ -1420,7 +1420,7 @@
         <v>1000</v>
       </c>
       <c r="AF7" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AG7" t="n">
         <v>10.5</v>
@@ -1483,10 +1483,10 @@
         <v>1.43</v>
       </c>
       <c r="H8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
         <v>5.1</v>
@@ -1522,7 +1522,7 @@
         <v>2.24</v>
       </c>
       <c r="U8" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="V8" t="n">
         <v>1.11</v>
@@ -1642,7 +1642,7 @@
         <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="Q9" t="n">
         <v>2.08</v>
@@ -1750,19 +1750,19 @@
         <v>3.8</v>
       </c>
       <c r="G10" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
       </c>
       <c r="K10" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1780,13 +1780,13 @@
         <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T10" t="n">
         <v>1.86</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W10" t="n">
         <v>1.32</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="H11" t="n">
         <v>1.61</v>
       </c>
       <c r="I11" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="K11" t="n">
         <v>4.3</v>
@@ -1915,7 +1915,7 @@
         <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="R11" t="n">
         <v>1.3</v>
@@ -1930,7 +1930,7 @@
         <v>1.77</v>
       </c>
       <c r="V11" t="n">
-        <v>2.56</v>
+        <v>2.62</v>
       </c>
       <c r="W11" t="n">
         <v>1.16</v>
@@ -2017,64 +2017,64 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>2.88</v>
       </c>
       <c r="G12" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H12" t="n">
         <v>2.86</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>2.88</v>
       </c>
-      <c r="I12" t="n">
-        <v>2.9</v>
-      </c>
       <c r="J12" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.3</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.35</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.88</v>
+        <v>2.94</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.54</v>
+        <v>2.5</v>
       </c>
       <c r="R12" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="V12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="W12" t="n">
         <v>1.52</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.53</v>
       </c>
       <c r="X12" t="n">
         <v>9.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
         <v>16.5</v>
@@ -2083,7 +2083,7 @@
         <v>48</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.6</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
@@ -2101,13 +2101,13 @@
         <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
         <v>38</v>
@@ -2116,10 +2116,10 @@
         <v>65</v>
       </c>
       <c r="AM12" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AO12" t="n">
         <v>44</v>
@@ -2155,7 +2155,7 @@
         <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
         <v>2.02</v>
@@ -2203,7 +2203,7 @@
         <v>1.93</v>
       </c>
       <c r="W13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X13" t="n">
         <v>13</v>
@@ -2290,10 +2290,10 @@
         <v>3.45</v>
       </c>
       <c r="G14" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="I14" t="n">
         <v>2.52</v>
@@ -2311,13 +2311,13 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.7</v>
+        <v>2.68</v>
       </c>
       <c r="O14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="Q14" t="n">
         <v>2.58</v>
@@ -2338,7 +2338,7 @@
         <v>1.66</v>
       </c>
       <c r="W14" t="n">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
         <v>9</v>
@@ -2392,7 +2392,7 @@
         <v>80</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>980</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G15" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="H15" t="n">
         <v>3.65</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>4.2</v>
@@ -2446,34 +2446,34 @@
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.77</v>
+        <v>1.74</v>
       </c>
       <c r="R15" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="S15" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="T15" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="X15" t="n">
         <v>22</v>
@@ -2482,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="Z15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
         <v>90</v>
@@ -2491,7 +2491,7 @@
         <v>13</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="n">
         <v>19.5</v>
@@ -2521,10 +2521,10 @@
         <v>40</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AO15" t="n">
         <v>48</v>
@@ -2557,13 +2557,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="G16" t="n">
         <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I16" t="n">
         <v>3.65</v>
@@ -2593,13 +2593,13 @@
         <v>2.06</v>
       </c>
       <c r="R16" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="S16" t="n">
         <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="U16" t="n">
         <v>2.16</v>
@@ -2611,7 +2611,7 @@
         <v>1.76</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y16" t="n">
         <v>13.5</v>
@@ -2632,7 +2632,7 @@
         <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
         <v>13.5</v>
@@ -2650,7 +2650,7 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AL16" t="n">
         <v>40</v>
@@ -2659,7 +2659,7 @@
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AO16" t="n">
         <v>42</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="G17" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="H17" t="n">
         <v>5.4</v>
       </c>
       <c r="I17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J17" t="n">
         <v>3.75</v>
       </c>
       <c r="K17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2740,10 +2740,10 @@
         <v>1.99</v>
       </c>
       <c r="V17" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="W17" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -2797,7 +2797,7 @@
         <v>12.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -2827,10 +2827,10 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="G18" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="H18" t="n">
         <v>2.16</v>
@@ -2839,7 +2839,7 @@
         <v>2.22</v>
       </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>3.6</v>
@@ -2854,13 +2854,13 @@
         <v>3.35</v>
       </c>
       <c r="O18" t="n">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>1.3</v>
@@ -2875,10 +2875,10 @@
         <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="X18" t="n">
         <v>12</v>
@@ -2893,7 +2893,7 @@
         <v>28</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC18" t="n">
         <v>7.8</v>
@@ -2905,7 +2905,7 @@
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
         <v>16</v>
@@ -2926,13 +2926,13 @@
         <v>65</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
@@ -2965,7 +2965,7 @@
         <v>3.95</v>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H19" t="n">
         <v>2.1</v>
@@ -2992,19 +2992,19 @@
         <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q19" t="n">
         <v>1.83</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="U19" t="n">
         <v>2.32</v>
@@ -3028,7 +3028,7 @@
         <v>25</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
@@ -3061,7 +3061,7 @@
         <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
         <v>38</v>
@@ -3103,13 +3103,13 @@
         <v>1.17</v>
       </c>
       <c r="H20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="K20" t="n">
         <v>10.5</v>
@@ -3121,7 +3121,7 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="O20" t="n">
         <v>1.13</v>
@@ -3139,10 +3139,10 @@
         <v>2.04</v>
       </c>
       <c r="T20" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="U20" t="n">
-        <v>1.67</v>
+        <v>1.68</v>
       </c>
       <c r="V20" t="n">
         <v>1.04</v>
@@ -3157,13 +3157,13 @@
         <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC20" t="n">
         <v>23</v>
@@ -3172,7 +3172,7 @@
         <v>990</v>
       </c>
       <c r="AE20" t="n">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="AF20" t="n">
         <v>9.199999999999999</v>
@@ -3184,7 +3184,7 @@
         <v>990</v>
       </c>
       <c r="AI20" t="n">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="G2" t="n">
         <v>1.68</v>
@@ -676,16 +676,16 @@
         <v>5.9</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.3</v>
       </c>
-      <c r="K2" t="n">
-        <v>4.4</v>
-      </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
@@ -694,22 +694,22 @@
         <v>4.1</v>
       </c>
       <c r="O2" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="R2" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="U2" t="n">
         <v>1.99</v>
@@ -718,22 +718,22 @@
         <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="X2" t="n">
         <v>15.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="Z2" t="n">
         <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
@@ -766,13 +766,13 @@
         <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -802,55 +802,55 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H3" t="n">
         <v>1.14</v>
       </c>
       <c r="I3" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="J3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.8</v>
       </c>
       <c r="K3" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="L3" t="n">
         <v>1.22</v>
       </c>
       <c r="M3" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.53</v>
+        <v>1.51</v>
       </c>
       <c r="R3" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.26</v>
       </c>
       <c r="T3" t="n">
-        <v>2.72</v>
+        <v>2.5</v>
       </c>
       <c r="U3" t="n">
         <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="W3" t="n">
         <v>1.03</v>
@@ -868,28 +868,28 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB3" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AC3" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD3" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AE3" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>990</v>
+        <v>120</v>
       </c>
       <c r="AH3" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI3" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,28 +937,28 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.48</v>
+        <v>2.5</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58</v>
+        <v>2.7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.55</v>
+        <v>3.35</v>
       </c>
       <c r="J4" t="n">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.8</v>
+        <v>3.65</v>
       </c>
       <c r="L4" t="n">
         <v>1.39</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>2.78</v>
@@ -967,10 +967,10 @@
         <v>1.37</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
@@ -979,13 +979,13 @@
         <v>3.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U4" t="n">
         <v>1.95</v>
       </c>
       <c r="V4" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="W4" t="n">
         <v>1.49</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>6.6</v>
       </c>
       <c r="G5" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="I5" t="n">
         <v>1.54</v>
@@ -1090,7 +1090,7 @@
         <v>5.2</v>
       </c>
       <c r="L5" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M5" t="n">
         <v>1.04</v>
@@ -1102,13 +1102,13 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
         <v>1.71</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S5" t="n">
         <v>2.78</v>
@@ -1123,13 +1123,13 @@
         <v>2.84</v>
       </c>
       <c r="W5" t="n">
-        <v>1.16</v>
+        <v>1.14</v>
       </c>
       <c r="X5" t="n">
         <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Z5" t="n">
         <v>9.800000000000001</v>
@@ -1150,10 +1150,10 @@
         <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>980</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
         <v>990</v>
@@ -1165,7 +1165,7 @@
         <v>250</v>
       </c>
       <c r="AK5" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AL5" t="n">
         <v>110</v>
@@ -1174,7 +1174,7 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="n">
         <v>7.4</v>
@@ -1207,13 +1207,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.41</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>8.199999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
         <v>11</v>
@@ -1228,7 +1228,7 @@
         <v>1.28</v>
       </c>
       <c r="M6" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="n">
         <v>4.3</v>
@@ -1279,7 +1279,7 @@
         <v>14</v>
       </c>
       <c r="AD6" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
@@ -1297,7 +1297,7 @@
         <v>1000</v>
       </c>
       <c r="AJ6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK6" t="n">
         <v>18.5</v>
@@ -1351,13 +1351,13 @@
         <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
         <v>1.34</v>
@@ -1384,7 +1384,7 @@
         <v>3.45</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="U7" t="n">
         <v>1.96</v>
@@ -1393,7 +1393,7 @@
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="X7" t="n">
         <v>18</v>
@@ -1483,7 +1483,7 @@
         <v>1.43</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="I8" t="n">
         <v>10.5</v>
@@ -1516,7 +1516,7 @@
         <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T8" t="n">
         <v>2.24</v>
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
         <v>90</v>
@@ -1552,10 +1552,10 @@
         <v>36</v>
       </c>
       <c r="AE8" t="n">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1615,13 +1615,13 @@
         <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.46</v>
+        <v>2.48</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
         <v>3.4</v>
@@ -1660,13 +1660,13 @@
         <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W9" t="n">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="X9" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Y9" t="n">
         <v>14.5</v>
@@ -1753,13 +1753,13 @@
         <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
         <v>3.65</v>
@@ -1795,7 +1795,7 @@
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W10" t="n">
         <v>1.32</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="G11" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="H11" t="n">
         <v>1.61</v>
@@ -1894,10 +1894,10 @@
         <v>1.62</v>
       </c>
       <c r="J11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.2</v>
-      </c>
-      <c r="K11" t="n">
-        <v>4.3</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
@@ -1909,7 +1909,7 @@
         <v>3.4</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="P11" t="n">
         <v>1.81</v>
@@ -1930,7 +1930,7 @@
         <v>1.77</v>
       </c>
       <c r="V11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W11" t="n">
         <v>1.16</v>
@@ -1945,7 +1945,7 @@
         <v>8.4</v>
       </c>
       <c r="AA11" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
         <v>19.5</v>
@@ -1963,13 +1963,13 @@
         <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH11" t="n">
         <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
         <v>250</v>
@@ -2029,10 +2029,10 @@
         <v>2.88</v>
       </c>
       <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.25</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.53</v>
@@ -2056,10 +2056,10 @@
         <v>1.24</v>
       </c>
       <c r="S12" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="U12" t="n">
         <v>1.89</v>
@@ -2071,7 +2071,7 @@
         <v>1.52</v>
       </c>
       <c r="X12" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
@@ -2080,19 +2080,19 @@
         <v>16.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
         <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
@@ -2110,19 +2110,19 @@
         <v>44</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM12" t="n">
         <v>130</v>
       </c>
       <c r="AN12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2161,7 +2161,7 @@
         <v>2.02</v>
       </c>
       <c r="I13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
@@ -2176,7 +2176,7 @@
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="O13" t="n">
         <v>1.44</v>
@@ -2194,13 +2194,13 @@
         <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
         <v>1.89</v>
       </c>
       <c r="V13" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="W13" t="n">
         <v>1.28</v>
@@ -2287,22 +2287,22 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="H14" t="n">
-        <v>2.44</v>
+        <v>2.48</v>
       </c>
       <c r="I14" t="n">
-        <v>2.52</v>
+        <v>2.54</v>
       </c>
       <c r="J14" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="K14" t="n">
         <v>3.2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.57</v>
@@ -2320,7 +2320,7 @@
         <v>1.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="R14" t="n">
         <v>1.21</v>
@@ -2335,22 +2335,22 @@
         <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.66</v>
+        <v>1.64</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="Y14" t="n">
         <v>8.199999999999999</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA14" t="n">
-        <v>980</v>
+        <v>38</v>
       </c>
       <c r="AB14" t="n">
         <v>10.5</v>
@@ -2359,16 +2359,16 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AF14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AG14" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -2377,22 +2377,22 @@
         <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AL14" t="n">
         <v>80</v>
       </c>
       <c r="AM14" t="n">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AO14" t="n">
-        <v>980</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="G15" t="n">
-        <v>2.12</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>3.65</v>
+        <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
         <v>4.2</v>
@@ -2455,7 +2455,7 @@
         <v>2.12</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.74</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
         <v>1.44</v>
@@ -2464,16 +2464,16 @@
         <v>2.92</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
         <v>22</v>
@@ -2482,28 +2482,28 @@
         <v>20</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="AA15" t="n">
         <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC15" t="n">
         <v>11</v>
       </c>
       <c r="AD15" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AE15" t="n">
         <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG15" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AH15" t="n">
         <v>21</v>
@@ -2512,19 +2512,19 @@
         <v>60</v>
       </c>
       <c r="AJ15" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM15" t="n">
         <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>15.5</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
         <v>48</v>
@@ -2557,16 +2557,16 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G16" t="n">
         <v>2.32</v>
       </c>
       <c r="H16" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.6</v>
-      </c>
-      <c r="I16" t="n">
-        <v>3.65</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
@@ -2584,13 +2584,13 @@
         <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="P16" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
         <v>1.35</v>
@@ -2599,7 +2599,7 @@
         <v>3.7</v>
       </c>
       <c r="T16" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="U16" t="n">
         <v>2.16</v>
@@ -2608,7 +2608,7 @@
         <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
         <v>13</v>
@@ -2617,13 +2617,13 @@
         <v>13.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.6</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
         <v>7.6</v>
@@ -2632,7 +2632,7 @@
         <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AF16" t="n">
         <v>13.5</v>
@@ -2653,16 +2653,16 @@
         <v>23</v>
       </c>
       <c r="AL16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17">
@@ -2695,7 +2695,7 @@
         <v>1.82</v>
       </c>
       <c r="G17" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="H17" t="n">
         <v>5.4</v>
@@ -2704,7 +2704,7 @@
         <v>5.5</v>
       </c>
       <c r="J17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="K17" t="n">
         <v>3.8</v>
@@ -2737,25 +2737,25 @@
         <v>1.96</v>
       </c>
       <c r="U17" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>1.22</v>
       </c>
       <c r="W17" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="Z17" t="n">
         <v>42</v>
       </c>
       <c r="AA17" t="n">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="AB17" t="n">
         <v>8</v>
@@ -2764,7 +2764,7 @@
         <v>8.4</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>80</v>
@@ -2779,7 +2779,7 @@
         <v>21</v>
       </c>
       <c r="AI17" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="n">
         <v>18.5</v>
@@ -2794,7 +2794,7 @@
         <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AO17" t="n">
         <v>95</v>
@@ -2830,16 +2830,16 @@
         <v>3.75</v>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="H18" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I18" t="n">
         <v>2.22</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K18" t="n">
         <v>3.6</v>
@@ -2851,7 +2851,7 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
@@ -2860,7 +2860,7 @@
         <v>1.83</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="R18" t="n">
         <v>1.3</v>
@@ -2875,13 +2875,13 @@
         <v>2.02</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="W18" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.800000000000001</v>
@@ -2899,7 +2899,7 @@
         <v>7.8</v>
       </c>
       <c r="AD18" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -2908,10 +2908,10 @@
         <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>42</v>
@@ -2929,10 +2929,10 @@
         <v>120</v>
       </c>
       <c r="AN18" t="n">
-        <v>1000</v>
+        <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -2968,10 +2968,10 @@
         <v>4</v>
       </c>
       <c r="H19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="I19" t="n">
         <v>2.1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>2.12</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
@@ -2986,13 +2986,13 @@
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.5</v>
+        <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
         <v>1.83</v>
@@ -3004,13 +3004,13 @@
         <v>3.05</v>
       </c>
       <c r="T19" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.32</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="W19" t="n">
         <v>1.33</v>
@@ -3025,10 +3025,10 @@
         <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
@@ -3061,7 +3061,7 @@
         <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AN19" t="n">
         <v>38</v>
@@ -3100,19 +3100,19 @@
         <v>1.15</v>
       </c>
       <c r="G20" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H20" t="n">
         <v>25</v>
       </c>
       <c r="I20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="J20" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="L20" t="n">
         <v>1.22</v>
@@ -3121,13 +3121,13 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q20" t="n">
         <v>1.42</v>
@@ -3136,67 +3136,67 @@
         <v>1.86</v>
       </c>
       <c r="S20" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="T20" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="U20" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="V20" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="W20" t="n">
-        <v>6.8</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>990</v>
+        <v>55</v>
       </c>
       <c r="Y20" t="n">
-        <v>990</v>
+        <v>95</v>
       </c>
       <c r="Z20" t="n">
-        <v>280</v>
+        <v>310</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="AD20" t="n">
-        <v>990</v>
+        <v>100</v>
       </c>
       <c r="AE20" t="n">
-        <v>460</v>
+        <v>520</v>
       </c>
       <c r="AF20" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG20" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AH20" t="n">
         <v>990</v>
       </c>
       <c r="AI20" t="n">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="AJ20" t="n">
         <v>9</v>
       </c>
       <c r="AK20" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AM20" t="n">
-        <v>280</v>
+        <v>340</v>
       </c>
       <c r="AN20" t="n">
         <v>3.05</v>
@@ -3244,7 +3244,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="J21" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="K21" t="n">
         <v>5.1</v>
@@ -3256,22 +3256,22 @@
         <v>1.01</v>
       </c>
       <c r="N21" t="n">
-        <v>2.82</v>
+        <v>2.84</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
       </c>
       <c r="P21" t="n">
-        <v>1.92</v>
+        <v>2.04</v>
       </c>
       <c r="Q21" t="n">
         <v>1.64</v>
       </c>
       <c r="R21" t="n">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="S21" t="n">
-        <v>2.52</v>
+        <v>2.28</v>
       </c>
       <c r="T21" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="G2" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="H2" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="J2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="K2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="L2" t="n">
         <v>1.39</v>
@@ -691,40 +691,40 @@
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R2" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S2" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="U2" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q2" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="S2" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="T2" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.99</v>
-      </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.46</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
         <v>48</v>
@@ -733,7 +733,7 @@
         <v>170</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
         <v>9.4</v>
@@ -745,7 +745,7 @@
         <v>85</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AG2" t="n">
         <v>9.6</v>
@@ -754,7 +754,7 @@
         <v>21</v>
       </c>
       <c r="AI2" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="n">
         <v>16</v>
@@ -766,10 +766,10 @@
         <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>10</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AO2" t="n">
         <v>100</v>
@@ -820,10 +820,10 @@
         <v>10.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.22</v>
+        <v>1.26</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="n">
         <v>5.3</v>
@@ -841,7 +841,7 @@
         <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="T3" t="n">
         <v>2.5</v>
@@ -937,55 +937,55 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="G4" t="n">
         <v>3.05</v>
       </c>
       <c r="H4" t="n">
-        <v>2.7</v>
+        <v>2.52</v>
       </c>
       <c r="I4" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N4" t="n">
         <v>3.35</v>
       </c>
-      <c r="J4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.78</v>
-      </c>
       <c r="O4" t="n">
-        <v>1.37</v>
+        <v>1.28</v>
       </c>
       <c r="P4" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.1</v>
+        <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.26</v>
+        <v>1.31</v>
       </c>
       <c r="S4" t="n">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.81</v>
+        <v>1.73</v>
       </c>
       <c r="U4" t="n">
-        <v>1.95</v>
+        <v>2.04</v>
       </c>
       <c r="V4" t="n">
-        <v>1.43</v>
+        <v>1.51</v>
       </c>
       <c r="W4" t="n">
         <v>1.49</v>
@@ -1072,19 +1072,19 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.6</v>
+        <v>7.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8</v>
+        <v>8.6</v>
       </c>
       <c r="H5" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="I5" t="n">
         <v>1.49</v>
       </c>
-      <c r="I5" t="n">
-        <v>1.54</v>
-      </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>5.2</v>
@@ -1093,7 +1093,7 @@
         <v>1.33</v>
       </c>
       <c r="M5" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N5" t="n">
         <v>4.4</v>
@@ -1102,7 +1102,7 @@
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q5" t="n">
         <v>1.71</v>
@@ -1114,70 +1114,70 @@
         <v>2.78</v>
       </c>
       <c r="T5" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
-        <v>2.84</v>
+        <v>2.98</v>
       </c>
       <c r="W5" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>990</v>
       </c>
       <c r="Y5" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AC5" t="n">
         <v>11.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>11</v>
-      </c>
       <c r="AD5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
         <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AG5" t="n">
         <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>990</v>
+        <v>26</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>980</v>
       </c>
       <c r="AJ5" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="H6" t="n">
         <v>8.6</v>
@@ -1219,10 +1219,10 @@
         <v>11</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
@@ -1240,13 +1240,13 @@
         <v>2.16</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
         <v>1.45</v>
       </c>
       <c r="S6" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="T6" t="n">
         <v>1.98</v>
@@ -1258,7 +1258,7 @@
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="X6" t="n">
         <v>24</v>
@@ -1345,7 +1345,7 @@
         <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
@@ -1360,13 +1360,13 @@
         <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
@@ -1375,7 +1375,7 @@
         <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
@@ -1387,13 +1387,13 @@
         <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>1.96</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="X7" t="n">
         <v>18</v>
@@ -1486,7 +1486,7 @@
         <v>9.800000000000001</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="J8" t="n">
         <v>5.1</v>
@@ -1501,7 +1501,7 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
         <v>1.31</v>
@@ -1540,13 +1540,13 @@
         <v>90</v>
       </c>
       <c r="AA8" t="n">
-        <v>390</v>
+        <v>410</v>
       </c>
       <c r="AB8" t="n">
         <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
         <v>36</v>
@@ -1555,7 +1555,7 @@
         <v>190</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
@@ -1567,7 +1567,7 @@
         <v>160</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AK8" t="n">
         <v>15.5</v>
@@ -1615,10 +1615,10 @@
         <v>2.28</v>
       </c>
       <c r="G9" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="H9" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
         <v>3.65</v>
@@ -1654,7 +1654,7 @@
         <v>3.8</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
         <v>2.02</v>
@@ -1663,7 +1663,7 @@
         <v>1.39</v>
       </c>
       <c r="W9" t="n">
-        <v>1.68</v>
+        <v>1.69</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1699,7 +1699,7 @@
         <v>23</v>
       </c>
       <c r="AI9" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AJ9" t="n">
         <v>40</v>
@@ -1756,7 +1756,7 @@
         <v>2.08</v>
       </c>
       <c r="I10" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
@@ -1771,19 +1771,19 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.94</v>
+        <v>1.98</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
         <v>3.9</v>
@@ -1792,10 +1792,10 @@
         <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="W10" t="n">
         <v>1.32</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1882,16 +1882,16 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
         <v>7.4</v>
       </c>
       <c r="H11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="J11" t="n">
         <v>4.1</v>
@@ -1903,22 +1903,22 @@
         <v>1.45</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O11" t="n">
         <v>1.38</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
         <v>2.14</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1927,22 +1927,22 @@
         <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="V11" t="n">
-        <v>2.6</v>
+        <v>2.58</v>
       </c>
       <c r="W11" t="n">
         <v>1.16</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA11" t="n">
         <v>14.5</v>
@@ -1969,7 +1969,7 @@
         <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>250</v>
@@ -2029,10 +2029,10 @@
         <v>2.88</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="L12" t="n">
         <v>1.53</v>
@@ -2041,16 +2041,16 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.94</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
       <c r="R12" t="n">
         <v>1.24</v>
@@ -2059,10 +2059,10 @@
         <v>4.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="V12" t="n">
         <v>1.53</v>
@@ -2071,7 +2071,7 @@
         <v>1.52</v>
       </c>
       <c r="X12" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="Y12" t="n">
         <v>9</v>
@@ -2092,7 +2092,7 @@
         <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
@@ -2107,16 +2107,16 @@
         <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AL12" t="n">
         <v>60</v>
       </c>
       <c r="AM12" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AN12" t="n">
         <v>42</v>
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="G13" t="n">
         <v>4.6</v>
@@ -2161,7 +2161,7 @@
         <v>2.02</v>
       </c>
       <c r="I13" t="n">
-        <v>2.06</v>
+        <v>2.1</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
@@ -2173,49 +2173,49 @@
         <v>1.49</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O13" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P13" t="n">
-        <v>1.69</v>
+        <v>1.71</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="R13" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>3.85</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>1.78</v>
       </c>
       <c r="U13" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="V13" t="n">
-        <v>1.94</v>
+        <v>1.92</v>
       </c>
       <c r="W13" t="n">
         <v>1.28</v>
       </c>
       <c r="X13" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z13" t="n">
         <v>12</v>
       </c>
       <c r="AA13" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AB13" t="n">
         <v>13.5</v>
@@ -2224,7 +2224,7 @@
         <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2233,7 +2233,7 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
@@ -2248,16 +2248,16 @@
         <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN13" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="G14" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="H14" t="n">
-        <v>2.48</v>
+        <v>2.46</v>
       </c>
       <c r="I14" t="n">
-        <v>2.54</v>
+        <v>2.56</v>
       </c>
       <c r="J14" t="n">
         <v>3.15</v>
@@ -2311,16 +2311,16 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.68</v>
+        <v>2.72</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="P14" t="n">
         <v>1.58</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
         <v>1.21</v>
@@ -2329,55 +2329,55 @@
         <v>5.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="V14" t="n">
         <v>1.64</v>
       </c>
       <c r="W14" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="X14" t="n">
-        <v>8.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AA14" t="n">
         <v>38</v>
       </c>
       <c r="AB14" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD14" t="n">
         <v>12.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG14" t="n">
         <v>15.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AI14" t="n">
         <v>65</v>
       </c>
       <c r="AJ14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AK14" t="n">
         <v>55</v>
@@ -2389,10 +2389,10 @@
         <v>180</v>
       </c>
       <c r="AN14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AO14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2422,22 +2422,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G15" t="n">
-        <v>1.99</v>
+        <v>1.94</v>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
         <v>3.8</v>
       </c>
       <c r="K15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L15" t="n">
         <v>1.3</v>
@@ -2467,13 +2467,13 @@
         <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="X15" t="n">
         <v>22</v>
@@ -2509,7 +2509,7 @@
         <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
         <v>27</v>
@@ -2563,16 +2563,16 @@
         <v>2.32</v>
       </c>
       <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.55</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
         <v>1.43</v>
@@ -2584,7 +2584,7 @@
         <v>3.75</v>
       </c>
       <c r="O16" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
         <v>1.93</v>
@@ -2596,16 +2596,16 @@
         <v>1.35</v>
       </c>
       <c r="S16" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="T16" t="n">
-        <v>1.84</v>
+        <v>1.81</v>
       </c>
       <c r="U16" t="n">
         <v>2.16</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W16" t="n">
         <v>1.75</v>
@@ -2623,7 +2623,7 @@
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AC16" t="n">
         <v>7.6</v>
@@ -2632,10 +2632,10 @@
         <v>14.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AF16" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AG16" t="n">
         <v>11</v>
@@ -2644,7 +2644,7 @@
         <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.82</v>
+        <v>1.86</v>
       </c>
       <c r="G17" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="H17" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="I17" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J17" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.7</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.8</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2722,34 +2722,34 @@
         <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="R17" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="S17" t="n">
         <v>3.75</v>
       </c>
       <c r="T17" t="n">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="U17" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
       </c>
       <c r="Y17" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Z17" t="n">
         <v>42</v>
@@ -2758,10 +2758,10 @@
         <v>130</v>
       </c>
       <c r="AB17" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC17" t="n">
         <v>8</v>
-      </c>
-      <c r="AC17" t="n">
-        <v>8.4</v>
       </c>
       <c r="AD17" t="n">
         <v>20</v>
@@ -2770,7 +2770,7 @@
         <v>80</v>
       </c>
       <c r="AF17" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AG17" t="n">
         <v>9.800000000000001</v>
@@ -2782,7 +2782,7 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AK17" t="n">
         <v>19.5</v>
@@ -2797,7 +2797,7 @@
         <v>13</v>
       </c>
       <c r="AO17" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2842,7 +2842,7 @@
         <v>3.5</v>
       </c>
       <c r="K18" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L18" t="n">
         <v>1.44</v>
@@ -2851,28 +2851,28 @@
         <v>1.08</v>
       </c>
       <c r="N18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.83</v>
+        <v>1.84</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R18" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="T18" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V18" t="n">
         <v>1.81</v>
@@ -2905,7 +2905,7 @@
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
         <v>15.5</v>
@@ -2923,16 +2923,16 @@
         <v>50</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
         <v>55</v>
       </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="19">
@@ -2977,7 +2977,7 @@
         <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -3007,7 +3007,7 @@
         <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="V19" t="n">
         <v>1.9</v>
@@ -3016,7 +3016,7 @@
         <v>1.33</v>
       </c>
       <c r="X19" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
         <v>11</v>
@@ -3106,40 +3106,40 @@
         <v>25</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
         <v>10</v>
       </c>
       <c r="K20" t="n">
-        <v>11.5</v>
+        <v>10.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="O20" t="n">
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="R20" t="n">
-        <v>1.86</v>
+        <v>1.89</v>
       </c>
       <c r="S20" t="n">
         <v>2.06</v>
       </c>
       <c r="T20" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="U20" t="n">
         <v>1.69</v>
@@ -3151,19 +3151,19 @@
         <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="Y20" t="n">
         <v>95</v>
       </c>
       <c r="Z20" t="n">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC20" t="n">
         <v>27</v>
@@ -3172,7 +3172,7 @@
         <v>100</v>
       </c>
       <c r="AE20" t="n">
-        <v>520</v>
+        <v>530</v>
       </c>
       <c r="AF20" t="n">
         <v>8.800000000000001</v>
@@ -3181,13 +3181,13 @@
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>990</v>
+        <v>65</v>
       </c>
       <c r="AI20" t="n">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AJ20" t="n">
-        <v>9</v>
+        <v>8.6</v>
       </c>
       <c r="AK20" t="n">
         <v>14.5</v>
@@ -3199,7 +3199,7 @@
         <v>340</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3238,7 +3238,7 @@
         <v>1.63</v>
       </c>
       <c r="H21" t="n">
-        <v>3.25</v>
+        <v>6.4</v>
       </c>
       <c r="I21" t="n">
         <v>9.199999999999999</v>
@@ -3265,10 +3265,10 @@
         <v>2.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="R21" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="S21" t="n">
         <v>2.28</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -667,46 +667,46 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="G2" t="n">
-        <v>1.66</v>
+        <v>1.63</v>
       </c>
       <c r="H2" t="n">
         <v>6</v>
       </c>
       <c r="I2" t="n">
-        <v>6.2</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K2" t="n">
-        <v>4.4</v>
+        <v>4.6</v>
       </c>
       <c r="L2" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="T2" t="n">
         <v>1.91</v>
@@ -718,16 +718,16 @@
         <v>1.19</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>2.58</v>
       </c>
       <c r="X2" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="Y2" t="n">
         <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AA2" t="n">
         <v>170</v>
@@ -736,13 +736,13 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.4</v>
+        <v>10</v>
       </c>
       <c r="AD2" t="n">
         <v>23</v>
       </c>
       <c r="AE2" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AF2" t="n">
         <v>9.4</v>
@@ -757,19 +757,19 @@
         <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AO2" t="n">
         <v>100</v>
@@ -937,34 +937,34 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.6</v>
+        <v>2.68</v>
       </c>
       <c r="G4" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="I4" t="n">
         <v>3.05</v>
       </c>
-      <c r="H4" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.98</v>
-      </c>
       <c r="J4" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L4" t="n">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="M4" t="n">
         <v>1.07</v>
       </c>
       <c r="N4" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O4" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="P4" t="n">
         <v>1.82</v>
@@ -973,22 +973,22 @@
         <v>1.93</v>
       </c>
       <c r="R4" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="S4" t="n">
         <v>3.1</v>
       </c>
       <c r="T4" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="U4" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.51</v>
+        <v>1.5</v>
       </c>
       <c r="W4" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,22 +1072,22 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="H5" t="n">
         <v>1.45</v>
       </c>
       <c r="I5" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="J5" t="n">
         <v>5</v>
       </c>
       <c r="K5" t="n">
-        <v>5.2</v>
+        <v>5.4</v>
       </c>
       <c r="L5" t="n">
         <v>1.33</v>
@@ -1096,13 +1096,13 @@
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.18</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
         <v>1.71</v>
@@ -1111,13 +1111,13 @@
         <v>1.46</v>
       </c>
       <c r="S5" t="n">
-        <v>2.78</v>
+        <v>2.82</v>
       </c>
       <c r="T5" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="V5" t="n">
         <v>2.98</v>
@@ -1126,19 +1126,19 @@
         <v>1.13</v>
       </c>
       <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AB5" t="n">
         <v>990</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>32</v>
       </c>
       <c r="AC5" t="n">
         <v>11.5</v>
@@ -1150,13 +1150,13 @@
         <v>15.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AG5" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AH5" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AI5" t="n">
         <v>980</v>
@@ -1165,7 +1165,7 @@
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL5" t="n">
         <v>95</v>
@@ -1210,19 +1210,19 @@
         <v>1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="H6" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="I6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="L6" t="n">
         <v>1.28</v>
@@ -1231,7 +1231,7 @@
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
@@ -1240,16 +1240,16 @@
         <v>2.16</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="R6" t="n">
         <v>1.45</v>
       </c>
       <c r="S6" t="n">
-        <v>2.82</v>
+        <v>2.86</v>
       </c>
       <c r="T6" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="U6" t="n">
         <v>1.85</v>
@@ -1258,55 +1258,55 @@
         <v>1.11</v>
       </c>
       <c r="W6" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="X6" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="Z6" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AA6" t="n">
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
         <v>1000</v>
       </c>
       <c r="AF6" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AG6" t="n">
         <v>11</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
+        <v>29</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>140</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>12.5</v>
       </c>
-      <c r="AH6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>13</v>
-      </c>
       <c r="AK6" t="n">
-        <v>18.5</v>
+        <v>16</v>
       </c>
       <c r="AL6" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
       <c r="AN6" t="n">
         <v>7.8</v>
@@ -1342,10 +1342,10 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="G7" t="n">
-        <v>1.92</v>
+        <v>1.89</v>
       </c>
       <c r="H7" t="n">
         <v>4.7</v>
@@ -1354,52 +1354,52 @@
         <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.92</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
       </c>
       <c r="S7" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
         <v>1.86</v>
       </c>
       <c r="U7" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
-        <v>18</v>
+        <v>980</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Z7" t="n">
         <v>1000</v>
@@ -1477,16 +1477,16 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="G8" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>9.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="I8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="J8" t="n">
         <v>5.1</v>
@@ -1495,19 +1495,19 @@
         <v>5.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="Q8" t="n">
         <v>1.94</v>
@@ -1519,37 +1519,37 @@
         <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>2.24</v>
+        <v>2.26</v>
       </c>
       <c r="U8" t="n">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
         <v>28</v>
       </c>
       <c r="Z8" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AA8" t="n">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="AB8" t="n">
         <v>7.4</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="n">
         <v>190</v>
@@ -1561,7 +1561,7 @@
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
         <v>160</v>
@@ -1573,7 +1573,7 @@
         <v>15.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AM8" t="n">
         <v>210</v>
@@ -1582,7 +1582,7 @@
         <v>7.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>270</v>
+        <v>290</v>
       </c>
     </row>
     <row r="9">
@@ -1612,22 +1612,22 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.28</v>
+        <v>2.3</v>
       </c>
       <c r="G9" t="n">
-        <v>2.46</v>
+        <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
         <v>1.44</v>
@@ -1636,7 +1636,7 @@
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="O9" t="n">
         <v>1.37</v>
@@ -1645,13 +1645,13 @@
         <v>1.78</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="S9" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="T9" t="n">
         <v>1.81</v>
@@ -1660,10 +1660,10 @@
         <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="W9" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1675,10 +1675,10 @@
         <v>29</v>
       </c>
       <c r="AA9" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -1702,7 +1702,7 @@
         <v>1000</v>
       </c>
       <c r="AJ9" t="n">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
         <v>34</v>
@@ -1711,13 +1711,13 @@
         <v>55</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO9" t="n">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10">
@@ -1753,16 +1753,16 @@
         <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="I10" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
       </c>
       <c r="K10" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="L10" t="n">
         <v>1.01</v>
@@ -1777,13 +1777,13 @@
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.81</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
         <v>3.9</v>
@@ -1792,10 +1792,10 @@
         <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.82</v>
+        <v>1.78</v>
       </c>
       <c r="W10" t="n">
         <v>1.32</v>
@@ -1882,19 +1882,19 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
       <c r="G11" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="I11" t="n">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="J11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K11" t="n">
         <v>4.2</v>
@@ -1909,13 +1909,13 @@
         <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="R11" t="n">
         <v>1.31</v>
@@ -1927,13 +1927,13 @@
         <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.79</v>
+        <v>1.77</v>
       </c>
       <c r="V11" t="n">
-        <v>2.58</v>
+        <v>2.62</v>
       </c>
       <c r="W11" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="X11" t="n">
         <v>12</v>
@@ -1963,13 +1963,13 @@
         <v>60</v>
       </c>
       <c r="AG11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH11" t="n">
         <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AJ11" t="n">
         <v>250</v>
@@ -1978,10 +1978,10 @@
         <v>130</v>
       </c>
       <c r="AL11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AN11" t="n">
         <v>190</v>
@@ -2041,28 +2041,28 @@
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>2.98</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
         <v>2.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="T12" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
         <v>1.53</v>
@@ -2071,49 +2071,49 @@
         <v>1.52</v>
       </c>
       <c r="X12" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA12" t="n">
         <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
         <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AJ12" t="n">
         <v>46</v>
       </c>
       <c r="AK12" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AL12" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AM12" t="n">
         <v>120</v>
@@ -2122,7 +2122,7 @@
         <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2158,10 +2158,10 @@
         <v>4.6</v>
       </c>
       <c r="H13" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="I13" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="J13" t="n">
         <v>3.45</v>
@@ -2176,28 +2176,28 @@
         <v>1.09</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.41</v>
+        <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>3.85</v>
+        <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.78</v>
+        <v>1.98</v>
       </c>
       <c r="U13" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V13" t="n">
         <v>1.92</v>
@@ -2224,7 +2224,7 @@
         <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2233,7 +2233,7 @@
         <v>34</v>
       </c>
       <c r="AG13" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
@@ -2287,25 +2287,25 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="G14" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.46</v>
+        <v>2.58</v>
       </c>
       <c r="I14" t="n">
-        <v>2.56</v>
+        <v>2.64</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
         <v>3.2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.57</v>
+        <v>1.56</v>
       </c>
       <c r="M14" t="n">
         <v>1.12</v>
@@ -2317,31 +2317,31 @@
         <v>1.52</v>
       </c>
       <c r="P14" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="R14" t="n">
         <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="T14" t="n">
         <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="W14" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="X14" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Y14" t="n">
         <v>8.4</v>
@@ -2350,10 +2350,10 @@
         <v>15</v>
       </c>
       <c r="AA14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AB14" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
@@ -2365,34 +2365,34 @@
         <v>36</v>
       </c>
       <c r="AF14" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AG14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AI14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AJ14" t="n">
         <v>70</v>
       </c>
       <c r="AK14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="G15" t="n">
         <v>1.94</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2452,7 +2452,7 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
         <v>1.73</v>
@@ -2470,7 +2470,7 @@
         <v>2.22</v>
       </c>
       <c r="V15" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="W15" t="n">
         <v>2.06</v>
@@ -2482,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="Z15" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AA15" t="n">
         <v>90</v>
@@ -2500,7 +2500,7 @@
         <v>55</v>
       </c>
       <c r="AF15" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG15" t="n">
         <v>12.5</v>
@@ -2512,7 +2512,7 @@
         <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AK15" t="n">
         <v>23</v>
@@ -2524,7 +2524,7 @@
         <v>100</v>
       </c>
       <c r="AN15" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO15" t="n">
         <v>48</v>
@@ -2581,25 +2581,25 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="O16" t="n">
         <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R16" t="n">
-        <v>1.35</v>
+        <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="n">
         <v>2.16</v>
@@ -2611,7 +2611,7 @@
         <v>1.75</v>
       </c>
       <c r="X16" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="Y16" t="n">
         <v>13.5</v>
@@ -2623,7 +2623,7 @@
         <v>65</v>
       </c>
       <c r="AB16" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AC16" t="n">
         <v>7.6</v>
@@ -2659,10 +2659,10 @@
         <v>90</v>
       </c>
       <c r="AN16" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17">
@@ -2695,10 +2695,10 @@
         <v>1.86</v>
       </c>
       <c r="G17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H17" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="I17" t="n">
         <v>5.3</v>
@@ -2722,7 +2722,7 @@
         <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.89</v>
       </c>
       <c r="Q17" t="n">
         <v>2.08</v>
@@ -2731,13 +2731,13 @@
         <v>1.34</v>
       </c>
       <c r="S17" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>1.99</v>
       </c>
       <c r="V17" t="n">
         <v>1.23</v>
@@ -2752,7 +2752,7 @@
         <v>16.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="AA17" t="n">
         <v>130</v>
@@ -2764,7 +2764,7 @@
         <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AE17" t="n">
         <v>80</v>
@@ -2794,7 +2794,7 @@
         <v>130</v>
       </c>
       <c r="AN17" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AO17" t="n">
         <v>90</v>
@@ -2827,19 +2827,19 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="G18" t="n">
-        <v>3.85</v>
+        <v>4.1</v>
       </c>
       <c r="H18" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="I18" t="n">
         <v>2.2</v>
       </c>
-      <c r="I18" t="n">
-        <v>2.22</v>
-      </c>
       <c r="J18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>3.55</v>
@@ -2857,34 +2857,34 @@
         <v>1.37</v>
       </c>
       <c r="P18" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R18" t="n">
         <v>1.31</v>
       </c>
       <c r="S18" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="U18" t="n">
         <v>2.04</v>
       </c>
       <c r="V18" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="W18" t="n">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="X18" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
         <v>13</v>
@@ -2893,7 +2893,7 @@
         <v>28</v>
       </c>
       <c r="AB18" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AC18" t="n">
         <v>7.8</v>
@@ -2905,13 +2905,13 @@
         <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
         <v>42</v>
@@ -2920,16 +2920,16 @@
         <v>80</v>
       </c>
       <c r="AK18" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AL18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN18" t="n">
         <v>60</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>55</v>
       </c>
       <c r="AO18" t="n">
         <v>19.5</v>
@@ -2962,10 +2962,10 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
         <v>2.08</v>
@@ -2977,7 +2977,7 @@
         <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
         <v>1.35</v>
@@ -2989,16 +2989,16 @@
         <v>4.3</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.83</v>
+        <v>1.86</v>
       </c>
       <c r="R19" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S19" t="n">
         <v>3.05</v>
@@ -3007,13 +3007,13 @@
         <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.3</v>
+        <v>2.28</v>
       </c>
       <c r="V19" t="n">
         <v>1.9</v>
       </c>
       <c r="W19" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="X19" t="n">
         <v>17</v>
@@ -3103,16 +3103,16 @@
         <v>1.16</v>
       </c>
       <c r="H20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I20" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J20" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="K20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="L20" t="n">
         <v>1.21</v>
@@ -3121,19 +3121,19 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="O20" t="n">
         <v>1.13</v>
       </c>
       <c r="P20" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="S20" t="n">
         <v>2.06</v>
@@ -3142,37 +3142,37 @@
         <v>2.3</v>
       </c>
       <c r="U20" t="n">
-        <v>1.69</v>
+        <v>1.7</v>
       </c>
       <c r="V20" t="n">
         <v>1.03</v>
       </c>
       <c r="W20" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="X20" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="Y20" t="n">
-        <v>95</v>
+        <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AD20" t="n">
-        <v>100</v>
+        <v>990</v>
       </c>
       <c r="AE20" t="n">
-        <v>530</v>
+        <v>550</v>
       </c>
       <c r="AF20" t="n">
         <v>8.800000000000001</v>
@@ -3181,10 +3181,10 @@
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI20" t="n">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.6</v>
@@ -3193,7 +3193,7 @@
         <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>55</v>
+        <v>980</v>
       </c>
       <c r="AM20" t="n">
         <v>340</v>
@@ -3241,7 +3241,7 @@
         <v>6.4</v>
       </c>
       <c r="I21" t="n">
-        <v>9.199999999999999</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="J21" t="n">
         <v>4.1</v>
@@ -3280,7 +3280,7 @@
         <v>1.04</v>
       </c>
       <c r="V21" t="n">
-        <v>1.12</v>
+        <v>1.14</v>
       </c>
       <c r="W21" t="n">
         <v>2.58</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -667,16 +667,16 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="G2" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="J2" t="n">
         <v>4.5</v>
@@ -697,40 +697,40 @@
         <v>1.28</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R2" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="S2" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="T2" t="n">
         <v>1.91</v>
       </c>
       <c r="U2" t="n">
-        <v>2.02</v>
+        <v>2.06</v>
       </c>
       <c r="V2" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="X2" t="n">
         <v>18</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Z2" t="n">
         <v>50</v>
       </c>
       <c r="AA2" t="n">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="AB2" t="n">
         <v>8.800000000000001</v>
@@ -739,7 +739,7 @@
         <v>10</v>
       </c>
       <c r="AD2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE2" t="n">
         <v>90</v>
@@ -751,19 +751,19 @@
         <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI2" t="n">
         <v>80</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AK2" t="n">
         <v>16.5</v>
       </c>
       <c r="AL2" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AM2" t="n">
         <v>120</v>
@@ -772,7 +772,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AO2" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3">
@@ -874,7 +874,7 @@
         <v>25</v>
       </c>
       <c r="AD3" t="n">
-        <v>16.5</v>
+        <v>14.5</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -940,25 +940,25 @@
         <v>2.68</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="H4" t="n">
         <v>2.54</v>
       </c>
       <c r="I4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="L4" t="n">
         <v>1.41</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
         <v>3.4</v>
@@ -985,10 +985,10 @@
         <v>2.08</v>
       </c>
       <c r="V4" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1099,13 +1099,13 @@
         <v>4.3</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.22</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.71</v>
+        <v>1.62</v>
       </c>
       <c r="R5" t="n">
         <v>1.46</v>
@@ -1117,7 +1117,7 @@
         <v>1.92</v>
       </c>
       <c r="U5" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V5" t="n">
         <v>2.98</v>
@@ -1129,7 +1129,7 @@
         <v>1000</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.199999999999999</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Z5" t="n">
         <v>9.4</v>
@@ -1144,10 +1144,10 @@
         <v>11.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AF5" t="n">
         <v>70</v>
@@ -1174,10 +1174,10 @@
         <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -1207,10 +1207,10 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="G6" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="H6" t="n">
         <v>8.4</v>
@@ -1222,25 +1222,25 @@
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="L6" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="O6" t="n">
         <v>1.24</v>
       </c>
       <c r="P6" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="R6" t="n">
         <v>1.45</v>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
@@ -1264,7 +1264,7 @@
         <v>20</v>
       </c>
       <c r="Y6" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Z6" t="n">
         <v>85</v>
@@ -1273,7 +1273,7 @@
         <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>10</v>
       </c>
       <c r="AC6" t="n">
         <v>11.5</v>
@@ -1282,13 +1282,13 @@
         <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AF6" t="n">
         <v>8.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH6" t="n">
         <v>29</v>
@@ -1300,16 +1300,16 @@
         <v>12.5</v>
       </c>
       <c r="AK6" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AM6" t="n">
         <v>170</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AO6" t="n">
         <v>1000</v>
@@ -1348,7 +1348,7 @@
         <v>1.89</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
         <v>5</v>
@@ -1360,22 +1360,22 @@
         <v>3.75</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O7" t="n">
         <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.95</v>
+        <v>1.97</v>
       </c>
       <c r="R7" t="n">
         <v>1.33</v>
@@ -1396,7 +1396,7 @@
         <v>2.12</v>
       </c>
       <c r="X7" t="n">
-        <v>980</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
         <v>21</v>
@@ -1411,7 +1411,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD7" t="n">
         <v>1000</v>
@@ -1435,7 +1435,7 @@
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1483,19 +1483,19 @@
         <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>10.5</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="L8" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
@@ -1510,37 +1510,37 @@
         <v>2.04</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.41</v>
       </c>
       <c r="S8" t="n">
         <v>3.35</v>
       </c>
       <c r="T8" t="n">
-        <v>2.26</v>
+        <v>2.24</v>
       </c>
       <c r="U8" t="n">
         <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
         <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z8" t="n">
         <v>95</v>
       </c>
       <c r="AA8" t="n">
-        <v>420</v>
+        <v>450</v>
       </c>
       <c r="AB8" t="n">
         <v>7.4</v>
@@ -1552,13 +1552,13 @@
         <v>38</v>
       </c>
       <c r="AE8" t="n">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="AF8" t="n">
         <v>7.2</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>32</v>
@@ -1576,10 +1576,10 @@
         <v>44</v>
       </c>
       <c r="AM8" t="n">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AO8" t="n">
         <v>290</v>
@@ -1624,13 +1624,13 @@
         <v>3.7</v>
       </c>
       <c r="J9" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1642,16 +1642,16 @@
         <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.78</v>
+        <v>1.82</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R9" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="S9" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="T9" t="n">
         <v>1.81</v>
@@ -1660,7 +1660,7 @@
         <v>2.02</v>
       </c>
       <c r="V9" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="W9" t="n">
         <v>1.7</v>
@@ -1690,7 +1690,7 @@
         <v>48</v>
       </c>
       <c r="AF9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="G10" t="n">
         <v>4.1</v>
@@ -1756,7 +1756,7 @@
         <v>2.16</v>
       </c>
       <c r="I10" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="J10" t="n">
         <v>3.3</v>
@@ -1765,7 +1765,7 @@
         <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.01</v>
+        <v>1.46</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
@@ -1777,10 +1777,10 @@
         <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="R10" t="n">
         <v>1.29</v>
@@ -1792,10 +1792,10 @@
         <v>1.86</v>
       </c>
       <c r="U10" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="W10" t="n">
         <v>1.32</v>
@@ -1810,28 +1810,28 @@
         <v>15.5</v>
       </c>
       <c r="AA10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AB10" t="n">
         <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="AD10" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AF10" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AG10" t="n">
         <v>19.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1888,16 +1888,16 @@
         <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I11" t="n">
-        <v>1.61</v>
+        <v>1.62</v>
       </c>
       <c r="J11" t="n">
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
         <v>1.45</v>
@@ -1912,13 +1912,13 @@
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
         <v>2.18</v>
       </c>
       <c r="R11" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="S11" t="n">
         <v>4</v>
@@ -1927,10 +1927,10 @@
         <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="W11" t="n">
         <v>1.15</v>
@@ -1948,7 +1948,7 @@
         <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="n">
         <v>9.199999999999999</v>
@@ -1978,13 +1978,13 @@
         <v>130</v>
       </c>
       <c r="AL11" t="n">
-        <v>1000</v>
+        <v>130</v>
       </c>
       <c r="AM11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN11" t="n">
         <v>200</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>190</v>
       </c>
       <c r="AO11" t="n">
         <v>11</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.88</v>
+        <v>2.86</v>
       </c>
       <c r="G12" t="n">
         <v>2.9</v>
       </c>
       <c r="H12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="I12" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2065,19 +2065,19 @@
         <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
         <v>1.52</v>
       </c>
       <c r="X12" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AA12" t="n">
         <v>46</v>
@@ -2086,7 +2086,7 @@
         <v>9</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
         <v>13</v>
@@ -2095,10 +2095,10 @@
         <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2119,7 +2119,7 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
         <v>40</v>
@@ -2155,16 +2155,16 @@
         <v>4.3</v>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="I13" t="n">
         <v>2.08</v>
       </c>
       <c r="J13" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K13" t="n">
         <v>3.5</v>
@@ -2182,82 +2182,82 @@
         <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
         <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="U13" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="V13" t="n">
         <v>1.92</v>
       </c>
       <c r="W13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X13" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
         <v>7.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AA13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AB13" t="n">
         <v>13.5</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD13" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="AG13" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>980</v>
+        <v>46</v>
       </c>
       <c r="AJ13" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="AK13" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AL13" t="n">
         <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="AO13" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="14">
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
         <v>3.4</v>
       </c>
       <c r="H14" t="n">
-        <v>2.58</v>
+        <v>2.56</v>
       </c>
       <c r="I14" t="n">
-        <v>2.64</v>
+        <v>2.66</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2311,25 +2311,25 @@
         <v>1.12</v>
       </c>
       <c r="N14" t="n">
-        <v>2.72</v>
+        <v>2.74</v>
       </c>
       <c r="O14" t="n">
         <v>1.52</v>
       </c>
       <c r="P14" t="n">
-        <v>1.6</v>
+        <v>1.59</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.52</v>
+        <v>2.56</v>
       </c>
       <c r="R14" t="n">
         <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="T14" t="n">
-        <v>2.04</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="n">
         <v>1.85</v>
@@ -2338,10 +2338,10 @@
         <v>1.6</v>
       </c>
       <c r="W14" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="X14" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y14" t="n">
         <v>8.4</v>
@@ -2392,7 +2392,7 @@
         <v>65</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15">
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.88</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="H15" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
         <v>4.7</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2452,7 +2452,7 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>2.14</v>
       </c>
       <c r="Q15" t="n">
         <v>1.73</v>
@@ -2473,7 +2473,7 @@
         <v>1.27</v>
       </c>
       <c r="W15" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="X15" t="n">
         <v>22</v>
@@ -2482,7 +2482,7 @@
         <v>20</v>
       </c>
       <c r="Z15" t="n">
-        <v>40</v>
+        <v>980</v>
       </c>
       <c r="AA15" t="n">
         <v>90</v>
@@ -2569,10 +2569,10 @@
         <v>3.55</v>
       </c>
       <c r="J16" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K16" t="n">
         <v>3.5</v>
-      </c>
-      <c r="K16" t="n">
-        <v>3.55</v>
       </c>
       <c r="L16" t="n">
         <v>1.43</v>
@@ -2581,10 +2581,10 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
         <v>1.95</v>
@@ -2614,7 +2614,7 @@
         <v>13.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
         <v>23</v>
@@ -2629,7 +2629,7 @@
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AE16" t="n">
         <v>42</v>
@@ -2650,16 +2650,16 @@
         <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
         <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AN16" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AO16" t="n">
         <v>38</v>
@@ -2695,19 +2695,19 @@
         <v>1.86</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="H17" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I17" t="n">
         <v>5.2</v>
-      </c>
-      <c r="I17" t="n">
-        <v>5.3</v>
       </c>
       <c r="J17" t="n">
         <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="L17" t="n">
         <v>1.44</v>
@@ -2734,7 +2734,7 @@
         <v>3.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="U17" t="n">
         <v>1.99</v>
@@ -2764,7 +2764,7 @@
         <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AE17" t="n">
         <v>80</v>
@@ -2827,7 +2827,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.85</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
         <v>4.1</v>
@@ -2836,7 +2836,7 @@
         <v>2.14</v>
       </c>
       <c r="I18" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="J18" t="n">
         <v>3.45</v>
@@ -2848,7 +2848,7 @@
         <v>1.44</v>
       </c>
       <c r="M18" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
         <v>3.45</v>
@@ -2860,7 +2860,7 @@
         <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="R18" t="n">
         <v>1.31</v>
@@ -2869,22 +2869,22 @@
         <v>3.9</v>
       </c>
       <c r="T18" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="U18" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="W18" t="n">
         <v>1.32</v>
       </c>
       <c r="X18" t="n">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Y18" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z18" t="n">
         <v>13</v>
@@ -2911,7 +2911,7 @@
         <v>16</v>
       </c>
       <c r="AH18" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
         <v>42</v>
@@ -3016,7 +3016,7 @@
         <v>1.32</v>
       </c>
       <c r="X19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="Y19" t="n">
         <v>11</v>
@@ -3046,7 +3046,7 @@
         <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>32</v>
@@ -3061,7 +3061,7 @@
         <v>48</v>
       </c>
       <c r="AM19" t="n">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AN19" t="n">
         <v>38</v>
@@ -3115,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.21</v>
+        <v>1.18</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3133,16 +3133,16 @@
         <v>1.42</v>
       </c>
       <c r="R20" t="n">
-        <v>1.88</v>
+        <v>1.86</v>
       </c>
       <c r="S20" t="n">
         <v>2.06</v>
       </c>
       <c r="T20" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="U20" t="n">
-        <v>1.7</v>
+        <v>1.68</v>
       </c>
       <c r="V20" t="n">
         <v>1.03</v>
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="G21" t="n">
         <v>1.63</v>
@@ -3253,7 +3253,7 @@
         <v>1.29</v>
       </c>
       <c r="M21" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
         <v>2.84</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -667,22 +667,22 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.64</v>
       </c>
       <c r="H2" t="n">
         <v>6.2</v>
       </c>
       <c r="I2" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K2" t="n">
         <v>4.5</v>
-      </c>
-      <c r="K2" t="n">
-        <v>4.6</v>
       </c>
       <c r="L2" t="n">
         <v>1.38</v>
@@ -694,22 +694,22 @@
         <v>4.3</v>
       </c>
       <c r="O2" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P2" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.84</v>
+        <v>1.87</v>
       </c>
       <c r="R2" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="S2" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="U2" t="n">
         <v>2.06</v>
@@ -718,16 +718,16 @@
         <v>1.18</v>
       </c>
       <c r="W2" t="n">
-        <v>2.6</v>
+        <v>2.56</v>
       </c>
       <c r="X2" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="Y2" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="Z2" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AA2" t="n">
         <v>180</v>
@@ -736,7 +736,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AD2" t="n">
         <v>24</v>
@@ -745,7 +745,7 @@
         <v>90</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AG2" t="n">
         <v>9.6</v>
@@ -769,7 +769,7 @@
         <v>120</v>
       </c>
       <c r="AN2" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AO2" t="n">
         <v>95</v>
@@ -802,25 +802,25 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="I3" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>7.8</v>
+        <v>7.4</v>
       </c>
       <c r="K3" t="n">
         <v>10.5</v>
       </c>
       <c r="L3" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -832,7 +832,7 @@
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="Q3" t="n">
         <v>1.51</v>
@@ -841,16 +841,16 @@
         <v>1.6</v>
       </c>
       <c r="S3" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.44</v>
       </c>
       <c r="U3" t="n">
         <v>1.53</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="W3" t="n">
         <v>1.03</v>
@@ -868,7 +868,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AB3" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="n">
         <v>25</v>
@@ -883,13 +883,13 @@
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AH3" t="n">
+        <v>65</v>
+      </c>
+      <c r="AI3" t="n">
         <v>70</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>75</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -937,55 +937,55 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.68</v>
+        <v>2.8</v>
       </c>
       <c r="G4" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="H4" t="n">
-        <v>2.54</v>
+        <v>2.58</v>
       </c>
       <c r="I4" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="L4" t="n">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="O4" t="n">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.93</v>
+        <v>2.16</v>
       </c>
       <c r="R4" t="n">
-        <v>1.32</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="U4" t="n">
-        <v>2.08</v>
+        <v>1.97</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.49</v>
       </c>
       <c r="W4" t="n">
         <v>1.47</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>7.2</v>
+        <v>6.4</v>
       </c>
       <c r="G5" t="n">
-        <v>8.4</v>
+        <v>7.8</v>
       </c>
       <c r="H5" t="n">
-        <v>1.45</v>
+        <v>1.53</v>
       </c>
       <c r="I5" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="J5" t="n">
-        <v>5</v>
+        <v>4.6</v>
       </c>
       <c r="K5" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="L5" t="n">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
       </c>
       <c r="N5" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O5" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P5" t="n">
-        <v>2.22</v>
+        <v>2.16</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="R5" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S5" t="n">
-        <v>2.82</v>
+        <v>2.98</v>
       </c>
       <c r="T5" t="n">
-        <v>1.92</v>
+        <v>1.87</v>
       </c>
       <c r="U5" t="n">
-        <v>1.93</v>
+        <v>1.96</v>
       </c>
       <c r="V5" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="W5" t="n">
-        <v>1.13</v>
+        <v>1.16</v>
       </c>
       <c r="X5" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.4</v>
+        <v>9.6</v>
       </c>
       <c r="AA5" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AB5" t="n">
         <v>990</v>
       </c>
       <c r="AC5" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>990</v>
       </c>
       <c r="AE5" t="n">
-        <v>1000</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AG5" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AH5" t="n">
-        <v>1000</v>
+        <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AJ5" t="n">
-        <v>1000</v>
+        <v>220</v>
       </c>
       <c r="AK5" t="n">
+        <v>160</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN5" t="n">
         <v>120</v>
       </c>
-      <c r="AL5" t="n">
-        <v>95</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>130</v>
-      </c>
       <c r="AO5" t="n">
-        <v>7</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="6">
@@ -1207,52 +1207,52 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="G6" t="n">
         <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="K6" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="L6" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="M6" t="n">
         <v>1.05</v>
       </c>
       <c r="N6" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P6" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="R6" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>2.86</v>
+        <v>2.96</v>
       </c>
       <c r="T6" t="n">
         <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
@@ -1267,10 +1267,10 @@
         <v>30</v>
       </c>
       <c r="Z6" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="AB6" t="n">
         <v>10</v>
@@ -1282,7 +1282,7 @@
         <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
         <v>8.6</v>
@@ -1291,10 +1291,10 @@
         <v>12</v>
       </c>
       <c r="AH6" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI6" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="AJ6" t="n">
         <v>12.5</v>
@@ -1303,7 +1303,7 @@
         <v>15</v>
       </c>
       <c r="AL6" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AM6" t="n">
         <v>170</v>
@@ -1312,7 +1312,7 @@
         <v>6.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
@@ -1342,67 +1342,67 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.87</v>
+        <v>1.84</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.65</v>
       </c>
       <c r="K7" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.75</v>
+        <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.9</v>
+        <v>1.96</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.97</v>
+        <v>1.96</v>
       </c>
       <c r="R7" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S7" t="n">
         <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.86</v>
+        <v>1.81</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
         <v>1.25</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="X7" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>1000</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>1000</v>
       </c>
       <c r="AD7" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1426,7 +1426,7 @@
         <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
@@ -1435,7 +1435,7 @@
         <v>1000</v>
       </c>
       <c r="AK7" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AL7" t="n">
         <v>1000</v>
@@ -1483,16 +1483,16 @@
         <v>1.41</v>
       </c>
       <c r="H8" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="I8" t="n">
         <v>11</v>
       </c>
-      <c r="I8" t="n">
-        <v>11.5</v>
-      </c>
       <c r="J8" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="L8" t="n">
         <v>1.39</v>
@@ -1507,16 +1507,16 @@
         <v>1.3</v>
       </c>
       <c r="P8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.41</v>
+        <v>1.39</v>
       </c>
       <c r="S8" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
       <c r="T8" t="n">
         <v>2.24</v>
@@ -1525,25 +1525,25 @@
         <v>1.76</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="W8" t="n">
         <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AA8" t="n">
-        <v>450</v>
+        <v>440</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
@@ -1558,13 +1558,13 @@
         <v>7.2</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH8" t="n">
         <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
         <v>11</v>
@@ -1579,10 +1579,10 @@
         <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AO8" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -1612,52 +1612,52 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G9" t="n">
         <v>2.42</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="O9" t="n">
         <v>1.37</v>
       </c>
       <c r="P9" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="Q9" t="n">
         <v>2.12</v>
       </c>
       <c r="R9" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S9" t="n">
         <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V9" t="n">
         <v>1.38</v>
@@ -1669,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z9" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA9" t="n">
         <v>70</v>
@@ -1687,16 +1687,16 @@
         <v>18</v>
       </c>
       <c r="AE9" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AF9" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AG9" t="n">
         <v>14</v>
       </c>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AI9" t="n">
         <v>1000</v>
@@ -1705,16 +1705,16 @@
         <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL9" t="n">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="AM9" t="n">
         <v>130</v>
       </c>
       <c r="AN9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AO9" t="n">
         <v>48</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="G10" t="n">
         <v>4.1</v>
@@ -1759,31 +1759,31 @@
         <v>2.24</v>
       </c>
       <c r="J10" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M10" t="n">
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79</v>
+        <v>1.8</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.12</v>
+        <v>2.16</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="S10" t="n">
         <v>3.9</v>
@@ -1795,7 +1795,7 @@
         <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="W10" t="n">
         <v>1.32</v>
@@ -1831,7 +1831,7 @@
         <v>19.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1888,7 +1888,7 @@
         <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="I11" t="n">
         <v>1.62</v>
@@ -1897,10 +1897,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="L11" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
@@ -1912,7 +1912,7 @@
         <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.81</v>
+        <v>1.83</v>
       </c>
       <c r="Q11" t="n">
         <v>2.18</v>
@@ -1921,13 +1921,13 @@
         <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>2.22</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.77</v>
       </c>
       <c r="V11" t="n">
         <v>2.6</v>
@@ -1942,10 +1942,10 @@
         <v>7</v>
       </c>
       <c r="Z11" t="n">
-        <v>8.199999999999999</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AB11" t="n">
         <v>20</v>
@@ -1957,7 +1957,7 @@
         <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AF11" t="n">
         <v>60</v>
@@ -2017,16 +2017,16 @@
         </is>
       </c>
       <c r="F12" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="G12" t="n">
         <v>2.86</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>2.9</v>
       </c>
-      <c r="H12" t="n">
-        <v>2.88</v>
-      </c>
       <c r="I12" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="J12" t="n">
         <v>3.25</v>
@@ -2056,28 +2056,28 @@
         <v>1.25</v>
       </c>
       <c r="S12" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="T12" t="n">
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.94</v>
       </c>
       <c r="V12" t="n">
         <v>1.52</v>
       </c>
       <c r="W12" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="X12" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z12" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>46</v>
@@ -2092,22 +2092,22 @@
         <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI12" t="n">
         <v>55</v>
       </c>
       <c r="AJ12" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AK12" t="n">
         <v>36</v>
@@ -2122,7 +2122,7 @@
         <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13">
@@ -2152,16 +2152,16 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="H13" t="n">
         <v>2.02</v>
       </c>
       <c r="I13" t="n">
-        <v>2.08</v>
+        <v>2.06</v>
       </c>
       <c r="J13" t="n">
         <v>3.4</v>
@@ -2170,37 +2170,37 @@
         <v>3.5</v>
       </c>
       <c r="L13" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M13" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.26</v>
+        <v>2.32</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
         <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.99</v>
+        <v>2</v>
       </c>
       <c r="U13" t="n">
         <v>1.93</v>
       </c>
       <c r="V13" t="n">
-        <v>1.92</v>
+        <v>1.94</v>
       </c>
       <c r="W13" t="n">
         <v>1.27</v>
@@ -2209,7 +2209,7 @@
         <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z13" t="n">
         <v>11.5</v>
@@ -2218,7 +2218,7 @@
         <v>24</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
@@ -2230,7 +2230,7 @@
         <v>24</v>
       </c>
       <c r="AF13" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AG13" t="n">
         <v>18</v>
@@ -2251,10 +2251,10 @@
         <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="AN13" t="n">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="AO13" t="n">
         <v>19.5</v>
@@ -2287,16 +2287,16 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="G14" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.56</v>
+        <v>2.68</v>
       </c>
       <c r="I14" t="n">
-        <v>2.66</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
@@ -2308,37 +2308,37 @@
         <v>1.56</v>
       </c>
       <c r="M14" t="n">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>2.74</v>
+        <v>2.82</v>
       </c>
       <c r="O14" t="n">
-        <v>1.52</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.56</v>
+        <v>2.6</v>
       </c>
       <c r="R14" t="n">
         <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="T14" t="n">
         <v>2.08</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="V14" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="W14" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
         <v>8.800000000000001</v>
@@ -2347,13 +2347,13 @@
         <v>8.4</v>
       </c>
       <c r="Z14" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="AB14" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AC14" t="n">
         <v>7.2</v>
@@ -2368,31 +2368,31 @@
         <v>20</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AJ14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL14" t="n">
         <v>70</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>75</v>
       </c>
       <c r="AM14" t="n">
         <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>1.9</v>
       </c>
       <c r="G15" t="n">
         <v>1.95</v>
@@ -2431,55 +2431,55 @@
         <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
       </c>
       <c r="L15" t="n">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
         <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="O15" t="n">
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.18</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="R15" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="S15" t="n">
-        <v>2.92</v>
+        <v>2.98</v>
       </c>
       <c r="T15" t="n">
         <v>1.69</v>
       </c>
       <c r="U15" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="V15" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
         <v>2.04</v>
       </c>
       <c r="X15" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="Z15" t="n">
         <v>980</v>
@@ -2491,13 +2491,13 @@
         <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AE15" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AF15" t="n">
         <v>15.5</v>
@@ -2518,7 +2518,7 @@
         <v>23</v>
       </c>
       <c r="AL15" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="AM15" t="n">
         <v>100</v>
@@ -2563,10 +2563,10 @@
         <v>2.32</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="J16" t="n">
         <v>3.45</v>
@@ -2602,13 +2602,13 @@
         <v>1.82</v>
       </c>
       <c r="U16" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="X16" t="n">
         <v>13.5</v>
@@ -2617,7 +2617,7 @@
         <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AA16" t="n">
         <v>65</v>
@@ -2632,7 +2632,7 @@
         <v>15</v>
       </c>
       <c r="AE16" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF16" t="n">
         <v>14</v>
@@ -2644,7 +2644,7 @@
         <v>17.5</v>
       </c>
       <c r="AI16" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
         <v>29</v>
@@ -2656,7 +2656,7 @@
         <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="AN16" t="n">
         <v>18.5</v>
@@ -2692,10 +2692,10 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.86</v>
+        <v>1.87</v>
       </c>
       <c r="G17" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="H17" t="n">
         <v>5.1</v>
@@ -2707,10 +2707,10 @@
         <v>3.65</v>
       </c>
       <c r="K17" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="L17" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
@@ -2731,19 +2731,19 @@
         <v>1.34</v>
       </c>
       <c r="S17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T17" t="n">
         <v>1.95</v>
       </c>
       <c r="U17" t="n">
-        <v>1.99</v>
+        <v>2.02</v>
       </c>
       <c r="V17" t="n">
         <v>1.23</v>
       </c>
       <c r="W17" t="n">
-        <v>2.14</v>
+        <v>2.12</v>
       </c>
       <c r="X17" t="n">
         <v>13</v>
@@ -2764,10 +2764,10 @@
         <v>8</v>
       </c>
       <c r="AD17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AE17" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF17" t="n">
         <v>10.5</v>
@@ -2782,7 +2782,7 @@
         <v>80</v>
       </c>
       <c r="AJ17" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AK17" t="n">
         <v>19.5</v>
@@ -2827,31 +2827,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="H18" t="n">
-        <v>2.14</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="O18" t="n">
         <v>1.37</v>
@@ -2860,46 +2860,46 @@
         <v>1.82</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="R18" t="n">
         <v>1.31</v>
       </c>
       <c r="S18" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T18" t="n">
-        <v>1.87</v>
+        <v>1.89</v>
       </c>
       <c r="U18" t="n">
         <v>2.06</v>
       </c>
       <c r="V18" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="Z18" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AA18" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AB18" t="n">
         <v>13</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AE18" t="n">
         <v>25</v>
@@ -2908,31 +2908,31 @@
         <v>27</v>
       </c>
       <c r="AG18" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AI18" t="n">
         <v>42</v>
       </c>
       <c r="AJ18" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AK18" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN18" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AO18" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
@@ -2962,16 +2962,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3.85</v>
       </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.1</v>
+        <v>2.14</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
@@ -2980,22 +2980,22 @@
         <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="P19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
@@ -3007,13 +3007,13 @@
         <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.28</v>
+        <v>2.32</v>
       </c>
       <c r="V19" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="W19" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="X19" t="n">
         <v>16</v>
@@ -3025,10 +3025,10 @@
         <v>13.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AB19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AC19" t="n">
         <v>8.199999999999999</v>
@@ -3040,13 +3040,13 @@
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AG19" t="n">
         <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AI19" t="n">
         <v>32</v>
@@ -3097,16 +3097,16 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="G20" t="n">
         <v>1.16</v>
       </c>
       <c r="H20" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I20" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
         <v>10.5</v>
@@ -3115,7 +3115,7 @@
         <v>11</v>
       </c>
       <c r="L20" t="n">
-        <v>1.18</v>
+        <v>1.23</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3130,13 +3130,13 @@
         <v>3.15</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="R20" t="n">
         <v>1.86</v>
       </c>
       <c r="S20" t="n">
-        <v>2.06</v>
+        <v>2.08</v>
       </c>
       <c r="T20" t="n">
         <v>2.38</v>
@@ -3148,7 +3148,7 @@
         <v>1.03</v>
       </c>
       <c r="W20" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X20" t="n">
         <v>55</v>
@@ -3166,16 +3166,16 @@
         <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD20" t="n">
-        <v>990</v>
+        <v>110</v>
       </c>
       <c r="AE20" t="n">
-        <v>550</v>
+        <v>600</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
@@ -3187,7 +3187,7 @@
         <v>360</v>
       </c>
       <c r="AJ20" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AK20" t="n">
         <v>14.5</v>
@@ -3199,7 +3199,7 @@
         <v>340</v>
       </c>
       <c r="AN20" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3250,13 +3250,13 @@
         <v>5.1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>2.84</v>
+        <v>3.7</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
@@ -3265,13 +3265,13 @@
         <v>2.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.65</v>
+        <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="S21" t="n">
-        <v>2.28</v>
+        <v>2.78</v>
       </c>
       <c r="T21" t="n">
         <v>1.04</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -670,76 +670,76 @@
         <v>1.63</v>
       </c>
       <c r="G2" t="n">
-        <v>1.64</v>
+        <v>1.65</v>
       </c>
       <c r="H2" t="n">
-        <v>6.2</v>
+        <v>5.8</v>
       </c>
       <c r="I2" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="J2" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="K2" t="n">
         <v>4.5</v>
       </c>
       <c r="L2" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="M2" t="n">
         <v>1.06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.3</v>
+        <v>4</v>
       </c>
       <c r="O2" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="P2" t="n">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="R2" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="S2" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T2" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="U2" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="V2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="W2" t="n">
-        <v>2.56</v>
+        <v>2.52</v>
       </c>
       <c r="X2" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="Y2" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="Z2" t="n">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="AA2" t="n">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="AB2" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AC2" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AE2" t="n">
         <v>90</v>
@@ -751,28 +751,28 @@
         <v>9.6</v>
       </c>
       <c r="AH2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AI2" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AJ2" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AK2" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AL2" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AM2" t="n">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="AN2" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AO2" t="n">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -802,7 +802,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
         <v>30</v>
@@ -814,13 +814,13 @@
         <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="K3" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="L3" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -835,16 +835,16 @@
         <v>2.52</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="T3" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="U3" t="n">
         <v>1.53</v>
@@ -871,7 +871,7 @@
         <v>80</v>
       </c>
       <c r="AC3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AD3" t="n">
         <v>14.5</v>
@@ -937,46 +937,46 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.58</v>
+        <v>2.54</v>
       </c>
       <c r="I4" t="n">
-        <v>3.05</v>
+        <v>2.94</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.7</v>
+        <v>3.55</v>
       </c>
       <c r="L4" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="M4" t="n">
         <v>1.09</v>
       </c>
       <c r="N4" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="O4" t="n">
         <v>1.4</v>
       </c>
       <c r="P4" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.16</v>
+        <v>2.26</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>3.9</v>
+        <v>4.3</v>
       </c>
       <c r="T4" t="n">
         <v>1.79</v>
@@ -985,10 +985,10 @@
         <v>1.97</v>
       </c>
       <c r="V4" t="n">
-        <v>1.49</v>
+        <v>1.52</v>
       </c>
       <c r="W4" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.4</v>
+        <v>6.2</v>
       </c>
       <c r="G5" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="I5" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="J5" t="n">
-        <v>4.6</v>
+        <v>4.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="L5" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="O5" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.16</v>
+        <v>2.06</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="R5" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="S5" t="n">
-        <v>2.98</v>
+        <v>3.25</v>
       </c>
       <c r="T5" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="U5" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="V5" t="n">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="W5" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="X5" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="Z5" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AB5" t="n">
-        <v>990</v>
+        <v>23</v>
       </c>
       <c r="AC5" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>990</v>
+        <v>10</v>
       </c>
       <c r="AE5" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AF5" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AH5" t="n">
         <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="AK5" t="n">
         <v>160</v>
       </c>
       <c r="AL5" t="n">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>190</v>
       </c>
       <c r="AN5" t="n">
         <v>120</v>
       </c>
       <c r="AO5" t="n">
-        <v>7.4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1216,10 +1216,10 @@
         <v>9</v>
       </c>
       <c r="I6" t="n">
-        <v>9.800000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="J6" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="K6" t="n">
         <v>5.3</v>
@@ -1252,7 +1252,7 @@
         <v>2</v>
       </c>
       <c r="U6" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="V6" t="n">
         <v>1.11</v>
@@ -1261,7 +1261,7 @@
         <v>3.2</v>
       </c>
       <c r="X6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Y6" t="n">
         <v>30</v>
@@ -1270,10 +1270,10 @@
         <v>80</v>
       </c>
       <c r="AA6" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="AC6" t="n">
         <v>11.5</v>
@@ -1282,7 +1282,7 @@
         <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
         <v>8.6</v>
@@ -1297,7 +1297,7 @@
         <v>130</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>15</v>
@@ -1312,7 +1312,7 @@
         <v>6.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>180</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
@@ -1345,16 +1345,16 @@
         <v>1.84</v>
       </c>
       <c r="G7" t="n">
-        <v>1.9</v>
+        <v>1.89</v>
       </c>
       <c r="H7" t="n">
-        <v>4.7</v>
+        <v>4.9</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="J7" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="K7" t="n">
         <v>3.9</v>
@@ -1372,49 +1372,49 @@
         <v>1.31</v>
       </c>
       <c r="P7" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="R7" t="n">
         <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="T7" t="n">
-        <v>1.81</v>
+        <v>1.8</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="W7" t="n">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="X7" t="n">
         <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>42</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
       </c>
       <c r="AB7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC7" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="AC7" t="n">
-        <v>1000</v>
-      </c>
       <c r="AD7" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,28 +1423,28 @@
         <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AH7" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI7" t="n">
         <v>1000</v>
       </c>
       <c r="AJ7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AK7" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>40</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="AO7" t="n">
         <v>1000</v>
@@ -1483,106 +1483,106 @@
         <v>1.41</v>
       </c>
       <c r="H8" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="I8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
         <v>5.1</v>
       </c>
-      <c r="K8" t="n">
-        <v>5.3</v>
-      </c>
       <c r="L8" t="n">
-        <v>1.39</v>
+        <v>1.43</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.1</v>
+        <v>3.85</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="Q8" t="n">
         <v>2.02</v>
       </c>
-      <c r="Q8" t="n">
-        <v>1.95</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.39</v>
+        <v>1.36</v>
       </c>
       <c r="S8" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="T8" t="n">
-        <v>2.24</v>
+        <v>2.34</v>
       </c>
       <c r="U8" t="n">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="W8" t="n">
         <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="Z8" t="n">
         <v>100</v>
       </c>
       <c r="AA8" t="n">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="AB8" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AC8" t="n">
         <v>11</v>
       </c>
       <c r="AD8" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AE8" t="n">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="AF8" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="AG8" t="n">
         <v>10</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AI8" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AJ8" t="n">
         <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>300</v>
+        <v>370</v>
       </c>
     </row>
     <row r="9">
@@ -1615,19 +1615,19 @@
         <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2.42</v>
+        <v>2.44</v>
       </c>
       <c r="H9" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="L9" t="n">
         <v>1.46</v>
@@ -1654,10 +1654,10 @@
         <v>3.85</v>
       </c>
       <c r="T9" t="n">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="U9" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="V9" t="n">
         <v>1.38</v>
@@ -1669,13 +1669,13 @@
         <v>13</v>
       </c>
       <c r="Y9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AA9" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AB9" t="n">
         <v>10</v>
@@ -1684,22 +1684,22 @@
         <v>8</v>
       </c>
       <c r="AD9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AE9" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AF9" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AG9" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AH9" t="n">
         <v>20</v>
       </c>
       <c r="AI9" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AJ9" t="n">
         <v>34</v>
@@ -1747,7 +1747,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="G10" t="n">
         <v>4.1</v>
@@ -1756,7 +1756,7 @@
         <v>2.16</v>
       </c>
       <c r="I10" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
         <v>3.35</v>
@@ -1771,22 +1771,22 @@
         <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="O10" t="n">
         <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.8</v>
+        <v>1.79</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.16</v>
+        <v>2.18</v>
       </c>
       <c r="R10" t="n">
         <v>1.3</v>
       </c>
       <c r="S10" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="T10" t="n">
         <v>1.86</v>
@@ -1795,7 +1795,7 @@
         <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="W10" t="n">
         <v>1.32</v>
@@ -1807,7 +1807,7 @@
         <v>10.5</v>
       </c>
       <c r="Z10" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
         <v>34</v>
@@ -1816,13 +1816,13 @@
         <v>16</v>
       </c>
       <c r="AC10" t="n">
-        <v>9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD10" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
         <v>34</v>
@@ -1888,7 +1888,7 @@
         <v>7.6</v>
       </c>
       <c r="H11" t="n">
-        <v>1.6</v>
+        <v>1.61</v>
       </c>
       <c r="I11" t="n">
         <v>1.62</v>
@@ -1897,10 +1897,10 @@
         <v>4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="L11" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
@@ -1909,10 +1909,10 @@
         <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Q11" t="n">
         <v>2.18</v>
@@ -1921,13 +1921,13 @@
         <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.22</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.77</v>
+        <v>1.78</v>
       </c>
       <c r="V11" t="n">
         <v>2.6</v>
@@ -1936,7 +1936,7 @@
         <v>1.15</v>
       </c>
       <c r="X11" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
         <v>7</v>
@@ -1948,7 +1948,7 @@
         <v>14</v>
       </c>
       <c r="AB11" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AC11" t="n">
         <v>9.199999999999999</v>
@@ -2017,43 +2017,43 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.84</v>
+        <v>2.86</v>
       </c>
       <c r="G12" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="H12" t="n">
         <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="J12" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K12" t="n">
         <v>3.25</v>
       </c>
-      <c r="K12" t="n">
-        <v>3.3</v>
-      </c>
       <c r="L12" t="n">
-        <v>1.53</v>
+        <v>1.54</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.98</v>
+        <v>2.96</v>
       </c>
       <c r="O12" t="n">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="Q12" t="n">
         <v>2.48</v>
       </c>
       <c r="R12" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="S12" t="n">
         <v>4.9</v>
@@ -2062,10 +2062,10 @@
         <v>2.04</v>
       </c>
       <c r="U12" t="n">
-        <v>1.94</v>
+        <v>1.91</v>
       </c>
       <c r="V12" t="n">
-        <v>1.52</v>
+        <v>1.51</v>
       </c>
       <c r="W12" t="n">
         <v>1.53</v>
@@ -2074,37 +2074,37 @@
         <v>9.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AA12" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AB12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="AF12" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AG12" t="n">
         <v>13</v>
       </c>
       <c r="AH12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AJ12" t="n">
         <v>44</v>
@@ -2119,10 +2119,10 @@
         <v>120</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AO12" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13">
@@ -2164,58 +2164,58 @@
         <v>2.06</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="O13" t="n">
         <v>1.43</v>
       </c>
       <c r="P13" t="n">
-        <v>1.73</v>
+        <v>1.74</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="S13" t="n">
         <v>4.4</v>
       </c>
       <c r="T13" t="n">
-        <v>2</v>
+        <v>2.04</v>
       </c>
       <c r="U13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="V13" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="W13" t="n">
-        <v>1.27</v>
+        <v>1.28</v>
       </c>
       <c r="X13" t="n">
         <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>11.5</v>
+        <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AB13" t="n">
         <v>14</v>
@@ -2251,13 +2251,13 @@
         <v>80</v>
       </c>
       <c r="AM13" t="n">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AN13" t="n">
         <v>85</v>
       </c>
       <c r="AO13" t="n">
-        <v>19.5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
@@ -2287,70 +2287,70 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.05</v>
+        <v>2.98</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="H14" t="n">
-        <v>2.68</v>
+        <v>2.74</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.84</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="L14" t="n">
         <v>1.56</v>
       </c>
       <c r="M14" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N14" t="n">
-        <v>2.82</v>
+        <v>2.94</v>
       </c>
       <c r="O14" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P14" t="n">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R14" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="S14" t="n">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="T14" t="n">
-        <v>2.08</v>
+        <v>2.04</v>
       </c>
       <c r="U14" t="n">
-        <v>1.86</v>
+        <v>1.9</v>
       </c>
       <c r="V14" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="X14" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="Y14" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="Y14" t="n">
-        <v>8.4</v>
-      </c>
       <c r="Z14" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AB14" t="n">
         <v>9.4</v>
@@ -2359,37 +2359,37 @@
         <v>7.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AE14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AG14" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AI14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL14" t="n">
         <v>65</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>70</v>
-      </c>
       <c r="AM14" t="n">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="AN14" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="AO14" t="n">
         <v>40</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="H15" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="I15" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2452,76 +2452,76 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.18</v>
+        <v>2.14</v>
       </c>
       <c r="Q15" t="n">
         <v>1.79</v>
       </c>
       <c r="R15" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.69</v>
+        <v>1.66</v>
       </c>
       <c r="U15" t="n">
-        <v>2.24</v>
+        <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="W15" t="n">
-        <v>2.04</v>
+        <v>1.9</v>
       </c>
       <c r="X15" t="n">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="Z15" t="n">
-        <v>980</v>
+        <v>32</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AB15" t="n">
         <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="AE15" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AF15" t="n">
         <v>15.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK15" t="n">
         <v>21</v>
       </c>
-      <c r="AI15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>26</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>23</v>
-      </c>
       <c r="AL15" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AN15" t="n">
         <v>13.5</v>
@@ -2563,31 +2563,31 @@
         <v>2.32</v>
       </c>
       <c r="H16" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I16" t="n">
         <v>3.55</v>
       </c>
-      <c r="I16" t="n">
-        <v>3.6</v>
-      </c>
       <c r="J16" t="n">
-        <v>3.45</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="M16" t="n">
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q16" t="n">
         <v>2.02</v>
@@ -2596,19 +2596,19 @@
         <v>1.37</v>
       </c>
       <c r="S16" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="U16" t="n">
         <v>2.18</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="W16" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="X16" t="n">
         <v>13.5</v>
@@ -2617,7 +2617,7 @@
         <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
         <v>65</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
         <v>48</v>
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="G17" t="n">
-        <v>1.88</v>
+        <v>1.94</v>
       </c>
       <c r="H17" t="n">
-        <v>5.1</v>
+        <v>4.8</v>
       </c>
       <c r="I17" t="n">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="J17" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="K17" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.46</v>
@@ -2722,82 +2722,82 @@
         <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="T17" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="U17" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="W17" t="n">
-        <v>2.12</v>
+        <v>2.06</v>
       </c>
       <c r="X17" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AD17" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AE17" t="n">
         <v>70</v>
       </c>
       <c r="AF17" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AG17" t="n">
         <v>9.800000000000001</v>
       </c>
       <c r="AH17" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>75</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>21</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AK17" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AO17" t="n">
         <v>80</v>
-      </c>
-      <c r="AJ17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AK17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AL17" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN17" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO17" t="n">
-        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -2830,109 +2830,109 @@
         <v>3.7</v>
       </c>
       <c r="G18" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="H18" t="n">
-        <v>2.24</v>
+        <v>2.22</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="J18" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="K18" t="n">
         <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.82</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="R18" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T18" t="n">
-        <v>1.89</v>
+        <v>1.93</v>
       </c>
       <c r="U18" t="n">
-        <v>2.06</v>
+        <v>1.99</v>
       </c>
       <c r="V18" t="n">
-        <v>1.78</v>
+        <v>1.79</v>
       </c>
       <c r="W18" t="n">
         <v>1.35</v>
       </c>
       <c r="X18" t="n">
+        <v>12</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z18" t="n">
         <v>13</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>14</v>
       </c>
       <c r="AA18" t="n">
         <v>29</v>
       </c>
       <c r="AB18" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AC18" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD18" t="n">
         <v>11</v>
       </c>
       <c r="AE18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF18" t="n">
         <v>25</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>27</v>
       </c>
       <c r="AG18" t="n">
         <v>15.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AI18" t="n">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="AJ18" t="n">
         <v>75</v>
       </c>
       <c r="AK18" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="AL18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN18" t="n">
         <v>60</v>
       </c>
-      <c r="AM18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>50</v>
-      </c>
       <c r="AO18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19">
@@ -2968,7 +2968,7 @@
         <v>3.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="I19" t="n">
         <v>2.14</v>
@@ -2995,19 +2995,19 @@
         <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.85</v>
+        <v>1.86</v>
       </c>
       <c r="R19" t="n">
         <v>1.46</v>
       </c>
       <c r="S19" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T19" t="n">
         <v>1.75</v>
       </c>
       <c r="U19" t="n">
-        <v>2.32</v>
+        <v>2.3</v>
       </c>
       <c r="V19" t="n">
         <v>1.87</v>
@@ -3046,28 +3046,28 @@
         <v>15.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AI19" t="n">
         <v>32</v>
       </c>
       <c r="AJ19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM19" t="n">
         <v>75</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>95</v>
       </c>
       <c r="AN19" t="n">
         <v>38</v>
       </c>
       <c r="AO19" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="20">
@@ -3100,55 +3100,55 @@
         <v>1.14</v>
       </c>
       <c r="G20" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H20" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I20" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J20" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="K20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.13</v>
+        <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.43</v>
+        <v>1.46</v>
       </c>
       <c r="R20" t="n">
-        <v>1.86</v>
+        <v>1.82</v>
       </c>
       <c r="S20" t="n">
-        <v>2.08</v>
+        <v>2.16</v>
       </c>
       <c r="T20" t="n">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="U20" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="V20" t="n">
         <v>1.03</v>
       </c>
       <c r="W20" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="X20" t="n">
         <v>55</v>
@@ -3157,49 +3157,49 @@
         <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>330</v>
+        <v>390</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC20" t="n">
         <v>25</v>
       </c>
       <c r="AD20" t="n">
-        <v>110</v>
+        <v>990</v>
       </c>
       <c r="AE20" t="n">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>60</v>
+        <v>990</v>
       </c>
       <c r="AI20" t="n">
-        <v>360</v>
+        <v>430</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.4</v>
       </c>
       <c r="AK20" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AL20" t="n">
         <v>980</v>
       </c>
       <c r="AM20" t="n">
-        <v>340</v>
+        <v>420</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3256,7 +3256,7 @@
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
@@ -3268,16 +3268,16 @@
         <v>1.71</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="S21" t="n">
-        <v>2.78</v>
+        <v>2.86</v>
       </c>
       <c r="T21" t="n">
-        <v>1.04</v>
+        <v>1.84</v>
       </c>
       <c r="U21" t="n">
-        <v>1.04</v>
+        <v>1.89</v>
       </c>
       <c r="V21" t="n">
         <v>1.14</v>
@@ -3298,10 +3298,10 @@
         <v>1000</v>
       </c>
       <c r="AB21" t="n">
-        <v>990</v>
+        <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>990</v>
+        <v>12.5</v>
       </c>
       <c r="AD21" t="n">
         <v>990</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -667,112 +667,112 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.63</v>
+        <v>11.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.65</v>
+        <v>12.5</v>
       </c>
       <c r="H2" t="n">
-        <v>5.8</v>
+        <v>1.33</v>
       </c>
       <c r="I2" t="n">
-        <v>6</v>
+        <v>1.35</v>
       </c>
       <c r="J2" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="K2" t="n">
-        <v>4.5</v>
+        <v>6.2</v>
       </c>
       <c r="L2" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>2</v>
+        <v>6.6</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.95</v>
+        <v>1.17</v>
       </c>
       <c r="R2" t="n">
-        <v>1.39</v>
+        <v>2.26</v>
       </c>
       <c r="S2" t="n">
-        <v>3.4</v>
+        <v>1.77</v>
       </c>
       <c r="T2" t="n">
-        <v>1.98</v>
+        <v>1.37</v>
       </c>
       <c r="U2" t="n">
-        <v>1.98</v>
+        <v>3.45</v>
       </c>
       <c r="V2" t="n">
-        <v>1.2</v>
+        <v>3.6</v>
       </c>
       <c r="W2" t="n">
-        <v>2.52</v>
+        <v>1.1</v>
       </c>
       <c r="X2" t="n">
-        <v>16.5</v>
+        <v>1000</v>
       </c>
       <c r="Y2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL2" t="n">
         <v>19</v>
       </c>
-      <c r="Z2" t="n">
-        <v>48</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>170</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC2" t="n">
+      <c r="AM2" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>42</v>
+      </c>
+      <c r="AO2" t="n">
         <v>9.199999999999999</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>90</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>36</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>110</v>
       </c>
     </row>
     <row r="3">
@@ -802,49 +802,49 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="n">
         <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="I3" t="n">
         <v>1.2</v>
       </c>
       <c r="J3" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="K3" t="n">
-        <v>10</v>
+        <v>9.6</v>
       </c>
       <c r="L3" t="n">
         <v>1.28</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N3" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="O3" t="n">
         <v>1.18</v>
       </c>
       <c r="P3" t="n">
-        <v>2.52</v>
+        <v>2.44</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.52</v>
+        <v>1.56</v>
       </c>
       <c r="R3" t="n">
         <v>1.64</v>
       </c>
       <c r="S3" t="n">
-        <v>2.34</v>
+        <v>2.4</v>
       </c>
       <c r="T3" t="n">
-        <v>2.46</v>
+        <v>2.54</v>
       </c>
       <c r="U3" t="n">
         <v>1.53</v>
@@ -856,25 +856,25 @@
         <v>1.03</v>
       </c>
       <c r="X3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="Y3" t="n">
         <v>10.5</v>
       </c>
       <c r="Z3" t="n">
-        <v>8.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.800000000000001</v>
+        <v>8.4</v>
       </c>
       <c r="AB3" t="n">
         <v>80</v>
       </c>
       <c r="AC3" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AD3" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>19</v>
@@ -937,88 +937,88 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.84</v>
+        <v>2.9</v>
       </c>
       <c r="G4" t="n">
-        <v>3.3</v>
+        <v>3.35</v>
       </c>
       <c r="H4" t="n">
-        <v>2.54</v>
+        <v>2.48</v>
       </c>
       <c r="I4" t="n">
-        <v>2.94</v>
+        <v>2.86</v>
       </c>
       <c r="J4" t="n">
         <v>3.05</v>
       </c>
       <c r="K4" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="L4" t="n">
-        <v>1.5</v>
+        <v>1.51</v>
       </c>
       <c r="M4" t="n">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
         <v>3</v>
       </c>
       <c r="O4" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P4" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.26</v>
+        <v>2.3</v>
       </c>
       <c r="R4" t="n">
         <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="T4" t="n">
-        <v>1.79</v>
+        <v>1.91</v>
       </c>
       <c r="U4" t="n">
-        <v>1.97</v>
+        <v>1.93</v>
       </c>
       <c r="V4" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="W4" t="n">
-        <v>1.45</v>
+        <v>1.43</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>19</v>
       </c>
       <c r="AA4" t="n">
         <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AE4" t="n">
         <v>1000</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AH4" t="n">
         <v>1000</v>
@@ -1078,73 +1078,73 @@
         <v>7</v>
       </c>
       <c r="H5" t="n">
-        <v>1.58</v>
+        <v>1.55</v>
       </c>
       <c r="I5" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="J5" t="n">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="K5" t="n">
-        <v>4.7</v>
+        <v>4.8</v>
       </c>
       <c r="L5" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="M5" t="n">
         <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>4.1</v>
+        <v>4.3</v>
       </c>
       <c r="O5" t="n">
         <v>1.29</v>
       </c>
       <c r="P5" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="R5" t="n">
-        <v>1.4</v>
+        <v>1.43</v>
       </c>
       <c r="S5" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="T5" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="U5" t="n">
-        <v>1.9</v>
+        <v>1.97</v>
       </c>
       <c r="V5" t="n">
-        <v>2.62</v>
+        <v>2.66</v>
       </c>
       <c r="W5" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="X5" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>8.4</v>
+        <v>9</v>
       </c>
       <c r="Z5" t="n">
         <v>9.4</v>
       </c>
       <c r="AA5" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AC5" t="n">
         <v>10.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AE5" t="n">
         <v>16.5</v>
@@ -1153,31 +1153,31 @@
         <v>55</v>
       </c>
       <c r="AG5" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH5" t="n">
         <v>24</v>
       </c>
       <c r="AI5" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
         <v>200</v>
       </c>
       <c r="AK5" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="AL5" t="n">
         <v>95</v>
       </c>
       <c r="AM5" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN5" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="6">
@@ -1207,22 +1207,22 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="G6" t="n">
         <v>1.45</v>
       </c>
       <c r="H6" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I6" t="n">
-        <v>9.6</v>
+        <v>9.4</v>
       </c>
       <c r="J6" t="n">
         <v>5</v>
       </c>
       <c r="K6" t="n">
-        <v>5.3</v>
+        <v>5.4</v>
       </c>
       <c r="L6" t="n">
         <v>1.35</v>
@@ -1234,28 +1234,28 @@
         <v>4.5</v>
       </c>
       <c r="O6" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P6" t="n">
         <v>2.2</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.75</v>
+        <v>1.76</v>
       </c>
       <c r="R6" t="n">
         <v>1.46</v>
       </c>
       <c r="S6" t="n">
-        <v>2.96</v>
+        <v>3</v>
       </c>
       <c r="T6" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.86</v>
+        <v>1.84</v>
       </c>
       <c r="V6" t="n">
-        <v>1.11</v>
+        <v>1.12</v>
       </c>
       <c r="W6" t="n">
         <v>3.2</v>
@@ -1264,37 +1264,37 @@
         <v>19</v>
       </c>
       <c r="Y6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Z6" t="n">
         <v>80</v>
       </c>
       <c r="AA6" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.6</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AD6" t="n">
-        <v>990</v>
+        <v>32</v>
       </c>
       <c r="AE6" t="n">
-        <v>1000</v>
+        <v>140</v>
       </c>
       <c r="AF6" t="n">
         <v>8.6</v>
       </c>
       <c r="AG6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AI6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AJ6" t="n">
         <v>12</v>
@@ -1312,7 +1312,7 @@
         <v>6.8</v>
       </c>
       <c r="AO6" t="n">
-        <v>1000</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7">
@@ -1342,25 +1342,25 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="G7" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="H7" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="I7" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="J7" t="n">
         <v>3.7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="L7" t="n">
-        <v>1.42</v>
+        <v>1.43</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
@@ -1369,28 +1369,28 @@
         <v>3.85</v>
       </c>
       <c r="O7" t="n">
-        <v>1.31</v>
+        <v>1.33</v>
       </c>
       <c r="P7" t="n">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>1.36</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="T7" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="U7" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V7" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="W7" t="n">
         <v>2.12</v>
@@ -1399,10 +1399,10 @@
         <v>15.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>42</v>
+        <v>980</v>
       </c>
       <c r="AA7" t="n">
         <v>1000</v>
@@ -1414,7 +1414,7 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AD7" t="n">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="AE7" t="n">
         <v>1000</v>
@@ -1423,7 +1423,7 @@
         <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AH7" t="n">
         <v>21</v>
@@ -1438,7 +1438,7 @@
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM7" t="n">
         <v>1000</v>
@@ -1501,28 +1501,28 @@
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="O8" t="n">
         <v>1.33</v>
       </c>
       <c r="P8" t="n">
-        <v>1.95</v>
+        <v>1.96</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R8" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="T8" t="n">
-        <v>2.34</v>
+        <v>2.32</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="V8" t="n">
         <v>1.09</v>
@@ -1531,16 +1531,16 @@
         <v>3.4</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="Z8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="AB8" t="n">
         <v>6.8</v>
@@ -1555,10 +1555,10 @@
         <v>220</v>
       </c>
       <c r="AF8" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AH8" t="n">
         <v>34</v>
@@ -1570,19 +1570,19 @@
         <v>11</v>
       </c>
       <c r="AK8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AL8" t="n">
         <v>48</v>
       </c>
       <c r="AM8" t="n">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="AN8" t="n">
         <v>7.6</v>
       </c>
       <c r="AO8" t="n">
-        <v>370</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9">
@@ -1615,22 +1615,22 @@
         <v>2.32</v>
       </c>
       <c r="G9" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="J9" t="n">
         <v>3.25</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L9" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M9" t="n">
         <v>1.08</v>
@@ -1651,22 +1651,22 @@
         <v>1.3</v>
       </c>
       <c r="S9" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>1.84</v>
       </c>
       <c r="U9" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
         <v>1.38</v>
       </c>
       <c r="W9" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="X9" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Y9" t="n">
         <v>12.5</v>
@@ -1678,7 +1678,7 @@
         <v>65</v>
       </c>
       <c r="AB9" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
         <v>8</v>
@@ -1747,19 +1747,19 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.95</v>
+        <v>3.75</v>
       </c>
       <c r="G10" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="I10" t="n">
-        <v>2.22</v>
+        <v>2.28</v>
       </c>
       <c r="J10" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K10" t="n">
         <v>3.4</v>
@@ -1777,16 +1777,16 @@
         <v>1.38</v>
       </c>
       <c r="P10" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R10" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="S10" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T10" t="n">
         <v>1.86</v>
@@ -1795,13 +1795,13 @@
         <v>2.02</v>
       </c>
       <c r="V10" t="n">
-        <v>1.82</v>
+        <v>1.79</v>
       </c>
       <c r="W10" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Y10" t="n">
         <v>10.5</v>
@@ -1813,10 +1813,10 @@
         <v>34</v>
       </c>
       <c r="AB10" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>9.199999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD10" t="n">
         <v>11</v>
@@ -1825,13 +1825,13 @@
         <v>1000</v>
       </c>
       <c r="AF10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AG10" t="n">
         <v>19.5</v>
       </c>
       <c r="AH10" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="F11" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="G11" t="n">
         <v>7.4</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7.6</v>
       </c>
       <c r="H11" t="n">
         <v>1.61</v>
@@ -1909,10 +1909,10 @@
         <v>3.45</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P11" t="n">
-        <v>1.82</v>
+        <v>1.84</v>
       </c>
       <c r="Q11" t="n">
         <v>2.18</v>
@@ -1921,7 +1921,7 @@
         <v>1.3</v>
       </c>
       <c r="S11" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="T11" t="n">
         <v>2.2</v>
@@ -1939,7 +1939,7 @@
         <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>7</v>
+        <v>6.8</v>
       </c>
       <c r="Z11" t="n">
         <v>8</v>
@@ -1948,7 +1948,7 @@
         <v>14</v>
       </c>
       <c r="AB11" t="n">
-        <v>19.5</v>
+        <v>20</v>
       </c>
       <c r="AC11" t="n">
         <v>9.199999999999999</v>
@@ -1960,7 +1960,7 @@
         <v>18</v>
       </c>
       <c r="AF11" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
         <v>28</v>
@@ -1969,13 +1969,13 @@
         <v>27</v>
       </c>
       <c r="AI11" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="AJ11" t="n">
         <v>250</v>
       </c>
       <c r="AK11" t="n">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="n">
         <v>130</v>
@@ -2026,7 +2026,7 @@
         <v>2.9</v>
       </c>
       <c r="I12" t="n">
-        <v>2.94</v>
+        <v>2.92</v>
       </c>
       <c r="J12" t="n">
         <v>3.2</v>
@@ -2035,19 +2035,19 @@
         <v>3.25</v>
       </c>
       <c r="L12" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="M12" t="n">
         <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>2.96</v>
+        <v>2.94</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
       </c>
       <c r="P12" t="n">
-        <v>1.65</v>
+        <v>1.66</v>
       </c>
       <c r="Q12" t="n">
         <v>2.48</v>
@@ -2059,13 +2059,13 @@
         <v>4.9</v>
       </c>
       <c r="T12" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U12" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V12" t="n">
-        <v>1.51</v>
+        <v>1.52</v>
       </c>
       <c r="W12" t="n">
         <v>1.53</v>
@@ -2074,10 +2074,10 @@
         <v>9.6</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Z12" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>48</v>
@@ -2086,10 +2086,10 @@
         <v>8.800000000000001</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
         <v>36</v>
@@ -2098,7 +2098,7 @@
         <v>16.5</v>
       </c>
       <c r="AG12" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
         <v>21</v>
@@ -2107,7 +2107,7 @@
         <v>60</v>
       </c>
       <c r="AJ12" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="AK12" t="n">
         <v>36</v>
@@ -2116,13 +2116,13 @@
         <v>55</v>
       </c>
       <c r="AM12" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN12" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AO12" t="n">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13">
@@ -2155,7 +2155,7 @@
         <v>4.4</v>
       </c>
       <c r="G13" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="H13" t="n">
         <v>2.02</v>
@@ -2164,61 +2164,61 @@
         <v>2.06</v>
       </c>
       <c r="J13" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K13" t="n">
         <v>3.5</v>
       </c>
-      <c r="K13" t="n">
-        <v>3.55</v>
-      </c>
       <c r="L13" t="n">
-        <v>1.52</v>
+        <v>1.54</v>
       </c>
       <c r="M13" t="n">
         <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="O13" t="n">
-        <v>1.43</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="S13" t="n">
-        <v>4.4</v>
+        <v>4.7</v>
       </c>
       <c r="T13" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="V13" t="n">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="W13" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="X13" t="n">
         <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="Z13" t="n">
         <v>11</v>
       </c>
       <c r="AA13" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AB13" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AC13" t="n">
         <v>7.6</v>
@@ -2227,37 +2227,37 @@
         <v>10.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AF13" t="n">
         <v>32</v>
       </c>
       <c r="AG13" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH13" t="n">
         <v>22</v>
       </c>
       <c r="AI13" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ13" t="n">
         <v>110</v>
       </c>
       <c r="AK13" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AL13" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AM13" t="n">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14">
@@ -2287,67 +2287,67 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.98</v>
+        <v>3.1</v>
       </c>
       <c r="G14" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H14" t="n">
-        <v>2.74</v>
+        <v>2.7</v>
       </c>
       <c r="I14" t="n">
-        <v>2.84</v>
+        <v>2.78</v>
       </c>
       <c r="J14" t="n">
         <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="L14" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="N14" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="R14" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T14" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U14" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="V14" t="n">
         <v>1.56</v>
       </c>
-      <c r="M14" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N14" t="n">
-        <v>2.94</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P14" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
-      <c r="T14" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="U14" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.54</v>
-      </c>
       <c r="W14" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="X14" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.800000000000001</v>
+        <v>8.6</v>
       </c>
       <c r="Z14" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AA14" t="n">
         <v>46</v>
@@ -2365,31 +2365,31 @@
         <v>38</v>
       </c>
       <c r="AF14" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AG14" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI14" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="n">
         <v>55</v>
       </c>
       <c r="AK14" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="AL14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AM14" t="n">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="AN14" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AO14" t="n">
         <v>40</v>
@@ -2422,19 +2422,19 @@
         </is>
       </c>
       <c r="F15" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="G15" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
-        <v>2.1</v>
-      </c>
       <c r="H15" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="I15" t="n">
-        <v>4.2</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.65</v>
+        <v>3.8</v>
       </c>
       <c r="K15" t="n">
         <v>4.1</v>
@@ -2452,55 +2452,55 @@
         <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.79</v>
+        <v>1.76</v>
       </c>
       <c r="R15" t="n">
         <v>1.45</v>
       </c>
       <c r="S15" t="n">
-        <v>3</v>
+        <v>2.96</v>
       </c>
       <c r="T15" t="n">
-        <v>1.66</v>
+        <v>1.67</v>
       </c>
       <c r="U15" t="n">
         <v>2.28</v>
       </c>
       <c r="V15" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="Y15" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="Z15" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
         <v>11</v>
       </c>
       <c r="AC15" t="n">
-        <v>9</v>
+        <v>11.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="AE15" t="n">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF15" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AG15" t="n">
         <v>10.5</v>
@@ -2509,22 +2509,22 @@
         <v>17.5</v>
       </c>
       <c r="AI15" t="n">
-        <v>50</v>
+        <v>980</v>
       </c>
       <c r="AJ15" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK15" t="n">
-        <v>21</v>
+        <v>19.5</v>
       </c>
       <c r="AL15" t="n">
         <v>34</v>
       </c>
       <c r="AM15" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AN15" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AO15" t="n">
         <v>48</v>
@@ -2557,10 +2557,10 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="G16" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="H16" t="n">
         <v>3.5</v>
@@ -2581,25 +2581,25 @@
         <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P16" t="n">
-        <v>1.96</v>
+        <v>1.94</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.02</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="S16" t="n">
         <v>3.65</v>
       </c>
       <c r="T16" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="U16" t="n">
         <v>2.18</v>
@@ -2629,7 +2629,7 @@
         <v>7.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AE16" t="n">
         <v>40</v>
@@ -2641,7 +2641,7 @@
         <v>11</v>
       </c>
       <c r="AH16" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AI16" t="n">
         <v>48</v>
@@ -2662,7 +2662,7 @@
         <v>18.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="G17" t="n">
-        <v>1.94</v>
+        <v>2.02</v>
       </c>
       <c r="H17" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>4.9</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K17" t="n">
         <v>3.55</v>
-      </c>
-      <c r="K17" t="n">
-        <v>3.6</v>
       </c>
       <c r="L17" t="n">
         <v>1.46</v>
@@ -2719,10 +2719,10 @@
         <v>3.6</v>
       </c>
       <c r="O17" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P17" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="Q17" t="n">
         <v>2.1</v>
@@ -2731,73 +2731,73 @@
         <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.8</v>
+        <v>3.85</v>
       </c>
       <c r="T17" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W17" t="n">
-        <v>2.06</v>
+        <v>1.98</v>
       </c>
       <c r="X17" t="n">
         <v>12.5</v>
       </c>
       <c r="Y17" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
         <v>34</v>
       </c>
       <c r="AA17" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.4</v>
+        <v>8.6</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AE17" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI17" t="n">
         <v>70</v>
       </c>
-      <c r="AF17" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG17" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AH17" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AI17" t="n">
-        <v>75</v>
-      </c>
       <c r="AJ17" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK17" t="n">
         <v>21</v>
       </c>
-      <c r="AK17" t="n">
-        <v>20</v>
-      </c>
       <c r="AL17" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2833,55 +2833,55 @@
         <v>3.85</v>
       </c>
       <c r="H18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="I18" t="n">
-        <v>2.26</v>
+        <v>2.28</v>
       </c>
       <c r="J18" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K18" t="n">
         <v>3.5</v>
       </c>
       <c r="L18" t="n">
-        <v>1.48</v>
+        <v>1.49</v>
       </c>
       <c r="M18" t="n">
         <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
         <v>1.41</v>
       </c>
       <c r="P18" t="n">
-        <v>1.76</v>
+        <v>1.75</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.22</v>
+        <v>2.24</v>
       </c>
       <c r="R18" t="n">
         <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
         <v>1.99</v>
       </c>
       <c r="V18" t="n">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="W18" t="n">
         <v>1.35</v>
       </c>
       <c r="X18" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
         <v>8.6</v>
@@ -2893,7 +2893,7 @@
         <v>29</v>
       </c>
       <c r="AB18" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AC18" t="n">
         <v>7.4</v>
@@ -2968,10 +2968,10 @@
         <v>3.9</v>
       </c>
       <c r="H19" t="n">
-        <v>2.12</v>
+        <v>2.14</v>
       </c>
       <c r="I19" t="n">
-        <v>2.14</v>
+        <v>2.16</v>
       </c>
       <c r="J19" t="n">
         <v>3.65</v>
@@ -2980,7 +2980,7 @@
         <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
         <v>1.06</v>
@@ -2989,16 +2989,16 @@
         <v>4.4</v>
       </c>
       <c r="O19" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="P19" t="n">
         <v>2.14</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R19" t="n">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="S19" t="n">
         <v>3.1</v>
@@ -3037,7 +3037,7 @@
         <v>10.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
         <v>27</v>
@@ -3064,7 +3064,7 @@
         <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="AO19" t="n">
         <v>13.5</v>
@@ -3103,16 +3103,16 @@
         <v>1.15</v>
       </c>
       <c r="H20" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="I20" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="J20" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="K20" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="L20" t="n">
         <v>1.24</v>
@@ -3121,28 +3121,28 @@
         <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P20" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="R20" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="S20" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="T20" t="n">
-        <v>2.44</v>
+        <v>2.52</v>
       </c>
       <c r="U20" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="V20" t="n">
         <v>1.03</v>
@@ -3157,13 +3157,13 @@
         <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>390</v>
+        <v>370</v>
       </c>
       <c r="AA20" t="n">
         <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
         <v>25</v>
@@ -3175,31 +3175,31 @@
         <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>8.4</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AG20" t="n">
         <v>13.5</v>
       </c>
       <c r="AH20" t="n">
-        <v>990</v>
+        <v>70</v>
       </c>
       <c r="AI20" t="n">
-        <v>430</v>
+        <v>390</v>
       </c>
       <c r="AJ20" t="n">
         <v>8.4</v>
       </c>
       <c r="AK20" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>980</v>
+        <v>60</v>
       </c>
       <c r="AM20" t="n">
-        <v>420</v>
+        <v>390</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="AO20" t="n">
         <v>1000</v>
@@ -3232,31 +3232,31 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="G21" t="n">
-        <v>1.63</v>
+        <v>1.68</v>
       </c>
       <c r="H21" t="n">
-        <v>6.4</v>
+        <v>6</v>
       </c>
       <c r="I21" t="n">
-        <v>8.199999999999999</v>
+        <v>7.4</v>
       </c>
       <c r="J21" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="L21" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="M21" t="n">
         <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="O21" t="n">
         <v>1.26</v>
@@ -3265,25 +3265,25 @@
         <v>2.04</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.71</v>
+        <v>1.74</v>
       </c>
       <c r="R21" t="n">
-        <v>1.42</v>
+        <v>1.41</v>
       </c>
       <c r="S21" t="n">
-        <v>2.86</v>
+        <v>2.88</v>
       </c>
       <c r="T21" t="n">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="U21" t="n">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="V21" t="n">
-        <v>1.14</v>
+        <v>1.15</v>
       </c>
       <c r="W21" t="n">
-        <v>2.58</v>
+        <v>2.46</v>
       </c>
       <c r="X21" t="n">
         <v>990</v>
@@ -3301,10 +3301,10 @@
         <v>11</v>
       </c>
       <c r="AC21" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AD21" t="n">
-        <v>990</v>
+        <v>28</v>
       </c>
       <c r="AE21" t="n">
         <v>1000</v>
@@ -3313,7 +3313,7 @@
         <v>1000</v>
       </c>
       <c r="AG21" t="n">
-        <v>990</v>
+        <v>12</v>
       </c>
       <c r="AH21" t="n">
         <v>990</v>
@@ -3334,7 +3334,7 @@
         <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>8.4</v>
+        <v>1000</v>
       </c>
       <c r="AO21" t="n">
         <v>1000</v>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO21"/>
+  <dimension ref="A1:AO26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Australian A-League Men</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>05:00:00</t>
+          <t>07:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Melbourne City</t>
+          <t>Erbaaspor</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Perth Glory</t>
+          <t>Beyoglu Yeni Carsi</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>11.5</v>
+        <v>1.09</v>
       </c>
       <c r="G2" t="n">
-        <v>12.5</v>
+        <v>1000</v>
       </c>
       <c r="H2" t="n">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="I2" t="n">
-        <v>1.35</v>
+        <v>1000</v>
       </c>
       <c r="J2" t="n">
-        <v>5.9</v>
+        <v>5.1</v>
       </c>
       <c r="K2" t="n">
-        <v>6.2</v>
+        <v>1000</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="P2" t="n">
-        <v>6.6</v>
+        <v>1.02</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.17</v>
+        <v>1.01</v>
       </c>
       <c r="R2" t="n">
-        <v>2.26</v>
+        <v>1.03</v>
       </c>
       <c r="S2" t="n">
-        <v>1.77</v>
+        <v>1.01</v>
       </c>
       <c r="T2" t="n">
-        <v>1.37</v>
+        <v>1.02</v>
       </c>
       <c r="U2" t="n">
-        <v>3.45</v>
+        <v>1.01</v>
       </c>
       <c r="V2" t="n">
-        <v>3.6</v>
+        <v>1.03</v>
       </c>
       <c r="W2" t="n">
-        <v>1.1</v>
+        <v>1.01</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -727,10 +727,10 @@
         <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.2</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
         <v>1000</v>
@@ -739,10 +739,10 @@
         <v>1000</v>
       </c>
       <c r="AD2" t="n">
-        <v>5.2</v>
+        <v>1000</v>
       </c>
       <c r="AE2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
@@ -751,10 +751,10 @@
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>8</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>14.5</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,16 +763,16 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>19</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AN2" t="n">
-        <v>42</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.199999999999999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -802,94 +802,94 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>23</v>
+        <v>18.5</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>690</v>
       </c>
       <c r="H3" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="J3" t="n">
         <v>7.8</v>
       </c>
       <c r="K3" t="n">
-        <v>9.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="L3" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>5.2</v>
       </c>
       <c r="O3" t="n">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="P3" t="n">
-        <v>2.44</v>
+        <v>1.87</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.56</v>
+        <v>2.06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.64</v>
+        <v>1.25</v>
       </c>
       <c r="S3" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="T3" t="n">
-        <v>2.54</v>
+        <v>2.06</v>
       </c>
       <c r="U3" t="n">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="V3" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="W3" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="X3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.5</v>
+        <v>5.8</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.6</v>
+        <v>540</v>
       </c>
       <c r="AA3" t="n">
-        <v>8.4</v>
+        <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>22</v>
+        <v>540</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>110</v>
+        <v>790</v>
       </c>
       <c r="AH3" t="n">
-        <v>65</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="AJ3" t="n">
         <v>1000</v>
@@ -907,7 +907,7 @@
         <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>4.2</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4">
@@ -937,94 +937,94 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.9</v>
+        <v>9.4</v>
       </c>
       <c r="G4" t="n">
-        <v>3.35</v>
+        <v>10.5</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48</v>
+        <v>1.56</v>
       </c>
       <c r="I4" t="n">
-        <v>2.86</v>
+        <v>1.59</v>
       </c>
       <c r="J4" t="n">
-        <v>3.05</v>
+        <v>3.65</v>
       </c>
       <c r="K4" t="n">
-        <v>3.6</v>
+        <v>3.95</v>
       </c>
       <c r="L4" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="S4" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V4" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.1</v>
       </c>
-      <c r="N4" t="n">
-        <v>3</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.43</v>
-      </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="Y4" t="n">
-        <v>11</v>
+        <v>4.6</v>
       </c>
       <c r="Z4" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AC4" t="n">
-        <v>8</v>
+        <v>5.7</v>
       </c>
       <c r="AD4" t="n">
-        <v>15.5</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AE4" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AF4" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AG4" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AI4" t="n">
-        <v>1000</v>
+        <v>85</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
@@ -1033,7 +1033,7 @@
         <v>1000</v>
       </c>
       <c r="AL4" t="n">
-        <v>1000</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1072,112 +1072,112 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6.2</v>
+        <v>6</v>
       </c>
       <c r="G5" t="n">
-        <v>7</v>
+        <v>6.4</v>
       </c>
       <c r="H5" t="n">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="I5" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="J5" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="K5" t="n">
-        <v>4.8</v>
+        <v>4.2</v>
       </c>
       <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S5" t="n">
         <v>1.39</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N5" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="S5" t="n">
-        <v>3.1</v>
-      </c>
       <c r="T5" t="n">
-        <v>1.96</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.66</v>
+        <v>2.42</v>
       </c>
       <c r="W5" t="n">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="X5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG5" t="n">
         <v>18.5</v>
       </c>
-      <c r="Y5" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>24</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>25</v>
-      </c>
       <c r="AH5" t="n">
-        <v>24</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AI5" t="n">
-        <v>34</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AJ5" t="n">
-        <v>200</v>
+        <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>200</v>
+        <v>65</v>
       </c>
       <c r="AL5" t="n">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="AM5" t="n">
-        <v>1000</v>
+        <v>32</v>
       </c>
       <c r="AN5" t="n">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.4</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="6">
@@ -1207,112 +1207,112 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.44</v>
+        <v>1.84</v>
       </c>
       <c r="G6" t="n">
-        <v>1.45</v>
+        <v>1.89</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>5.1</v>
       </c>
       <c r="I6" t="n">
-        <v>9.4</v>
+        <v>5.4</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>3.65</v>
       </c>
       <c r="K6" t="n">
-        <v>5.4</v>
+        <v>3.75</v>
       </c>
       <c r="L6" t="n">
-        <v>1.35</v>
+        <v>1.58</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="N6" t="n">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="O6" t="n">
-        <v>1.26</v>
+        <v>1.41</v>
       </c>
       <c r="P6" t="n">
-        <v>2.2</v>
+        <v>1.76</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.76</v>
+        <v>2.28</v>
       </c>
       <c r="R6" t="n">
-        <v>1.46</v>
+        <v>1.28</v>
       </c>
       <c r="S6" t="n">
-        <v>3</v>
+        <v>4.4</v>
       </c>
       <c r="T6" t="n">
         <v>2.02</v>
       </c>
       <c r="U6" t="n">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="V6" t="n">
-        <v>1.12</v>
+        <v>1.23</v>
       </c>
       <c r="W6" t="n">
-        <v>3.2</v>
+        <v>2.12</v>
       </c>
       <c r="X6" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="Y6" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="Z6" t="n">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="AA6" t="n">
-        <v>310</v>
+        <v>160</v>
       </c>
       <c r="AB6" t="n">
-        <v>9.199999999999999</v>
+        <v>7.6</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AE6" t="n">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="AF6" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AG6" t="n">
         <v>11</v>
       </c>
       <c r="AH6" t="n">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="AI6" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="n">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="AK6" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AL6" t="n">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.8</v>
+        <v>17</v>
       </c>
       <c r="AO6" t="n">
-        <v>170</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
@@ -1342,43 +1342,43 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.85</v>
+        <v>1.94</v>
       </c>
       <c r="G7" t="n">
-        <v>1.88</v>
+        <v>1.96</v>
       </c>
       <c r="H7" t="n">
-        <v>4.8</v>
+        <v>4.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.1</v>
+        <v>4.7</v>
       </c>
       <c r="J7" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="K7" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="L7" t="n">
-        <v>1.43</v>
+        <v>1.41</v>
       </c>
       <c r="M7" t="n">
         <v>1.07</v>
       </c>
       <c r="N7" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P7" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>1.99</v>
       </c>
       <c r="R7" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="S7" t="n">
         <v>3.55</v>
@@ -1387,67 +1387,67 @@
         <v>1.85</v>
       </c>
       <c r="U7" t="n">
-        <v>2.06</v>
+        <v>2.12</v>
       </c>
       <c r="V7" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="W7" t="n">
-        <v>2.12</v>
+        <v>2.04</v>
       </c>
       <c r="X7" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y7" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>980</v>
+        <v>34</v>
       </c>
       <c r="AA7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AB7" t="n">
-        <v>9</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AD7" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AE7" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF7" t="n">
         <v>11.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>9.800000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
       <c r="AJ7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AK7" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AL7" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AM7" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>1000</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1477,10 @@
         </is>
       </c>
       <c r="F8" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="G8" t="n">
         <v>1.4</v>
-      </c>
-      <c r="G8" t="n">
-        <v>1.41</v>
       </c>
       <c r="H8" t="n">
         <v>11</v>
@@ -1489,37 +1489,37 @@
         <v>11.5</v>
       </c>
       <c r="J8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="K8" t="n">
-        <v>5.1</v>
+        <v>5.2</v>
       </c>
       <c r="L8" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="M8" t="n">
         <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="O8" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R8" t="n">
         <v>1.37</v>
       </c>
       <c r="S8" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="T8" t="n">
-        <v>2.32</v>
+        <v>2.34</v>
       </c>
       <c r="U8" t="n">
         <v>1.72</v>
@@ -1528,31 +1528,31 @@
         <v>1.09</v>
       </c>
       <c r="W8" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="Z8" t="n">
         <v>110</v>
       </c>
       <c r="AA8" t="n">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="AB8" t="n">
         <v>6.8</v>
       </c>
       <c r="AC8" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="AE8" t="n">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
@@ -1561,34 +1561,34 @@
         <v>10.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AI8" t="n">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="AJ8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AK8" t="n">
         <v>16</v>
       </c>
       <c r="AL8" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AM8" t="n">
-        <v>250</v>
+        <v>220</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AO8" t="n">
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>Erzincanspor</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Elazigspor</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.32</v>
+        <v>7.6</v>
       </c>
       <c r="G9" t="n">
-        <v>2.46</v>
+        <v>11</v>
       </c>
       <c r="H9" t="n">
-        <v>3.3</v>
+        <v>1.38</v>
       </c>
       <c r="I9" t="n">
-        <v>3.65</v>
+        <v>1.45</v>
       </c>
       <c r="J9" t="n">
-        <v>3.25</v>
+        <v>4.6</v>
       </c>
       <c r="K9" t="n">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="L9" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N9" t="n">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="O9" t="n">
-        <v>1.37</v>
+        <v>1.22</v>
       </c>
       <c r="P9" t="n">
-        <v>1.81</v>
+        <v>2.34</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.12</v>
+        <v>1.62</v>
       </c>
       <c r="R9" t="n">
-        <v>1.3</v>
+        <v>1.53</v>
       </c>
       <c r="S9" t="n">
-        <v>3.95</v>
+        <v>2.58</v>
       </c>
       <c r="T9" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="V9" t="n">
-        <v>1.38</v>
+        <v>3.1</v>
       </c>
       <c r="W9" t="n">
-        <v>1.69</v>
+        <v>1.1</v>
       </c>
       <c r="X9" t="n">
-        <v>12.5</v>
+        <v>26</v>
       </c>
       <c r="Y9" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AB9" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AD9" t="n">
-        <v>15</v>
+        <v>11.5</v>
       </c>
       <c r="AE9" t="n">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>15.5</v>
+        <v>170</v>
       </c>
       <c r="AG9" t="n">
-        <v>12</v>
+        <v>980</v>
       </c>
       <c r="AH9" t="n">
-        <v>20</v>
+        <v>980</v>
       </c>
       <c r="AI9" t="n">
-        <v>100</v>
+        <v>980</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AK9" t="n">
-        <v>29</v>
+        <v>320</v>
       </c>
       <c r="AL9" t="n">
-        <v>44</v>
+        <v>270</v>
       </c>
       <c r="AM9" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AN9" t="n">
-        <v>26</v>
+        <v>1000</v>
       </c>
       <c r="AO9" t="n">
-        <v>48</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,93 +1733,93 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Karacabey Belediyespor AS</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I10" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="J10" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K10" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N10" t="n">
         <v>4</v>
       </c>
-      <c r="H10" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J10" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="K10" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N10" t="n">
-        <v>3.35</v>
-      </c>
       <c r="O10" t="n">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="P10" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R10" t="n">
-        <v>1.29</v>
+        <v>1.4</v>
       </c>
       <c r="S10" t="n">
-        <v>4.1</v>
+        <v>3.05</v>
       </c>
       <c r="T10" t="n">
-        <v>1.86</v>
+        <v>1.04</v>
       </c>
       <c r="U10" t="n">
-        <v>2.02</v>
+        <v>1.04</v>
       </c>
       <c r="V10" t="n">
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
       <c r="W10" t="n">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="X10" t="n">
-        <v>14</v>
+        <v>1000</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="Z10" t="n">
         <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
         <v>1000</v>
       </c>
       <c r="AC10" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AD10" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,10 +1828,10 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AH10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
         <v>1000</v>
@@ -1852,13 +1852,13 @@
         <v>1000</v>
       </c>
       <c r="AO10" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>7.2</v>
+        <v>2.12</v>
       </c>
       <c r="G11" t="n">
-        <v>7.4</v>
+        <v>2.26</v>
       </c>
       <c r="H11" t="n">
-        <v>1.61</v>
+        <v>3.8</v>
       </c>
       <c r="I11" t="n">
-        <v>1.62</v>
+        <v>4.2</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="K11" t="n">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="L11" t="n">
-        <v>1.47</v>
+        <v>1.52</v>
       </c>
       <c r="M11" t="n">
         <v>1.09</v>
       </c>
       <c r="N11" t="n">
-        <v>3.45</v>
+        <v>2.98</v>
       </c>
       <c r="O11" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>1.84</v>
+        <v>1.68</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="R11" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="S11" t="n">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="T11" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="U11" t="n">
-        <v>1.78</v>
+        <v>1.89</v>
       </c>
       <c r="V11" t="n">
-        <v>2.6</v>
+        <v>1.31</v>
       </c>
       <c r="W11" t="n">
-        <v>1.15</v>
+        <v>1.8</v>
       </c>
       <c r="X11" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y11" t="n">
-        <v>6.8</v>
+        <v>13.5</v>
       </c>
       <c r="Z11" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AC11" t="n">
         <v>8</v>
       </c>
-      <c r="AA11" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>9.199999999999999</v>
-      </c>
       <c r="AD11" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>18</v>
+        <v>1000</v>
       </c>
       <c r="AF11" t="n">
-        <v>55</v>
+        <v>13.5</v>
       </c>
       <c r="AG11" t="n">
-        <v>28</v>
+        <v>11.5</v>
       </c>
       <c r="AH11" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AJ11" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AK11" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AL11" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
       <c r="AM11" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN11" t="n">
-        <v>200</v>
+        <v>26</v>
       </c>
       <c r="AO11" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Muglaspor</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Kastamonuspor</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>2.86</v>
+        <v>1.58</v>
       </c>
       <c r="G12" t="n">
-        <v>2.88</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>2.9</v>
+        <v>6.4</v>
       </c>
       <c r="I12" t="n">
-        <v>2.92</v>
+        <v>7.8</v>
       </c>
       <c r="J12" t="n">
-        <v>3.2</v>
+        <v>3.95</v>
       </c>
       <c r="K12" t="n">
-        <v>3.25</v>
+        <v>4.8</v>
       </c>
       <c r="L12" t="n">
-        <v>1.55</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>2.94</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="n">
-        <v>1.5</v>
+        <v>1.32</v>
       </c>
       <c r="P12" t="n">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="Q12" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S12" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="U12" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="V12" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="W12" t="n">
         <v>2.48</v>
       </c>
-      <c r="R12" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="S12" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="U12" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.53</v>
-      </c>
       <c r="X12" t="n">
+        <v>16</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>60</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>260</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>28</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>130</v>
+      </c>
+      <c r="AF12" t="n">
         <v>9.6</v>
       </c>
-      <c r="Y12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>48</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AG12" t="n">
-        <v>13.5</v>
+        <v>10.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AI12" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="AJ12" t="n">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="AK12" t="n">
-        <v>36</v>
+        <v>18.5</v>
       </c>
       <c r="AL12" t="n">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="AM12" t="n">
-        <v>110</v>
+        <v>180</v>
       </c>
       <c r="AN12" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AO12" t="n">
-        <v>40</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>4.4</v>
+        <v>1.39</v>
       </c>
       <c r="G13" t="n">
-        <v>4.7</v>
+        <v>1.44</v>
       </c>
       <c r="H13" t="n">
-        <v>2.02</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="I13" t="n">
-        <v>2.06</v>
+        <v>13.5</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="K13" t="n">
-        <v>3.5</v>
+        <v>5.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="M13" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>3.1</v>
+        <v>3.9</v>
       </c>
       <c r="O13" t="n">
-        <v>1.45</v>
+        <v>1.28</v>
       </c>
       <c r="P13" t="n">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.36</v>
+        <v>1.86</v>
       </c>
       <c r="R13" t="n">
-        <v>1.26</v>
+        <v>1.39</v>
       </c>
       <c r="S13" t="n">
-        <v>4.7</v>
+        <v>3.15</v>
       </c>
       <c r="T13" t="n">
         <v>2.06</v>
       </c>
       <c r="U13" t="n">
-        <v>1.88</v>
+        <v>1.74</v>
       </c>
       <c r="V13" t="n">
-        <v>1.94</v>
+        <v>1.08</v>
       </c>
       <c r="W13" t="n">
-        <v>1.27</v>
+        <v>3.25</v>
       </c>
       <c r="X13" t="n">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.6</v>
+        <v>980</v>
       </c>
       <c r="Z13" t="n">
-        <v>11</v>
+        <v>130</v>
       </c>
       <c r="AA13" t="n">
-        <v>24</v>
+        <v>1000</v>
       </c>
       <c r="AB13" t="n">
-        <v>13.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>7.6</v>
+        <v>13</v>
       </c>
       <c r="AD13" t="n">
-        <v>10.5</v>
+        <v>980</v>
       </c>
       <c r="AE13" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AF13" t="n">
-        <v>32</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AG13" t="n">
-        <v>18.5</v>
+        <v>11.5</v>
       </c>
       <c r="AH13" t="n">
-        <v>22</v>
+        <v>980</v>
       </c>
       <c r="AI13" t="n">
-        <v>48</v>
+        <v>630</v>
       </c>
       <c r="AJ13" t="n">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="AL13" t="n">
-        <v>85</v>
+        <v>980</v>
       </c>
       <c r="AM13" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AN13" t="n">
-        <v>95</v>
+        <v>7.4</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Erzurum BB</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>3.1</v>
+        <v>2.3</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>2.44</v>
       </c>
       <c r="H14" t="n">
-        <v>2.7</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
-        <v>2.78</v>
+        <v>3.65</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="K14" t="n">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="L14" t="n">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>2.88</v>
+        <v>3.3</v>
       </c>
       <c r="O14" t="n">
-        <v>1.51</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.52</v>
+        <v>2.18</v>
       </c>
       <c r="R14" t="n">
-        <v>1.22</v>
+        <v>1.28</v>
       </c>
       <c r="S14" t="n">
-        <v>5.1</v>
+        <v>4.1</v>
       </c>
       <c r="T14" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="U14" t="n">
-        <v>1.89</v>
+        <v>1.98</v>
       </c>
       <c r="V14" t="n">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="W14" t="n">
-        <v>1.45</v>
+        <v>1.69</v>
       </c>
       <c r="X14" t="n">
-        <v>9.199999999999999</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>8.6</v>
+        <v>12</v>
       </c>
       <c r="Z14" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>9</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>48</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>29</v>
+      </c>
+      <c r="AL14" t="n">
         <v>46</v>
       </c>
-      <c r="AB14" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>13</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>14</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>44</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>70</v>
-      </c>
       <c r="AM14" t="n">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="AN14" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="AO14" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.94</v>
+        <v>2.86</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>2.88</v>
       </c>
       <c r="H15" t="n">
-        <v>3.95</v>
+        <v>2.9</v>
       </c>
       <c r="I15" t="n">
-        <v>4.4</v>
+        <v>2.94</v>
       </c>
       <c r="J15" t="n">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="K15" t="n">
-        <v>4.1</v>
+        <v>3.25</v>
       </c>
       <c r="L15" t="n">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="M15" t="n">
-        <v>1.05</v>
+        <v>1.11</v>
       </c>
       <c r="N15" t="n">
-        <v>4.4</v>
+        <v>2.98</v>
       </c>
       <c r="O15" t="n">
-        <v>1.26</v>
+        <v>1.49</v>
       </c>
       <c r="P15" t="n">
-        <v>2.16</v>
+        <v>1.66</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.76</v>
+        <v>2.48</v>
       </c>
       <c r="R15" t="n">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="S15" t="n">
-        <v>2.96</v>
+        <v>4.9</v>
       </c>
       <c r="T15" t="n">
-        <v>1.67</v>
+        <v>2.04</v>
       </c>
       <c r="U15" t="n">
-        <v>2.28</v>
+        <v>1.93</v>
       </c>
       <c r="V15" t="n">
-        <v>1.3</v>
+        <v>1.51</v>
       </c>
       <c r="W15" t="n">
-        <v>2</v>
+        <v>1.53</v>
       </c>
       <c r="X15" t="n">
-        <v>17</v>
+        <v>9.6</v>
       </c>
       <c r="Y15" t="n">
-        <v>20</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z15" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="AA15" t="n">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="AB15" t="n">
-        <v>11</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>11.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD15" t="n">
-        <v>17.5</v>
+        <v>13</v>
       </c>
       <c r="AE15" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="AF15" t="n">
-        <v>15</v>
+        <v>16.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH15" t="n">
-        <v>17.5</v>
+        <v>21</v>
       </c>
       <c r="AI15" t="n">
-        <v>980</v>
+        <v>55</v>
       </c>
       <c r="AJ15" t="n">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="AK15" t="n">
-        <v>19.5</v>
+        <v>36</v>
       </c>
       <c r="AL15" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AM15" t="n">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="AO15" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>2.32</v>
+        <v>7.2</v>
       </c>
       <c r="G16" t="n">
-        <v>2.34</v>
+        <v>7.4</v>
       </c>
       <c r="H16" t="n">
-        <v>3.5</v>
+        <v>1.61</v>
       </c>
       <c r="I16" t="n">
-        <v>3.55</v>
+        <v>1.62</v>
       </c>
       <c r="J16" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K16" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="L16" t="n">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="M16" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N16" t="n">
-        <v>3.8</v>
+        <v>3.45</v>
       </c>
       <c r="O16" t="n">
-        <v>1.34</v>
+        <v>1.39</v>
       </c>
       <c r="P16" t="n">
-        <v>1.94</v>
+        <v>1.82</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="R16" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="S16" t="n">
-        <v>3.65</v>
+        <v>4.2</v>
       </c>
       <c r="T16" t="n">
-        <v>1.82</v>
+        <v>2.2</v>
       </c>
       <c r="U16" t="n">
-        <v>2.18</v>
+        <v>1.79</v>
       </c>
       <c r="V16" t="n">
-        <v>1.39</v>
+        <v>2.62</v>
       </c>
       <c r="W16" t="n">
-        <v>1.75</v>
+        <v>1.15</v>
       </c>
       <c r="X16" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="Y16" t="n">
-        <v>13</v>
+        <v>6.8</v>
       </c>
       <c r="Z16" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="AA16" t="n">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="AB16" t="n">
-        <v>9.800000000000001</v>
+        <v>20</v>
       </c>
       <c r="AC16" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AD16" t="n">
-        <v>14.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE16" t="n">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="AF16" t="n">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AG16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>240</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>200</v>
+      </c>
+      <c r="AO16" t="n">
         <v>11</v>
-      </c>
-      <c r="AH16" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AI16" t="n">
-        <v>48</v>
-      </c>
-      <c r="AJ16" t="n">
-        <v>29</v>
-      </c>
-      <c r="AK16" t="n">
-        <v>24</v>
-      </c>
-      <c r="AL16" t="n">
-        <v>38</v>
-      </c>
-      <c r="AM16" t="n">
-        <v>80</v>
-      </c>
-      <c r="AN16" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AO16" t="n">
-        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="G17" t="n">
-        <v>2.02</v>
+        <v>3.95</v>
       </c>
       <c r="H17" t="n">
-        <v>4.5</v>
+        <v>2.2</v>
       </c>
       <c r="I17" t="n">
-        <v>4.6</v>
+        <v>2.28</v>
       </c>
       <c r="J17" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="K17" t="n">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="L17" t="n">
-        <v>1.46</v>
+        <v>1.47</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
       <c r="O17" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="P17" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.1</v>
+        <v>2.16</v>
       </c>
       <c r="R17" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="S17" t="n">
-        <v>3.85</v>
+        <v>3.95</v>
       </c>
       <c r="T17" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="U17" t="n">
-        <v>2.06</v>
+        <v>2.04</v>
       </c>
       <c r="V17" t="n">
-        <v>1.27</v>
+        <v>1.79</v>
       </c>
       <c r="W17" t="n">
-        <v>1.98</v>
+        <v>1.34</v>
       </c>
       <c r="X17" t="n">
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="Y17" t="n">
-        <v>14.5</v>
+        <v>10</v>
       </c>
       <c r="Z17" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA17" t="n">
-        <v>100</v>
+        <v>1000</v>
       </c>
       <c r="AB17" t="n">
-        <v>8.6</v>
+        <v>1000</v>
       </c>
       <c r="AC17" t="n">
-        <v>7.6</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD17" t="n">
-        <v>17.5</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF17" t="n">
-        <v>12</v>
+        <v>1000</v>
       </c>
       <c r="AG17" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AH17" t="n">
-        <v>19</v>
+        <v>990</v>
       </c>
       <c r="AI17" t="n">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="AJ17" t="n">
-        <v>23</v>
+        <v>1000</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>1000</v>
       </c>
       <c r="AL17" t="n">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AM17" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN17" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="AO17" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>3.7</v>
+        <v>4.4</v>
       </c>
       <c r="G18" t="n">
-        <v>3.85</v>
+        <v>4.6</v>
       </c>
       <c r="H18" t="n">
-        <v>2.24</v>
+        <v>2.02</v>
       </c>
       <c r="I18" t="n">
-        <v>2.28</v>
+        <v>2.06</v>
       </c>
       <c r="J18" t="n">
         <v>3.4</v>
       </c>
       <c r="K18" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="L18" t="n">
-        <v>1.49</v>
+        <v>1.54</v>
       </c>
       <c r="M18" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N18" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="O18" t="n">
-        <v>1.41</v>
+        <v>1.48</v>
       </c>
       <c r="P18" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.24</v>
+        <v>2.44</v>
       </c>
       <c r="R18" t="n">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S18" t="n">
-        <v>4.3</v>
+        <v>4.8</v>
       </c>
       <c r="T18" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U18" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V18" t="n">
         <v>1.94</v>
       </c>
-      <c r="U18" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1.78</v>
-      </c>
       <c r="W18" t="n">
-        <v>1.35</v>
+        <v>1.27</v>
       </c>
       <c r="X18" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.6</v>
+        <v>7.4</v>
       </c>
       <c r="Z18" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>24</v>
+      </c>
+      <c r="AB18" t="n">
         <v>13</v>
       </c>
-      <c r="AA18" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>12</v>
-      </c>
       <c r="AC18" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
         <v>11</v>
       </c>
       <c r="AE18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AF18" t="n">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="AG18" t="n">
-        <v>15.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH18" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AI18" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="AJ18" t="n">
+        <v>120</v>
+      </c>
+      <c r="AK18" t="n">
         <v>75</v>
       </c>
-      <c r="AK18" t="n">
-        <v>50</v>
-      </c>
       <c r="AL18" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AM18" t="n">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="AN18" t="n">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="AO18" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.85</v>
+        <v>3.2</v>
       </c>
       <c r="G19" t="n">
-        <v>3.9</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2.14</v>
+        <v>2.64</v>
       </c>
       <c r="I19" t="n">
-        <v>2.16</v>
+        <v>2.66</v>
       </c>
       <c r="J19" t="n">
-        <v>3.65</v>
+        <v>3.1</v>
       </c>
       <c r="K19" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="L19" t="n">
-        <v>1.38</v>
+        <v>1.59</v>
       </c>
       <c r="M19" t="n">
-        <v>1.06</v>
+        <v>1.12</v>
       </c>
       <c r="N19" t="n">
-        <v>4.4</v>
+        <v>2.82</v>
       </c>
       <c r="O19" t="n">
-        <v>1.27</v>
+        <v>1.53</v>
       </c>
       <c r="P19" t="n">
-        <v>2.14</v>
+        <v>1.59</v>
       </c>
       <c r="Q19" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="R19" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="T19" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="U19" t="n">
         <v>1.85</v>
       </c>
-      <c r="R19" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S19" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="T19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="U19" t="n">
-        <v>2.3</v>
-      </c>
       <c r="V19" t="n">
-        <v>1.87</v>
+        <v>1.6</v>
       </c>
       <c r="W19" t="n">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="X19" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="Y19" t="n">
-        <v>11</v>
+        <v>8.4</v>
       </c>
       <c r="Z19" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AA19" t="n">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="AB19" t="n">
-        <v>16</v>
+        <v>9.6</v>
       </c>
       <c r="AC19" t="n">
-        <v>8.199999999999999</v>
+        <v>7</v>
       </c>
       <c r="AD19" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="AE19" t="n">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="AF19" t="n">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AI19" t="n">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="AJ19" t="n">
+        <v>60</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>48</v>
+      </c>
+      <c r="AL19" t="n">
         <v>70</v>
       </c>
-      <c r="AK19" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>46</v>
-      </c>
       <c r="AM19" t="n">
-        <v>75</v>
+        <v>160</v>
       </c>
       <c r="AN19" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AO19" t="n">
-        <v>13.5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,260 +3083,935 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>17:30:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Sporting Lisbon</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Rio Ave</t>
+          <t>76 Igdir Belediyespor</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.14</v>
+        <v>1.92</v>
       </c>
       <c r="G20" t="n">
-        <v>1.15</v>
+        <v>1.99</v>
       </c>
       <c r="H20" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="I20" t="n">
-        <v>27</v>
+        <v>4.4</v>
       </c>
       <c r="J20" t="n">
-        <v>11.5</v>
+        <v>3.8</v>
       </c>
       <c r="K20" t="n">
-        <v>12</v>
+        <v>4.1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="M20" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N20" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="O20" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="P20" t="n">
-        <v>3.15</v>
+        <v>2.28</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="R20" t="n">
-        <v>1.83</v>
+        <v>1.5</v>
       </c>
       <c r="S20" t="n">
-        <v>2.12</v>
+        <v>2.84</v>
       </c>
       <c r="T20" t="n">
-        <v>2.52</v>
+        <v>1.65</v>
       </c>
       <c r="U20" t="n">
-        <v>1.62</v>
+        <v>2.3</v>
       </c>
       <c r="V20" t="n">
-        <v>1.03</v>
+        <v>1.29</v>
       </c>
       <c r="W20" t="n">
-        <v>7.8</v>
+        <v>2</v>
       </c>
       <c r="X20" t="n">
+        <v>22</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>34</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>90</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE20" t="n">
         <v>55</v>
       </c>
-      <c r="Y20" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z20" t="n">
-        <v>370</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB20" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC20" t="n">
+      <c r="AF20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>980</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK20" t="n">
         <v>25</v>
       </c>
-      <c r="AD20" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AG20" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH20" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI20" t="n">
-        <v>390</v>
-      </c>
-      <c r="AJ20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AK20" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AL20" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AM20" t="n">
-        <v>390</v>
+        <v>80</v>
       </c>
       <c r="AN20" t="n">
-        <v>3.05</v>
+        <v>13</v>
       </c>
       <c r="AO20" t="n">
-        <v>1000</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>English Premier League</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>13:30:00</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Crystal Palace</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tottenham</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="G21" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="H21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="J21" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K21" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N21" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P21" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T21" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="V21" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W21" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="X21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>14</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>48</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>14:00:00</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Bologna</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Sassuolo</t>
+        </is>
+      </c>
+      <c r="F22" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="H22" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I22" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N22" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R22" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="T22" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U22" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V22" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="W22" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="X22" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>14</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>100</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>70</v>
+      </c>
+      <c r="AJ22" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK22" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL22" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>110</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>15:00:00</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Braga</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Benfica</t>
+        </is>
+      </c>
+      <c r="F23" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G23" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="J23" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K23" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="P23" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="V23" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="W23" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X23" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>27</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ23" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL23" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Italian Serie A</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>16:45:00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Atalanta</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Inter</t>
+        </is>
+      </c>
+      <c r="F24" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G24" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="M24" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P24" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="S24" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U24" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="V24" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="X24" t="n">
+        <v>17</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>14</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ24" t="n">
+        <v>70</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>42</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>48</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Portuguese Primeira Liga</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2025-12-28</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>17:30:00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Sporting Lisbon</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Rio Ave</t>
+        </is>
+      </c>
+      <c r="F25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="H25" t="n">
+        <v>26</v>
+      </c>
+      <c r="I25" t="n">
+        <v>27</v>
+      </c>
+      <c r="J25" t="n">
+        <v>11</v>
+      </c>
+      <c r="K25" t="n">
+        <v>12</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M25" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="N25" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O25" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="R25" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S25" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="T25" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U25" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V25" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="W25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="X25" t="n">
+        <v>55</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>990</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>350</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>26</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>70</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>370</v>
+      </c>
+      <c r="AJ25" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AK25" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL25" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>390</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>Honduras Liga Nacional</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B26" t="inlineStr">
         <is>
           <t>2025-12-28</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="C26" t="inlineStr">
         <is>
           <t>18:00:00</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>CD Marathon</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Olancho</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
-      </c>
-      <c r="I21" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="J21" t="n">
+      <c r="F26" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="H26" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="I26" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="J26" t="n">
         <v>4</v>
       </c>
-      <c r="K21" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M21" t="n">
+      <c r="K26" t="n">
+        <v>5</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="M26" t="n">
         <v>1.05</v>
       </c>
-      <c r="N21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P21" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="R21" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="S21" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="T21" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U21" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="W21" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="X21" t="n">
+      <c r="N26" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O26" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P26" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="R26" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S26" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="T26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U26" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V26" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="W26" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="X26" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y26" t="n">
         <v>990</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC26" t="n">
         <v>990</v>
       </c>
-      <c r="Z21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC21" t="n">
+      <c r="AD26" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG26" t="n">
         <v>12</v>
       </c>
-      <c r="AD21" t="n">
-        <v>28</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH21" t="n">
+      <c r="AH26" t="n">
         <v>990</v>
       </c>
-      <c r="AI21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN21" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO21" t="n">
+      <c r="AI26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ26" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM26" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN26" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AO26" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,72 +653,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>08:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Erbaaspor</t>
+          <t>Academico de Viseu</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Beyoglu Yeni Carsi</t>
+          <t>Benfica B</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.09</v>
+        <v>6.2</v>
       </c>
       <c r="G2" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="H2" t="n">
-        <v>1.35</v>
+        <v>5.9</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="J2" t="n">
-        <v>5.1</v>
+        <v>1.4</v>
       </c>
       <c r="K2" t="n">
-        <v>1000</v>
+        <v>1.47</v>
       </c>
       <c r="L2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.02</v>
+        <v>1.55</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.01</v>
+        <v>2.8</v>
       </c>
       <c r="R2" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="S2" t="n">
-        <v>1.01</v>
+        <v>16</v>
       </c>
       <c r="T2" t="n">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.03</v>
+        <v>1.23</v>
       </c>
       <c r="W2" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -736,31 +736,31 @@
         <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>1.6</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>6.4</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>80</v>
       </c>
       <c r="AF2" t="n">
         <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>510</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>150</v>
       </c>
       <c r="AL2" t="n">
         <v>1000</v>
@@ -778,7 +778,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,36 +788,36 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>08:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kepez Belediyespor</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Batman Petrolspor</t>
+          <t>Verona</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>18.5</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>690</v>
+        <v>1.03</v>
       </c>
       <c r="H3" t="n">
-        <v>1.18</v>
+        <v>270</v>
       </c>
       <c r="I3" t="n">
-        <v>1.19</v>
+        <v>350</v>
       </c>
       <c r="J3" t="n">
-        <v>7.8</v>
+        <v>38</v>
       </c>
       <c r="K3" t="n">
-        <v>8.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -826,76 +826,76 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.87</v>
+        <v>1.01</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.06</v>
+        <v>1.01</v>
       </c>
       <c r="R3" t="n">
-        <v>1.25</v>
+        <v>1.59</v>
       </c>
       <c r="S3" t="n">
-        <v>4.6</v>
+        <v>2.62</v>
       </c>
       <c r="T3" t="n">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="U3" t="n">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="V3" t="n">
-        <v>6</v>
+        <v>1.01</v>
       </c>
       <c r="W3" t="n">
-        <v>1.02</v>
+        <v>28</v>
       </c>
       <c r="X3" t="n">
         <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>1000</v>
       </c>
       <c r="AB3" t="n">
         <v>1000</v>
       </c>
       <c r="AC3" t="n">
-        <v>540</v>
+        <v>1000</v>
       </c>
       <c r="AD3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AE3" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
         <v>1000</v>
       </c>
       <c r="AG3" t="n">
-        <v>790</v>
+        <v>1000</v>
       </c>
       <c r="AH3" t="n">
-        <v>990</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>3.8</v>
       </c>
       <c r="AK3" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
       <c r="AL3" t="n">
         <v>1000</v>
@@ -904,10 +904,10 @@
         <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>1000</v>
+        <v>1.76</v>
       </c>
       <c r="AO3" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
@@ -923,117 +923,117 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>07:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Iskenderunspor</t>
+          <t>Erzincanspor</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Elazigspor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>9.4</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G4" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="I4" t="n">
-        <v>1.59</v>
+        <v>1.72</v>
       </c>
       <c r="J4" t="n">
-        <v>3.65</v>
+        <v>3.2</v>
       </c>
       <c r="K4" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="N4" t="n">
-        <v>3.9</v>
+        <v>1.92</v>
       </c>
       <c r="O4" t="n">
-        <v>1.33</v>
+        <v>1.99</v>
       </c>
       <c r="P4" t="n">
-        <v>1.63</v>
+        <v>1.27</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.44</v>
+        <v>4.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="S4" t="n">
-        <v>6.2</v>
+        <v>12.5</v>
       </c>
       <c r="T4" t="n">
-        <v>1.71</v>
+        <v>3.75</v>
       </c>
       <c r="U4" t="n">
-        <v>1.85</v>
+        <v>1.29</v>
       </c>
       <c r="V4" t="n">
-        <v>2.74</v>
+        <v>2.38</v>
       </c>
       <c r="W4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="X4" t="n">
-        <v>1000</v>
+        <v>7.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.6</v>
+        <v>4.4</v>
       </c>
       <c r="Z4" t="n">
-        <v>7</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AA4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AC4" t="n">
-        <v>5.7</v>
+        <v>11</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.800000000000001</v>
+        <v>21</v>
       </c>
       <c r="AE4" t="n">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>95</v>
       </c>
       <c r="AG4" t="n">
-        <v>16.5</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="n">
-        <v>85</v>
+        <v>310</v>
       </c>
       <c r="AJ4" t="n">
         <v>1000</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>590</v>
       </c>
       <c r="AL4" t="n">
-        <v>120</v>
+        <v>1000</v>
       </c>
       <c r="AM4" t="n">
         <v>1000</v>
@@ -1042,13 +1042,13 @@
         <v>1000</v>
       </c>
       <c r="AO4" t="n">
-        <v>1000</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,36 +1058,36 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Serik Belediyespor</t>
+          <t>Bucaspor</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Karacabey Belediyespor AS</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>6.4</v>
+        <v>16</v>
       </c>
       <c r="H5" t="n">
-        <v>1.67</v>
+        <v>1.32</v>
       </c>
       <c r="I5" t="n">
-        <v>1.7</v>
+        <v>1.37</v>
       </c>
       <c r="J5" t="n">
-        <v>4</v>
+        <v>5.2</v>
       </c>
       <c r="K5" t="n">
-        <v>4.2</v>
+        <v>5.9</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3.35</v>
+        <v>5.3</v>
       </c>
       <c r="S5" t="n">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -1120,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>2.42</v>
+        <v>3.75</v>
       </c>
       <c r="W5" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="X5" t="n">
         <v>1000</v>
@@ -1141,49 +1141,49 @@
         <v>1000</v>
       </c>
       <c r="AC5" t="n">
-        <v>13.5</v>
+        <v>1000</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.4</v>
+        <v>6.4</v>
       </c>
       <c r="AE5" t="n">
-        <v>8.4</v>
+        <v>6.2</v>
       </c>
       <c r="AF5" t="n">
         <v>1000</v>
       </c>
       <c r="AG5" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AH5" t="n">
-        <v>8.800000000000001</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AI5" t="n">
-        <v>9.800000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AJ5" t="n">
         <v>1000</v>
       </c>
       <c r="AK5" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
       <c r="AL5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AM5" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AN5" t="n">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="AO5" t="n">
-        <v>4.7</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,132 +1193,132 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>07:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Beykoz Anadolu Spor</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Umraniyespor</t>
+          <t>Karaman Belediyespor</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>1.84</v>
+        <v>1.29</v>
       </c>
       <c r="G6" t="n">
-        <v>1.89</v>
+        <v>1.32</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1</v>
+        <v>17</v>
       </c>
       <c r="I6" t="n">
-        <v>5.4</v>
+        <v>26</v>
       </c>
       <c r="J6" t="n">
-        <v>3.65</v>
+        <v>5.2</v>
       </c>
       <c r="K6" t="n">
-        <v>3.75</v>
+        <v>6</v>
       </c>
       <c r="L6" t="n">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>3.25</v>
+        <v>4.1</v>
       </c>
       <c r="O6" t="n">
-        <v>1.41</v>
+        <v>1.27</v>
       </c>
       <c r="P6" t="n">
-        <v>1.76</v>
+        <v>1.71</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.28</v>
+        <v>2.26</v>
       </c>
       <c r="R6" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="S6" t="n">
-        <v>4.4</v>
+        <v>5.3</v>
       </c>
       <c r="T6" t="n">
-        <v>2.02</v>
+        <v>2.18</v>
       </c>
       <c r="U6" t="n">
-        <v>1.88</v>
+        <v>1.68</v>
       </c>
       <c r="V6" t="n">
-        <v>1.23</v>
+        <v>1.04</v>
       </c>
       <c r="W6" t="n">
-        <v>2.12</v>
+        <v>4.1</v>
       </c>
       <c r="X6" t="n">
-        <v>13</v>
+        <v>1000</v>
       </c>
       <c r="Y6" t="n">
-        <v>16</v>
+        <v>1000</v>
       </c>
       <c r="Z6" t="n">
-        <v>44</v>
+        <v>1000</v>
       </c>
       <c r="AA6" t="n">
-        <v>160</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>7.6</v>
+        <v>5.3</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>10.5</v>
       </c>
       <c r="AD6" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>46</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
         <v>22</v>
       </c>
-      <c r="AE6" t="n">
-        <v>100</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>23</v>
-      </c>
       <c r="AL6" t="n">
-        <v>65</v>
+        <v>130</v>
       </c>
       <c r="AM6" t="n">
-        <v>190</v>
+        <v>1000</v>
       </c>
       <c r="AN6" t="n">
-        <v>17</v>
+        <v>1000</v>
       </c>
       <c r="AO6" t="n">
-        <v>130</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>08:00:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Academico de Viseu</t>
+          <t>Muglaspor</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Benfica B</t>
+          <t>Kastamonuspor</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.94</v>
+        <v>1.2</v>
       </c>
       <c r="G7" t="n">
-        <v>1.96</v>
+        <v>1.21</v>
       </c>
       <c r="H7" t="n">
-        <v>4.5</v>
+        <v>29</v>
       </c>
       <c r="I7" t="n">
-        <v>4.7</v>
+        <v>34</v>
       </c>
       <c r="J7" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="K7" t="n">
-        <v>3.85</v>
+        <v>7.6</v>
       </c>
       <c r="L7" t="n">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>1.07</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="O7" t="n">
-        <v>1.32</v>
+        <v>1.24</v>
       </c>
       <c r="P7" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>2.08</v>
       </c>
       <c r="R7" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="S7" t="n">
-        <v>3.55</v>
+        <v>4.6</v>
       </c>
       <c r="T7" t="n">
-        <v>1.85</v>
+        <v>2.42</v>
       </c>
       <c r="U7" t="n">
-        <v>2.12</v>
+        <v>1.63</v>
       </c>
       <c r="V7" t="n">
-        <v>1.27</v>
+        <v>1.03</v>
       </c>
       <c r="W7" t="n">
-        <v>2.04</v>
+        <v>5.6</v>
       </c>
       <c r="X7" t="n">
-        <v>15</v>
+        <v>1000</v>
       </c>
       <c r="Y7" t="n">
-        <v>17.5</v>
+        <v>1000</v>
       </c>
       <c r="Z7" t="n">
-        <v>34</v>
+        <v>1000</v>
       </c>
       <c r="AA7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.199999999999999</v>
+        <v>12.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>17</v>
+        <v>55</v>
       </c>
       <c r="AE7" t="n">
-        <v>60</v>
+        <v>480</v>
       </c>
       <c r="AF7" t="n">
-        <v>11.5</v>
+        <v>4.9</v>
       </c>
       <c r="AG7" t="n">
-        <v>10.5</v>
+        <v>9.6</v>
       </c>
       <c r="AH7" t="n">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="AI7" t="n">
-        <v>65</v>
+        <v>320</v>
       </c>
       <c r="AJ7" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK7" t="n">
         <v>22</v>
       </c>
-      <c r="AK7" t="n">
-        <v>20</v>
-      </c>
       <c r="AL7" t="n">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AM7" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN7" t="n">
-        <v>14.5</v>
+        <v>12.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>65</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 2 Lig</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>08:30:00</t>
+          <t>09:00:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>Inegolspor</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Verona</t>
+          <t>Altinordu</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.39</v>
+        <v>1.02</v>
       </c>
       <c r="G8" t="n">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="H8" t="n">
-        <v>11</v>
+        <v>1.01</v>
       </c>
       <c r="I8" t="n">
-        <v>11.5</v>
+        <v>610</v>
       </c>
       <c r="J8" t="n">
-        <v>5.1</v>
+        <v>36</v>
       </c>
       <c r="K8" t="n">
-        <v>5.2</v>
+        <v>60</v>
       </c>
       <c r="L8" t="n">
-        <v>1.42</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>5.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.98</v>
+        <v>1.19</v>
       </c>
       <c r="R8" t="n">
-        <v>1.37</v>
+        <v>2.08</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>1.83</v>
       </c>
       <c r="T8" t="n">
-        <v>2.34</v>
+        <v>2.66</v>
       </c>
       <c r="U8" t="n">
-        <v>1.72</v>
+        <v>1.51</v>
       </c>
       <c r="V8" t="n">
-        <v>1.09</v>
+        <v>1.01</v>
       </c>
       <c r="W8" t="n">
-        <v>3.5</v>
+        <v>30</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>1000</v>
       </c>
       <c r="Y8" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="Z8" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AA8" t="n">
-        <v>490</v>
+        <v>1000</v>
       </c>
       <c r="AB8" t="n">
-        <v>6.8</v>
+        <v>1000</v>
       </c>
       <c r="AC8" t="n">
-        <v>11.5</v>
+        <v>1000</v>
       </c>
       <c r="AD8" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AE8" t="n">
-        <v>210</v>
+        <v>1000</v>
       </c>
       <c r="AF8" t="n">
         <v>7</v>
       </c>
       <c r="AG8" t="n">
-        <v>10.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH8" t="n">
-        <v>32</v>
+        <v>90</v>
       </c>
       <c r="AI8" t="n">
-        <v>170</v>
+        <v>600</v>
       </c>
       <c r="AJ8" t="n">
-        <v>10.5</v>
+        <v>6.2</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AL8" t="n">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="AM8" t="n">
-        <v>220</v>
+        <v>1000</v>
       </c>
       <c r="AN8" t="n">
-        <v>7.4</v>
+        <v>3.05</v>
       </c>
       <c r="AO8" t="n">
-        <v>320</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>10:00:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Erzincanspor</t>
+          <t>Erzurum BB</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Elazigspor</t>
+          <t>Corum Belediyespor</t>
         </is>
       </c>
       <c r="F9" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="J9" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="R9" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="T9" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U9" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="V9" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="X9" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>80</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AC9" t="n">
         <v>7.6</v>
       </c>
-      <c r="G9" t="n">
-        <v>11</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="I9" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N9" t="n">
-        <v>5</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="T9" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="X9" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>14</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>980</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>14.5</v>
-      </c>
       <c r="AD9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>46</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG9" t="n">
         <v>11.5</v>
       </c>
-      <c r="AE9" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>170</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>980</v>
-      </c>
       <c r="AH9" t="n">
-        <v>980</v>
+        <v>19.5</v>
       </c>
       <c r="AI9" t="n">
-        <v>980</v>
+        <v>80</v>
       </c>
       <c r="AJ9" t="n">
-        <v>1000</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>320</v>
+        <v>28</v>
       </c>
       <c r="AL9" t="n">
-        <v>270</v>
+        <v>46</v>
       </c>
       <c r="AM9" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>1000</v>
+        <v>25</v>
       </c>
       <c r="AO9" t="n">
-        <v>5.8</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Portuguese Segunda Liga</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,93 +1733,93 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bucaspor</t>
+          <t>Pacos Ferreira</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Karacabey Belediyespor AS</t>
+          <t>Farense</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>3.9</v>
       </c>
       <c r="G10" t="n">
-        <v>6</v>
+        <v>4.1</v>
       </c>
       <c r="H10" t="n">
-        <v>1.72</v>
+        <v>2.14</v>
       </c>
       <c r="I10" t="n">
-        <v>1.86</v>
+        <v>2.22</v>
       </c>
       <c r="J10" t="n">
-        <v>3.65</v>
+        <v>3.4</v>
       </c>
       <c r="K10" t="n">
-        <v>4.6</v>
+        <v>3.55</v>
       </c>
       <c r="L10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N10" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O10" t="n">
         <v>1.38</v>
       </c>
-      <c r="M10" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N10" t="n">
+      <c r="P10" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="S10" t="n">
         <v>4</v>
       </c>
-      <c r="O10" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.05</v>
-      </c>
       <c r="T10" t="n">
-        <v>1.04</v>
+        <v>1.87</v>
       </c>
       <c r="U10" t="n">
-        <v>1.04</v>
+        <v>2.06</v>
       </c>
       <c r="V10" t="n">
-        <v>2.14</v>
+        <v>1.82</v>
       </c>
       <c r="W10" t="n">
-        <v>1.2</v>
+        <v>1.32</v>
       </c>
       <c r="X10" t="n">
-        <v>1000</v>
+        <v>13.5</v>
       </c>
       <c r="Y10" t="n">
-        <v>1000</v>
+        <v>9</v>
       </c>
       <c r="Z10" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AA10" t="n">
         <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AD10" t="n">
-        <v>1000</v>
+        <v>11</v>
       </c>
       <c r="AE10" t="n">
         <v>1000</v>
@@ -1828,13 +1828,13 @@
         <v>1000</v>
       </c>
       <c r="AG10" t="n">
-        <v>1000</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="n">
         <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>1000</v>
+        <v>44</v>
       </c>
       <c r="AJ10" t="n">
         <v>1000</v>
@@ -1843,22 +1843,22 @@
         <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>1000</v>
+        <v>90</v>
       </c>
       <c r="AM10" t="n">
         <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
       <c r="AO10" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1868,132 +1868,132 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Beykoz Anadolu Spor</t>
+          <t>US Cremonese</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Karaman Belediyespor</t>
+          <t>Napoli</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>2.12</v>
+        <v>7</v>
       </c>
       <c r="G11" t="n">
-        <v>2.26</v>
+        <v>7.2</v>
       </c>
       <c r="H11" t="n">
-        <v>3.8</v>
+        <v>1.61</v>
       </c>
       <c r="I11" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J11" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K11" t="n">
         <v>4.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N11" t="n">
         <v>3.4</v>
       </c>
-      <c r="K11" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>2.98</v>
-      </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P11" t="n">
-        <v>1.68</v>
+        <v>1.81</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="R11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="S11" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="T11" t="n">
-        <v>1.9</v>
+        <v>2.2</v>
       </c>
       <c r="U11" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="V11" t="n">
-        <v>1.31</v>
+        <v>2.58</v>
       </c>
       <c r="W11" t="n">
-        <v>1.8</v>
+        <v>1.16</v>
       </c>
       <c r="X11" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="Y11" t="n">
-        <v>13.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z11" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="AA11" t="n">
-        <v>1000</v>
+        <v>14.5</v>
       </c>
       <c r="AB11" t="n">
-        <v>9.800000000000001</v>
+        <v>19</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD11" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AE11" t="n">
-        <v>1000</v>
+        <v>18.5</v>
       </c>
       <c r="AF11" t="n">
-        <v>13.5</v>
+        <v>55</v>
       </c>
       <c r="AG11" t="n">
+        <v>27</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>26</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>230</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>130</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>120</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>190</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>200</v>
+      </c>
+      <c r="AO11" t="n">
         <v>11.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -2003,132 +2003,132 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>11:00:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Muglaspor</t>
+          <t>Sunderland</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Kastamonuspor</t>
+          <t>Leeds</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.58</v>
+        <v>2.96</v>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>3</v>
       </c>
       <c r="H12" t="n">
-        <v>6.4</v>
+        <v>2.76</v>
       </c>
       <c r="I12" t="n">
-        <v>7.8</v>
+        <v>2.78</v>
       </c>
       <c r="J12" t="n">
-        <v>3.95</v>
+        <v>3.25</v>
       </c>
       <c r="K12" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N12" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S12" t="n">
         <v>4.8</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S12" t="n">
-        <v>3.45</v>
       </c>
       <c r="T12" t="n">
         <v>2.02</v>
       </c>
       <c r="U12" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="V12" t="n">
-        <v>1.14</v>
+        <v>1.56</v>
       </c>
       <c r="W12" t="n">
-        <v>2.48</v>
+        <v>1.5</v>
       </c>
       <c r="X12" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="Z12" t="n">
         <v>16</v>
       </c>
-      <c r="Y12" t="n">
-        <v>23</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>60</v>
-      </c>
       <c r="AA12" t="n">
-        <v>260</v>
+        <v>46</v>
       </c>
       <c r="AB12" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC12" t="n">
-        <v>10.5</v>
+        <v>7.2</v>
       </c>
       <c r="AD12" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="AE12" t="n">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="AF12" t="n">
-        <v>9.6</v>
+        <v>17</v>
       </c>
       <c r="AG12" t="n">
-        <v>10.5</v>
+        <v>13.5</v>
       </c>
       <c r="AH12" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AI12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>46</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>36</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>55</v>
+      </c>
+      <c r="AM12" t="n">
         <v>120</v>
       </c>
-      <c r="AJ12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AL12" t="n">
+      <c r="AN12" t="n">
         <v>42</v>
       </c>
-      <c r="AM12" t="n">
-        <v>180</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>10</v>
-      </c>
       <c r="AO12" t="n">
-        <v>180</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Turkish 2 Lig</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -2138,132 +2138,132 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>09:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Inegolspor</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Altinordu</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.39</v>
+        <v>5</v>
       </c>
       <c r="G13" t="n">
-        <v>1.44</v>
+        <v>5.2</v>
       </c>
       <c r="H13" t="n">
-        <v>8.800000000000001</v>
+        <v>1.92</v>
       </c>
       <c r="I13" t="n">
-        <v>13.5</v>
+        <v>1.93</v>
       </c>
       <c r="J13" t="n">
-        <v>4.6</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
-        <v>5.6</v>
+        <v>3.6</v>
       </c>
       <c r="L13" t="n">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N13" t="n">
-        <v>3.9</v>
+        <v>3.15</v>
       </c>
       <c r="O13" t="n">
-        <v>1.28</v>
+        <v>1.45</v>
       </c>
       <c r="P13" t="n">
-        <v>2</v>
+        <v>1.72</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.86</v>
+        <v>2.36</v>
       </c>
       <c r="R13" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="S13" t="n">
-        <v>3.15</v>
+        <v>4.5</v>
       </c>
       <c r="T13" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U13" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="V13" t="n">
         <v>2.06</v>
       </c>
-      <c r="U13" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.08</v>
-      </c>
       <c r="W13" t="n">
-        <v>3.25</v>
+        <v>1.24</v>
       </c>
       <c r="X13" t="n">
-        <v>20</v>
+        <v>10.5</v>
       </c>
       <c r="Y13" t="n">
-        <v>980</v>
+        <v>7.8</v>
       </c>
       <c r="Z13" t="n">
-        <v>130</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AA13" t="n">
-        <v>1000</v>
+        <v>19.5</v>
       </c>
       <c r="AB13" t="n">
-        <v>8.199999999999999</v>
+        <v>14</v>
       </c>
       <c r="AC13" t="n">
-        <v>13</v>
+        <v>7.8</v>
       </c>
       <c r="AD13" t="n">
-        <v>980</v>
+        <v>11.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AF13" t="n">
-        <v>8.800000000000001</v>
+        <v>36</v>
       </c>
       <c r="AG13" t="n">
-        <v>11.5</v>
+        <v>19</v>
       </c>
       <c r="AH13" t="n">
-        <v>980</v>
+        <v>24</v>
       </c>
       <c r="AI13" t="n">
-        <v>630</v>
+        <v>60</v>
       </c>
       <c r="AJ13" t="n">
-        <v>14</v>
+        <v>120</v>
       </c>
       <c r="AK13" t="n">
-        <v>18</v>
+        <v>80</v>
       </c>
       <c r="AL13" t="n">
-        <v>980</v>
+        <v>90</v>
       </c>
       <c r="AM13" t="n">
-        <v>1000</v>
+        <v>160</v>
       </c>
       <c r="AN13" t="n">
-        <v>7.4</v>
+        <v>120</v>
       </c>
       <c r="AO13" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2273,132 +2273,132 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.3</v>
+        <v>3.25</v>
       </c>
       <c r="G14" t="n">
-        <v>2.44</v>
+        <v>3.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.4</v>
+        <v>2.62</v>
       </c>
       <c r="I14" t="n">
-        <v>3.65</v>
+        <v>2.68</v>
       </c>
       <c r="J14" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>3.5</v>
+        <v>3.15</v>
       </c>
       <c r="L14" t="n">
-        <v>1.5</v>
+        <v>1.59</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="N14" t="n">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="P14" t="n">
-        <v>1.78</v>
+        <v>1.59</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.18</v>
+        <v>2.64</v>
       </c>
       <c r="R14" t="n">
-        <v>1.28</v>
+        <v>1.21</v>
       </c>
       <c r="S14" t="n">
-        <v>4.1</v>
+        <v>5.4</v>
       </c>
       <c r="T14" t="n">
-        <v>1.88</v>
+        <v>2.08</v>
       </c>
       <c r="U14" t="n">
-        <v>1.98</v>
+        <v>1.89</v>
       </c>
       <c r="V14" t="n">
-        <v>1.37</v>
+        <v>1.59</v>
       </c>
       <c r="W14" t="n">
-        <v>1.69</v>
+        <v>1.43</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="Y14" t="n">
-        <v>12</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>95</v>
+        <v>42</v>
       </c>
       <c r="AB14" t="n">
-        <v>9</v>
+        <v>9.6</v>
       </c>
       <c r="AC14" t="n">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AE14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>65</v>
+      </c>
+      <c r="AK14" t="n">
         <v>48</v>
       </c>
-      <c r="AF14" t="n">
-        <v>15</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>29</v>
-      </c>
       <c r="AL14" t="n">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="AM14" t="n">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="AN14" t="n">
-        <v>26</v>
+        <v>60</v>
       </c>
       <c r="AO14" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2408,132 +2408,132 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>76 Igdir Belediyespor</t>
         </is>
       </c>
       <c r="F15" t="n">
-        <v>2.86</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>2.88</v>
+        <v>1.99</v>
       </c>
       <c r="H15" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="I15" t="n">
-        <v>2.94</v>
+        <v>4.4</v>
       </c>
       <c r="J15" t="n">
-        <v>3.2</v>
+        <v>3.85</v>
       </c>
       <c r="K15" t="n">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="L15" t="n">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="M15" t="n">
-        <v>1.11</v>
+        <v>1.05</v>
       </c>
       <c r="N15" t="n">
-        <v>2.98</v>
+        <v>4.6</v>
       </c>
       <c r="O15" t="n">
-        <v>1.49</v>
+        <v>1.26</v>
       </c>
       <c r="P15" t="n">
-        <v>1.66</v>
+        <v>2.28</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.48</v>
+        <v>1.73</v>
       </c>
       <c r="R15" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="S15" t="n">
-        <v>4.9</v>
+        <v>2.84</v>
       </c>
       <c r="T15" t="n">
-        <v>2.04</v>
+        <v>1.65</v>
       </c>
       <c r="U15" t="n">
-        <v>1.93</v>
+        <v>2.42</v>
       </c>
       <c r="V15" t="n">
-        <v>1.51</v>
+        <v>1.29</v>
       </c>
       <c r="W15" t="n">
-        <v>1.53</v>
+        <v>2</v>
       </c>
       <c r="X15" t="n">
-        <v>9.6</v>
+        <v>22</v>
       </c>
       <c r="Y15" t="n">
-        <v>9.199999999999999</v>
+        <v>19.5</v>
       </c>
       <c r="Z15" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="AA15" t="n">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="AB15" t="n">
-        <v>8.800000000000001</v>
+        <v>11.5</v>
       </c>
       <c r="AC15" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AD15" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>50</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN15" t="n">
         <v>13</v>
       </c>
-      <c r="AE15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH15" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ15" t="n">
-        <v>44</v>
-      </c>
-      <c r="AK15" t="n">
-        <v>36</v>
-      </c>
-      <c r="AL15" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN15" t="n">
+      <c r="AO15" t="n">
         <v>40</v>
-      </c>
-      <c r="AO15" t="n">
-        <v>42</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2543,132 +2543,132 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>7.2</v>
+        <v>2.34</v>
       </c>
       <c r="G16" t="n">
-        <v>7.4</v>
+        <v>2.36</v>
       </c>
       <c r="H16" t="n">
-        <v>1.61</v>
+        <v>3.4</v>
       </c>
       <c r="I16" t="n">
-        <v>1.62</v>
+        <v>3.45</v>
       </c>
       <c r="J16" t="n">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="K16" t="n">
-        <v>4.2</v>
+        <v>3.55</v>
       </c>
       <c r="L16" t="n">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="M16" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="N16" t="n">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.39</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>1.82</v>
+        <v>1.98</v>
       </c>
       <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="S16" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T16" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U16" t="n">
         <v>2.18</v>
       </c>
-      <c r="R16" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S16" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="T16" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="U16" t="n">
-        <v>1.79</v>
-      </c>
       <c r="V16" t="n">
-        <v>2.62</v>
+        <v>1.4</v>
       </c>
       <c r="W16" t="n">
-        <v>1.15</v>
+        <v>1.73</v>
       </c>
       <c r="X16" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.8</v>
+        <v>13</v>
       </c>
       <c r="Z16" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="AA16" t="n">
+        <v>60</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>38</v>
+      </c>
+      <c r="AF16" t="n">
         <v>14</v>
       </c>
-      <c r="AB16" t="n">
-        <v>20</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>9</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>18</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>55</v>
-      </c>
       <c r="AG16" t="n">
-        <v>27</v>
+        <v>11.5</v>
       </c>
       <c r="AH16" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="AJ16" t="n">
-        <v>240</v>
+        <v>29</v>
       </c>
       <c r="AK16" t="n">
-        <v>120</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AM16" t="n">
-        <v>190</v>
+        <v>75</v>
       </c>
       <c r="AN16" t="n">
-        <v>200</v>
+        <v>18.5</v>
       </c>
       <c r="AO16" t="n">
-        <v>11</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2678,126 +2678,126 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.75</v>
+        <v>2.02</v>
       </c>
       <c r="G17" t="n">
-        <v>3.95</v>
+        <v>2.04</v>
       </c>
       <c r="H17" t="n">
-        <v>2.2</v>
+        <v>4.5</v>
       </c>
       <c r="I17" t="n">
-        <v>2.28</v>
+        <v>4.6</v>
       </c>
       <c r="J17" t="n">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="K17" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="L17" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="M17" t="n">
         <v>1.08</v>
       </c>
       <c r="N17" t="n">
-        <v>3.45</v>
+        <v>3.65</v>
       </c>
       <c r="O17" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P17" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.16</v>
+        <v>2.1</v>
       </c>
       <c r="R17" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S17" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="T17" t="n">
-        <v>1.84</v>
+        <v>1.89</v>
       </c>
       <c r="U17" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="V17" t="n">
-        <v>1.79</v>
+        <v>1.28</v>
       </c>
       <c r="W17" t="n">
-        <v>1.34</v>
+        <v>1.96</v>
       </c>
       <c r="X17" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Y17" t="n">
-        <v>10</v>
+        <v>14.5</v>
       </c>
       <c r="Z17" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA17" t="n">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="n">
-        <v>1000</v>
+        <v>8.4</v>
       </c>
       <c r="AC17" t="n">
-        <v>8.800000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="AD17" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AE17" t="n">
-        <v>1000</v>
+        <v>60</v>
       </c>
       <c r="AF17" t="n">
-        <v>1000</v>
+        <v>11.5</v>
       </c>
       <c r="AG17" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH17" t="n">
         <v>18</v>
       </c>
-      <c r="AH17" t="n">
-        <v>990</v>
-      </c>
       <c r="AI17" t="n">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AK17" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AL17" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AM17" t="n">
-        <v>1000</v>
+        <v>110</v>
       </c>
       <c r="AN17" t="n">
-        <v>1000</v>
+        <v>15.5</v>
       </c>
       <c r="AO17" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18">
@@ -2813,132 +2813,132 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="G18" t="n">
-        <v>4.6</v>
+        <v>3.85</v>
       </c>
       <c r="H18" t="n">
-        <v>2.02</v>
+        <v>2.26</v>
       </c>
       <c r="I18" t="n">
-        <v>2.06</v>
+        <v>2.3</v>
       </c>
       <c r="J18" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K18" t="n">
         <v>3.4</v>
       </c>
-      <c r="K18" t="n">
-        <v>3.45</v>
-      </c>
       <c r="L18" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="M18" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N18" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="O18" t="n">
-        <v>1.48</v>
+        <v>1.42</v>
       </c>
       <c r="P18" t="n">
-        <v>1.67</v>
+        <v>1.76</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.44</v>
+        <v>2.26</v>
       </c>
       <c r="R18" t="n">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="S18" t="n">
-        <v>4.8</v>
+        <v>4.3</v>
       </c>
       <c r="T18" t="n">
-        <v>2.1</v>
+        <v>1.94</v>
       </c>
       <c r="U18" t="n">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>1.94</v>
+        <v>1.77</v>
       </c>
       <c r="W18" t="n">
-        <v>1.27</v>
+        <v>1.35</v>
       </c>
       <c r="X18" t="n">
-        <v>10</v>
+        <v>11.5</v>
       </c>
       <c r="Y18" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="n">
         <v>7.4</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>11</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>13</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>7.6</v>
       </c>
       <c r="AD18" t="n">
         <v>11</v>
       </c>
       <c r="AE18" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF18" t="n">
         <v>25</v>
       </c>
-      <c r="AF18" t="n">
-        <v>32</v>
-      </c>
       <c r="AG18" t="n">
-        <v>18.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH18" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>46</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>50</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>130</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>60</v>
+      </c>
+      <c r="AO18" t="n">
         <v>23</v>
-      </c>
-      <c r="AI18" t="n">
-        <v>50</v>
-      </c>
-      <c r="AJ18" t="n">
-        <v>120</v>
-      </c>
-      <c r="AK18" t="n">
-        <v>75</v>
-      </c>
-      <c r="AL18" t="n">
-        <v>90</v>
-      </c>
-      <c r="AM18" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN18" t="n">
-        <v>110</v>
-      </c>
-      <c r="AO18" t="n">
-        <v>21</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -2948,132 +2948,132 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3.2</v>
+        <v>3.9</v>
       </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="H19" t="n">
-        <v>2.64</v>
+        <v>2.1</v>
       </c>
       <c r="I19" t="n">
-        <v>2.66</v>
+        <v>2.12</v>
       </c>
       <c r="J19" t="n">
-        <v>3.1</v>
+        <v>3.65</v>
       </c>
       <c r="K19" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="L19" t="n">
-        <v>1.59</v>
+        <v>1.38</v>
       </c>
       <c r="M19" t="n">
-        <v>1.12</v>
+        <v>1.06</v>
       </c>
       <c r="N19" t="n">
-        <v>2.82</v>
+        <v>4.6</v>
       </c>
       <c r="O19" t="n">
-        <v>1.53</v>
+        <v>1.26</v>
       </c>
       <c r="P19" t="n">
-        <v>1.59</v>
+        <v>2.24</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.64</v>
+        <v>1.79</v>
       </c>
       <c r="R19" t="n">
-        <v>1.21</v>
+        <v>1.5</v>
       </c>
       <c r="S19" t="n">
-        <v>5.4</v>
+        <v>2.96</v>
       </c>
       <c r="T19" t="n">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="U19" t="n">
-        <v>1.85</v>
+        <v>2.36</v>
       </c>
       <c r="V19" t="n">
-        <v>1.6</v>
+        <v>1.89</v>
       </c>
       <c r="W19" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="X19" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.4</v>
+        <v>11.5</v>
       </c>
       <c r="Z19" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AA19" t="n">
+        <v>25</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>28</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK19" t="n">
         <v>42</v>
       </c>
-      <c r="AB19" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="AC19" t="n">
-        <v>7</v>
-      </c>
-      <c r="AD19" t="n">
+      <c r="AL19" t="n">
+        <v>46</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>70</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>38</v>
+      </c>
+      <c r="AO19" t="n">
         <v>12.5</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>19</v>
-      </c>
-      <c r="AG19" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>22</v>
-      </c>
-      <c r="AI19" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AK19" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL19" t="n">
-        <v>70</v>
-      </c>
-      <c r="AM19" t="n">
-        <v>160</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO19" t="n">
-        <v>38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -3083,132 +3083,132 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.92</v>
+        <v>1.13</v>
       </c>
       <c r="G20" t="n">
-        <v>1.99</v>
+        <v>1.14</v>
       </c>
       <c r="H20" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="I20" t="n">
-        <v>4.4</v>
+        <v>29</v>
       </c>
       <c r="J20" t="n">
-        <v>3.8</v>
+        <v>11.5</v>
       </c>
       <c r="K20" t="n">
-        <v>4.1</v>
+        <v>12.5</v>
       </c>
       <c r="L20" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="M20" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N20" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="O20" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="P20" t="n">
-        <v>2.28</v>
+        <v>3.05</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.73</v>
+        <v>1.46</v>
       </c>
       <c r="R20" t="n">
-        <v>1.5</v>
+        <v>1.81</v>
       </c>
       <c r="S20" t="n">
-        <v>2.84</v>
+        <v>2.2</v>
       </c>
       <c r="T20" t="n">
-        <v>1.65</v>
+        <v>2.58</v>
       </c>
       <c r="U20" t="n">
-        <v>2.3</v>
+        <v>1.57</v>
       </c>
       <c r="V20" t="n">
-        <v>1.29</v>
+        <v>1.03</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="X20" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="Y20" t="n">
-        <v>19.5</v>
+        <v>990</v>
       </c>
       <c r="Z20" t="n">
-        <v>34</v>
+        <v>410</v>
       </c>
       <c r="AA20" t="n">
-        <v>90</v>
+        <v>1000</v>
       </c>
       <c r="AB20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC20" t="n">
-        <v>9.4</v>
+        <v>28</v>
       </c>
       <c r="AD20" t="n">
-        <v>17.5</v>
+        <v>120</v>
       </c>
       <c r="AE20" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AF20" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AG20" t="n">
-        <v>10.5</v>
+        <v>14</v>
       </c>
       <c r="AH20" t="n">
-        <v>17.5</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="n">
-        <v>980</v>
+        <v>480</v>
       </c>
       <c r="AJ20" t="n">
-        <v>23</v>
+        <v>7.8</v>
       </c>
       <c r="AK20" t="n">
-        <v>25</v>
+        <v>15.5</v>
       </c>
       <c r="AL20" t="n">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="AM20" t="n">
-        <v>80</v>
+        <v>530</v>
       </c>
       <c r="AN20" t="n">
-        <v>13</v>
+        <v>3.2</v>
       </c>
       <c r="AO20" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -3218,800 +3218,125 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.32</v>
+        <v>1.64</v>
       </c>
       <c r="G21" t="n">
-        <v>2.34</v>
+        <v>1.75</v>
       </c>
       <c r="H21" t="n">
-        <v>3.45</v>
+        <v>4.9</v>
       </c>
       <c r="I21" t="n">
-        <v>3.5</v>
+        <v>6.2</v>
       </c>
       <c r="J21" t="n">
-        <v>3.45</v>
+        <v>4</v>
       </c>
       <c r="K21" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>1.45</v>
+        <v>1.31</v>
       </c>
       <c r="M21" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N21" t="n">
-        <v>3.85</v>
+        <v>4.5</v>
       </c>
       <c r="O21" t="n">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="P21" t="n">
-        <v>1.97</v>
+        <v>2.2</v>
       </c>
       <c r="Q21" t="n">
-        <v>2</v>
+        <v>1.59</v>
       </c>
       <c r="R21" t="n">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="S21" t="n">
-        <v>3.6</v>
+        <v>2.62</v>
       </c>
       <c r="T21" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="U21" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="V21" t="n">
-        <v>1.4</v>
+        <v>1.2</v>
       </c>
       <c r="W21" t="n">
-        <v>1.74</v>
+        <v>2.3</v>
       </c>
       <c r="X21" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="Y21" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="Z21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>990</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH21" t="n">
         <v>23</v>
       </c>
-      <c r="AA21" t="n">
-        <v>60</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>38</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>14</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH21" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI21" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AJ21" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AK21" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL21" t="n">
-        <v>38</v>
+        <v>1000</v>
       </c>
       <c r="AM21" t="n">
-        <v>85</v>
+        <v>1000</v>
       </c>
       <c r="AN21" t="n">
-        <v>18</v>
+        <v>8.4</v>
       </c>
       <c r="AO21" t="n">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>14:00:00</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Bologna</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Sassuolo</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="H22" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J22" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="K22" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L22" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="M22" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N22" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="P22" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="R22" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="S22" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="T22" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U22" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V22" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="W22" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="X22" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>14</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>32</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>100</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AC22" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>60</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AG22" t="n">
-        <v>10</v>
-      </c>
-      <c r="AH22" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AI22" t="n">
-        <v>70</v>
-      </c>
-      <c r="AJ22" t="n">
-        <v>23</v>
-      </c>
-      <c r="AK22" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL22" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM22" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN22" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AO22" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G23" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="J23" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K23" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N23" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P23" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.97</v>
-      </c>
-      <c r="V23" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W23" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X23" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>27</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>20</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>60</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Inter</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J24" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K24" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N24" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S24" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="U24" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W24" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X24" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z24" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA24" t="n">
-        <v>25</v>
-      </c>
-      <c r="AB24" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC24" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH24" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI24" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ24" t="n">
-        <v>70</v>
-      </c>
-      <c r="AK24" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL24" t="n">
-        <v>48</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>17:30:00</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Sporting Lisbon</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>Rio Ave</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="G25" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="H25" t="n">
-        <v>26</v>
-      </c>
-      <c r="I25" t="n">
-        <v>27</v>
-      </c>
-      <c r="J25" t="n">
-        <v>11</v>
-      </c>
-      <c r="K25" t="n">
-        <v>12</v>
-      </c>
-      <c r="L25" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M25" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N25" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P25" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="R25" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S25" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="T25" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="U25" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V25" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="X25" t="n">
-        <v>55</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>350</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH25" t="n">
-        <v>70</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>370</v>
-      </c>
-      <c r="AJ25" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AK25" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL25" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM25" t="n">
-        <v>390</v>
-      </c>
-      <c r="AN25" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="AO25" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>CD Marathon</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G26" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="H26" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="J26" t="n">
-        <v>4</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M26" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N26" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P26" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="R26" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S26" t="n">
-        <v>2.64</v>
-      </c>
-      <c r="T26" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U26" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V26" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W26" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="X26" t="n">
-        <v>25</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG26" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH26" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ26" t="n">
-        <v>19</v>
-      </c>
-      <c r="AK26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM26" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN26" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AO26" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>10:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Erzurum BB</t>
+          <t>Arouca</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Corum Belediyespor</t>
+          <t>Gil Vicente</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1.07</v>
+        <v>5.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.09</v>
+        <v>5.8</v>
       </c>
       <c r="H2" t="n">
-        <v>220</v>
+        <v>2.92</v>
       </c>
       <c r="I2" t="n">
-        <v>1000</v>
+        <v>2.98</v>
       </c>
       <c r="J2" t="n">
-        <v>11.5</v>
+        <v>2.06</v>
       </c>
       <c r="K2" t="n">
-        <v>18.5</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -691,34 +691,34 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>4.3</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.01</v>
+        <v>1.51</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>1.2</v>
       </c>
       <c r="X2" t="n">
         <v>1000</v>
@@ -733,10 +733,10 @@
         <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.25</v>
+        <v>1000</v>
       </c>
       <c r="AC2" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AD2" t="n">
         <v>1000</v>
@@ -745,16 +745,16 @@
         <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>640</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
         <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>1000</v>
+        <v>2.54</v>
       </c>
       <c r="AI2" t="n">
-        <v>1000</v>
+        <v>4.1</v>
       </c>
       <c r="AJ2" t="n">
         <v>1000</v>
@@ -763,22 +763,22 @@
         <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>1000</v>
+        <v>7.8</v>
       </c>
       <c r="AM2" t="n">
-        <v>1000</v>
+        <v>14</v>
       </c>
       <c r="AN2" t="n">
-        <v>1000</v>
+        <v>36</v>
       </c>
       <c r="AO2" t="n">
-        <v>1000</v>
+        <v>10.5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>12:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Sunderland</t>
+          <t>Casa Pia</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Leeds</t>
+          <t>Guimaraes</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.68</v>
+        <v>5.2</v>
       </c>
       <c r="G3" t="n">
-        <v>1.69</v>
+        <v>5.3</v>
       </c>
       <c r="H3" t="n">
-        <v>7.2</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>7.4</v>
+        <v>3.85</v>
       </c>
       <c r="J3" t="n">
-        <v>3.65</v>
+        <v>1.82</v>
       </c>
       <c r="K3" t="n">
-        <v>3.75</v>
+        <v>1.84</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="N3" t="n">
-        <v>4.4</v>
+        <v>1.18</v>
       </c>
       <c r="O3" t="n">
-        <v>1.28</v>
+        <v>6.2</v>
       </c>
       <c r="P3" t="n">
-        <v>1.72</v>
+        <v>1.03</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.34</v>
+        <v>27</v>
       </c>
       <c r="R3" t="n">
-        <v>1.22</v>
+        <v>1.01</v>
       </c>
       <c r="S3" t="n">
-        <v>5.2</v>
+        <v>130</v>
       </c>
       <c r="T3" t="n">
-        <v>1.64</v>
+        <v>9.4</v>
       </c>
       <c r="U3" t="n">
-        <v>2.26</v>
+        <v>1.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.15</v>
+        <v>1.37</v>
       </c>
       <c r="W3" t="n">
-        <v>2.44</v>
+        <v>1.23</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>2.08</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="Z3" t="n">
-        <v>1000</v>
+        <v>30</v>
       </c>
       <c r="AA3" t="n">
-        <v>1000</v>
+        <v>310</v>
       </c>
       <c r="AB3" t="n">
-        <v>4.6</v>
+        <v>7.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>4.7</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
-        <v>12</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
-        <v>48</v>
+        <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.6</v>
+        <v>75</v>
       </c>
       <c r="AG3" t="n">
-        <v>8.199999999999999</v>
+        <v>160</v>
       </c>
       <c r="AH3" t="n">
-        <v>19.5</v>
+        <v>1000</v>
       </c>
       <c r="AI3" t="n">
-        <v>80</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>25</v>
+        <v>1000</v>
       </c>
       <c r="AK3" t="n">
-        <v>29</v>
+        <v>1000</v>
       </c>
       <c r="AL3" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>250</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>50</v>
+        <v>1000</v>
       </c>
       <c r="AO3" t="n">
-        <v>140</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Turkish 1 Lig</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,36 +923,36 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>US Cremonese</t>
+          <t>Amed Sportif Faaliyetler</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Napoli</t>
+          <t>76 Igdir Belediyespor</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>190</v>
+        <v>1.33</v>
       </c>
       <c r="G4" t="n">
-        <v>250</v>
+        <v>1.34</v>
       </c>
       <c r="H4" t="n">
-        <v>1.04</v>
+        <v>16</v>
       </c>
       <c r="I4" t="n">
-        <v>1.05</v>
+        <v>17.5</v>
       </c>
       <c r="J4" t="n">
-        <v>29</v>
+        <v>5.1</v>
       </c>
       <c r="K4" t="n">
-        <v>30</v>
+        <v>5.3</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -961,34 +961,34 @@
         <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="P4" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.34</v>
+        <v>2.08</v>
       </c>
       <c r="R4" t="n">
-        <v>1.58</v>
+        <v>1.26</v>
       </c>
       <c r="S4" t="n">
-        <v>2.68</v>
+        <v>4.7</v>
       </c>
       <c r="T4" t="n">
-        <v>2.68</v>
+        <v>2.02</v>
       </c>
       <c r="U4" t="n">
-        <v>1.55</v>
+        <v>1.89</v>
       </c>
       <c r="V4" t="n">
-        <v>24</v>
+        <v>1.06</v>
       </c>
       <c r="W4" t="n">
-        <v>1.01</v>
+        <v>3.9</v>
       </c>
       <c r="X4" t="n">
         <v>1000</v>
@@ -997,58 +997,58 @@
         <v>1000</v>
       </c>
       <c r="Z4" t="n">
-        <v>3.9</v>
+        <v>1000</v>
       </c>
       <c r="AA4" t="n">
-        <v>4.3</v>
+        <v>1000</v>
       </c>
       <c r="AB4" t="n">
-        <v>1000</v>
+        <v>5.1</v>
       </c>
       <c r="AC4" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AD4" t="n">
-        <v>8.4</v>
+        <v>28</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.4</v>
+        <v>160</v>
       </c>
       <c r="AF4" t="n">
-        <v>1000</v>
+        <v>5.5</v>
       </c>
       <c r="AG4" t="n">
-        <v>1000</v>
+        <v>8</v>
       </c>
       <c r="AH4" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="AI4" t="n">
-        <v>46</v>
+        <v>180</v>
       </c>
       <c r="AJ4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>1000</v>
+        <v>22</v>
       </c>
       <c r="AL4" t="n">
-        <v>320</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
-        <v>390</v>
+        <v>340</v>
       </c>
       <c r="AN4" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="AO4" t="n">
-        <v>4.8</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Portuguese Segunda Liga</t>
+          <t>English Premier League</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>11:00:00</t>
+          <t>13:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Pacos Ferreira</t>
+          <t>Crystal Palace</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Farense</t>
+          <t>Tottenham</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>2.36</v>
       </c>
       <c r="G5" t="n">
-        <v>4.2</v>
+        <v>2.38</v>
       </c>
       <c r="H5" t="n">
-        <v>2.72</v>
+        <v>3.5</v>
       </c>
       <c r="I5" t="n">
-        <v>2.78</v>
+        <v>3.55</v>
       </c>
       <c r="J5" t="n">
-        <v>2.52</v>
+        <v>3.35</v>
       </c>
       <c r="K5" t="n">
-        <v>2.58</v>
+        <v>3.4</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="M5" t="n">
-        <v>1.3</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>1.74</v>
+        <v>3</v>
       </c>
       <c r="O5" t="n">
-        <v>2.34</v>
+        <v>1.49</v>
       </c>
       <c r="P5" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>5.7</v>
+        <v>2.56</v>
       </c>
       <c r="R5" t="n">
-        <v>1.05</v>
+        <v>1.23</v>
       </c>
       <c r="S5" t="n">
-        <v>18.5</v>
+        <v>5.1</v>
       </c>
       <c r="T5" t="n">
-        <v>3.6</v>
+        <v>2.12</v>
       </c>
       <c r="U5" t="n">
-        <v>1.34</v>
+        <v>1.83</v>
       </c>
       <c r="V5" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
-        <v>1.31</v>
+        <v>1.71</v>
       </c>
       <c r="X5" t="n">
-        <v>4.4</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="Y5" t="n">
-        <v>5.3</v>
+        <v>10.5</v>
       </c>
       <c r="Z5" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AD5" t="n">
         <v>14.5</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AE5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>23</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>85</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>65</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>200</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AO5" t="n">
         <v>70</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>110</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>26</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>370</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>170</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>200</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>490</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>490</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>180</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,126 +1193,126 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F6" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="I6" t="n">
         <v>4.6</v>
       </c>
-      <c r="G6" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2</v>
-      </c>
       <c r="J6" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N6" t="n">
         <v>3.5</v>
       </c>
-      <c r="K6" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.05</v>
-      </c>
       <c r="O6" t="n">
-        <v>1.47</v>
+        <v>1.39</v>
       </c>
       <c r="P6" t="n">
-        <v>1.67</v>
+        <v>1.84</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.44</v>
+        <v>2.16</v>
       </c>
       <c r="R6" t="n">
-        <v>1.25</v>
+        <v>1.32</v>
       </c>
       <c r="S6" t="n">
-        <v>4.8</v>
+        <v>4</v>
       </c>
       <c r="T6" t="n">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="U6" t="n">
-        <v>1.82</v>
+        <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>2</v>
+        <v>1.28</v>
       </c>
       <c r="W6" t="n">
-        <v>1.27</v>
+        <v>1.93</v>
       </c>
       <c r="X6" t="n">
-        <v>9.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="Y6" t="n">
-        <v>7.2</v>
+        <v>14.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="AA6" t="n">
-        <v>22</v>
+        <v>110</v>
       </c>
       <c r="AB6" t="n">
-        <v>12.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AE6" t="n">
+        <v>60</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>19</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>24</v>
       </c>
-      <c r="AF6" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>120</v>
-      </c>
       <c r="AK6" t="n">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="AL6" t="n">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AM6" t="n">
-        <v>170</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="n">
-        <v>120</v>
+        <v>17.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>18.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7">
@@ -1328,132 +1328,132 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="G7" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="I7" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N7" t="n">
         <v>3.3</v>
       </c>
-      <c r="H7" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.74</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N7" t="n">
-        <v>2.64</v>
-      </c>
       <c r="O7" t="n">
-        <v>1.59</v>
+        <v>1.41</v>
       </c>
       <c r="P7" t="n">
-        <v>1.53</v>
+        <v>1.77</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.8</v>
+        <v>2.24</v>
       </c>
       <c r="R7" t="n">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="S7" t="n">
-        <v>5.9</v>
+        <v>4.3</v>
       </c>
       <c r="T7" t="n">
-        <v>2.18</v>
+        <v>1.94</v>
       </c>
       <c r="U7" t="n">
-        <v>1.78</v>
+        <v>2.02</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="W7" t="n">
-        <v>1.43</v>
+        <v>1.34</v>
       </c>
       <c r="X7" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.8</v>
+        <v>8.4</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>12.5</v>
       </c>
       <c r="AA7" t="n">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="AB7" t="n">
-        <v>8.800000000000001</v>
+        <v>12</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AD7" t="n">
-        <v>12.5</v>
+        <v>11</v>
       </c>
       <c r="AE7" t="n">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="AF7" t="n">
-        <v>19.5</v>
+        <v>25</v>
       </c>
       <c r="AG7" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AH7" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AI7" t="n">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="AJ7" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="n">
         <v>50</v>
       </c>
       <c r="AL7" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM7" t="n">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="AN7" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AO7" t="n">
-        <v>50</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1463,132 +1463,132 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.92</v>
+        <v>4.2</v>
       </c>
       <c r="G8" t="n">
-        <v>1.97</v>
+        <v>4.3</v>
       </c>
       <c r="H8" t="n">
-        <v>4.3</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>4.6</v>
+        <v>2.02</v>
       </c>
       <c r="J8" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="K8" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="L8" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="M8" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="O8" t="n">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="P8" t="n">
-        <v>2.24</v>
+        <v>2.18</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="R8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S8" t="n">
-        <v>2.96</v>
+        <v>3.05</v>
       </c>
       <c r="T8" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="U8" t="n">
-        <v>2.3</v>
+        <v>2.34</v>
       </c>
       <c r="V8" t="n">
-        <v>1.28</v>
+        <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>2.02</v>
+        <v>1.3</v>
       </c>
       <c r="X8" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y8" t="n">
+        <v>11</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA8" t="n">
         <v>23</v>
       </c>
-      <c r="Z8" t="n">
-        <v>34</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>140</v>
-      </c>
       <c r="AB8" t="n">
-        <v>11</v>
+        <v>17.5</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>8.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>17.5</v>
+        <v>10.5</v>
       </c>
       <c r="AE8" t="n">
-        <v>48</v>
+        <v>19.5</v>
       </c>
       <c r="AF8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH8" t="n">
         <v>15.5</v>
       </c>
-      <c r="AG8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>16.5</v>
-      </c>
       <c r="AI8" t="n">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="AJ8" t="n">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="n">
-        <v>18.5</v>
+        <v>46</v>
       </c>
       <c r="AL8" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AM8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AN8" t="n">
-        <v>11.5</v>
+        <v>46</v>
       </c>
       <c r="AO8" t="n">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1598,132 +1598,132 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>2.34</v>
+        <v>1.13</v>
       </c>
       <c r="G9" t="n">
-        <v>2.36</v>
+        <v>1.14</v>
       </c>
       <c r="H9" t="n">
-        <v>3.35</v>
+        <v>25</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4</v>
+        <v>27</v>
       </c>
       <c r="J9" t="n">
-        <v>3.5</v>
+        <v>11.5</v>
       </c>
       <c r="K9" t="n">
-        <v>3.55</v>
+        <v>12</v>
       </c>
       <c r="L9" t="n">
-        <v>1.42</v>
+        <v>1.24</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>4</v>
+        <v>7.2</v>
       </c>
       <c r="O9" t="n">
-        <v>1.31</v>
+        <v>1.15</v>
       </c>
       <c r="P9" t="n">
-        <v>2.04</v>
+        <v>3.05</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.95</v>
+        <v>1.47</v>
       </c>
       <c r="R9" t="n">
-        <v>1.4</v>
+        <v>1.81</v>
       </c>
       <c r="S9" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.81</v>
+        <v>2.54</v>
       </c>
       <c r="U9" t="n">
-        <v>2.22</v>
+        <v>1.62</v>
       </c>
       <c r="V9" t="n">
-        <v>1.41</v>
+        <v>1.04</v>
       </c>
       <c r="W9" t="n">
-        <v>1.73</v>
+        <v>8</v>
       </c>
       <c r="X9" t="n">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="Y9" t="n">
-        <v>13.5</v>
+        <v>990</v>
       </c>
       <c r="Z9" t="n">
-        <v>23</v>
+        <v>310</v>
       </c>
       <c r="AA9" t="n">
-        <v>55</v>
+        <v>1000</v>
       </c>
       <c r="AB9" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="AD9" t="n">
-        <v>14.5</v>
+        <v>90</v>
       </c>
       <c r="AE9" t="n">
-        <v>36</v>
+        <v>1000</v>
       </c>
       <c r="AF9" t="n">
-        <v>14.5</v>
+        <v>7.6</v>
       </c>
       <c r="AG9" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AH9" t="n">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="AI9" t="n">
-        <v>44</v>
+        <v>400</v>
       </c>
       <c r="AJ9" t="n">
-        <v>28</v>
+        <v>7.8</v>
       </c>
       <c r="AK9" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AL9" t="n">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="AM9" t="n">
-        <v>75</v>
+        <v>1000</v>
       </c>
       <c r="AN9" t="n">
-        <v>17</v>
+        <v>3.15</v>
       </c>
       <c r="AO9" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1733,665 +1733,125 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="G10" t="n">
-        <v>2.04</v>
+        <v>1.7</v>
       </c>
       <c r="H10" t="n">
-        <v>4.5</v>
+        <v>4.8</v>
       </c>
       <c r="I10" t="n">
-        <v>4.6</v>
+        <v>5.9</v>
       </c>
       <c r="J10" t="n">
-        <v>3.5</v>
+        <v>4.1</v>
       </c>
       <c r="K10" t="n">
-        <v>3.55</v>
+        <v>4.7</v>
       </c>
       <c r="L10" t="n">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="O10" t="n">
-        <v>1.37</v>
+        <v>1.25</v>
       </c>
       <c r="P10" t="n">
-        <v>1.87</v>
+        <v>2.12</v>
       </c>
       <c r="Q10" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="R10" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S10" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="T10" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="U10" t="n">
         <v>2.1</v>
       </c>
-      <c r="R10" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S10" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.04</v>
-      </c>
       <c r="V10" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="W10" t="n">
-        <v>1.96</v>
+        <v>2.42</v>
       </c>
       <c r="X10" t="n">
-        <v>12.5</v>
+        <v>34</v>
       </c>
       <c r="Y10" t="n">
-        <v>15</v>
+        <v>990</v>
       </c>
       <c r="Z10" t="n">
-        <v>32</v>
+        <v>1000</v>
       </c>
       <c r="AA10" t="n">
-        <v>95</v>
+        <v>1000</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.6</v>
+        <v>10.5</v>
       </c>
       <c r="AC10" t="n">
-        <v>7.6</v>
+        <v>990</v>
       </c>
       <c r="AD10" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="AE10" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF10" t="n">
+        <v>21</v>
+      </c>
+      <c r="AG10" t="n">
         <v>12</v>
       </c>
-      <c r="AG10" t="n">
-        <v>10.5</v>
-      </c>
       <c r="AH10" t="n">
-        <v>18.5</v>
+        <v>1000</v>
       </c>
       <c r="AI10" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
       <c r="AJ10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK10" t="n">
-        <v>22</v>
+        <v>1000</v>
       </c>
       <c r="AL10" t="n">
-        <v>40</v>
+        <v>1000</v>
       </c>
       <c r="AM10" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AN10" t="n">
-        <v>16</v>
+        <v>13.5</v>
       </c>
       <c r="AO10" t="n">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="G11" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="H11" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J11" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K11" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="L11" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N11" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P11" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S11" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T11" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="U11" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="V11" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="W11" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="X11" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z11" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH11" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI11" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ11" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK11" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM11" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN11" t="n">
-        <v>65</v>
-      </c>
-      <c r="AO11" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Inter</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="G12" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H12" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="J12" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="L12" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N12" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1.79</v>
-      </c>
-      <c r="R12" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S12" t="n">
-        <v>2.96</v>
-      </c>
-      <c r="T12" t="n">
-        <v>1.71</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.36</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="W12" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X12" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>14</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>24</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH12" t="n">
-        <v>15</v>
-      </c>
-      <c r="AI12" t="n">
-        <v>30</v>
-      </c>
-      <c r="AJ12" t="n">
-        <v>75</v>
-      </c>
-      <c r="AK12" t="n">
-        <v>42</v>
-      </c>
-      <c r="AL12" t="n">
-        <v>46</v>
-      </c>
-      <c r="AM12" t="n">
-        <v>70</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>17:30:00</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Sporting Lisbon</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Rio Ave</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H13" t="n">
-        <v>25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>26</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12</v>
-      </c>
-      <c r="K13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L13" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="O13" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P13" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R13" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="S13" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T13" t="n">
-        <v>2.52</v>
-      </c>
-      <c r="U13" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W13" t="n">
-        <v>8</v>
-      </c>
-      <c r="X13" t="n">
-        <v>50</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>95</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>340</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB13" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC13" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>100</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG13" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH13" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI13" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ13" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AK13" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL13" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM13" t="n">
-        <v>500</v>
-      </c>
-      <c r="AN13" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AO13" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>CD Marathon</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G14" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="H14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="I14" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="J14" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="L14" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="R14" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="T14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V14" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W14" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="X14" t="n">
-        <v>990</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>19</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>20</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH14" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>9</v>
-      </c>
-      <c r="AO14" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO10"/>
+  <dimension ref="A1:AO6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -643,7 +643,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Portuguese Primeira Liga</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -653,36 +653,36 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>14:00:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Arouca</t>
+          <t>Bologna</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Gil Vicente</t>
+          <t>Sassuolo</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>5.5</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.98</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -715,64 +715,64 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1.51</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>2.54</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>4.1</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="AM2" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AN2" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AO2" t="n">
-        <v>10.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,132 +788,132 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>12:30:00</t>
+          <t>15:00:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Casa Pia</t>
+          <t>Braga</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Guimaraes</t>
+          <t>Benfica</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>5.2</v>
+        <v>1.75</v>
       </c>
       <c r="G3" t="n">
-        <v>5.3</v>
+        <v>1.76</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="I3" t="n">
-        <v>3.85</v>
+        <v>7.2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.82</v>
+        <v>3.4</v>
       </c>
       <c r="K3" t="n">
-        <v>1.84</v>
+        <v>3.5</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.87</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.01</v>
+        <v>4</v>
       </c>
       <c r="S3" t="n">
-        <v>130</v>
+        <v>1.32</v>
       </c>
       <c r="T3" t="n">
-        <v>9.4</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1.37</v>
+        <v>1.16</v>
       </c>
       <c r="W3" t="n">
-        <v>1.23</v>
+        <v>2.3</v>
       </c>
       <c r="X3" t="n">
-        <v>2.08</v>
+        <v>1000</v>
       </c>
       <c r="Y3" t="n">
-        <v>5.1</v>
+        <v>1000</v>
       </c>
       <c r="Z3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>8</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO3" t="n">
         <v>30</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>310</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>160</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Turkish 1 Lig</t>
+          <t>Italian Serie A</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,132 +923,132 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>13:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Amed Sportif Faaliyetler</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>76 Igdir Belediyespor</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>1.33</v>
+        <v>3.85</v>
       </c>
       <c r="G4" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N4" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="U4" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="W4" t="n">
         <v>1.34</v>
       </c>
-      <c r="H4" t="n">
+      <c r="X4" t="n">
         <v>16</v>
       </c>
-      <c r="I4" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.3</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="S4" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1000</v>
-      </c>
       <c r="Y4" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
       <c r="Z4" t="n">
-        <v>1000</v>
+        <v>12.5</v>
       </c>
       <c r="AA4" t="n">
-        <v>1000</v>
+        <v>23</v>
       </c>
       <c r="AB4" t="n">
-        <v>5.1</v>
+        <v>15.5</v>
       </c>
       <c r="AC4" t="n">
-        <v>7.4</v>
+        <v>8</v>
       </c>
       <c r="AD4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>19.5</v>
+      </c>
+      <c r="AF4" t="n">
         <v>28</v>
       </c>
-      <c r="AE4" t="n">
-        <v>160</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>5.5</v>
-      </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>14.5</v>
       </c>
       <c r="AH4" t="n">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="AI4" t="n">
-        <v>180</v>
+        <v>32</v>
       </c>
       <c r="AJ4" t="n">
-        <v>12.5</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="n">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="AL4" t="n">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="AM4" t="n">
-        <v>340</v>
+        <v>85</v>
       </c>
       <c r="AN4" t="n">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="AO4" t="n">
-        <v>500</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>English Premier League</t>
+          <t>Portuguese Primeira Liga</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1058,132 +1058,132 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>13:30:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Crystal Palace</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Tottenham</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>2.36</v>
+        <v>1.13</v>
       </c>
       <c r="G5" t="n">
-        <v>2.38</v>
+        <v>1.14</v>
       </c>
       <c r="H5" t="n">
-        <v>3.5</v>
+        <v>26</v>
       </c>
       <c r="I5" t="n">
-        <v>3.55</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
-        <v>3.35</v>
+        <v>11</v>
       </c>
       <c r="K5" t="n">
-        <v>3.4</v>
+        <v>12</v>
       </c>
       <c r="L5" t="n">
-        <v>1.99</v>
+        <v>1.23</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.02</v>
       </c>
       <c r="N5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="P5" t="n">
         <v>3</v>
       </c>
-      <c r="O5" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="S5" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="T5" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.63</v>
       </c>
-      <c r="Q5" t="n">
-        <v>2.56</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="S5" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.83</v>
-      </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.03</v>
       </c>
       <c r="W5" t="n">
-        <v>1.71</v>
+        <v>8</v>
       </c>
       <c r="X5" t="n">
-        <v>9.800000000000001</v>
+        <v>46</v>
       </c>
       <c r="Y5" t="n">
+        <v>100</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>340</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AB5" t="n">
         <v>10.5</v>
       </c>
-      <c r="Z5" t="n">
-        <v>21</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>65</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>7.8</v>
-      </c>
       <c r="AC5" t="n">
+        <v>25</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>90</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AF5" t="n">
         <v>7.2</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AG5" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>980</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AK5" t="n">
         <v>14.5</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AL5" t="n">
         <v>55</v>
       </c>
-      <c r="AF5" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>23</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>85</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>65</v>
-      </c>
       <c r="AM5" t="n">
-        <v>200</v>
+        <v>450</v>
       </c>
       <c r="AN5" t="n">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="AO5" t="n">
-        <v>70</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1193,665 +1193,125 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.06</v>
+        <v>1.63</v>
       </c>
       <c r="G6" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="H6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="I6" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="K6" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N6" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P6" t="n">
         <v>2.08</v>
       </c>
-      <c r="H6" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="J6" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="K6" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N6" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="P6" t="n">
-        <v>1.84</v>
-      </c>
       <c r="Q6" t="n">
-        <v>2.16</v>
+        <v>1.7</v>
       </c>
       <c r="R6" t="n">
-        <v>1.32</v>
+        <v>1.45</v>
       </c>
       <c r="S6" t="n">
-        <v>4</v>
+        <v>2.84</v>
       </c>
       <c r="T6" t="n">
-        <v>1.91</v>
+        <v>1.82</v>
       </c>
       <c r="U6" t="n">
         <v>2.06</v>
       </c>
       <c r="V6" t="n">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="W6" t="n">
-        <v>1.93</v>
+        <v>2.44</v>
       </c>
       <c r="X6" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Y6" t="n">
-        <v>14.5</v>
+        <v>38</v>
       </c>
       <c r="Z6" t="n">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="n">
-        <v>110</v>
+        <v>1000</v>
       </c>
       <c r="AB6" t="n">
-        <v>8.199999999999999</v>
+        <v>990</v>
       </c>
       <c r="AC6" t="n">
-        <v>7.4</v>
+        <v>1000</v>
       </c>
       <c r="AD6" t="n">
-        <v>17.5</v>
+        <v>990</v>
       </c>
       <c r="AE6" t="n">
-        <v>60</v>
+        <v>1000</v>
       </c>
       <c r="AF6" t="n">
-        <v>11.5</v>
+        <v>13.5</v>
       </c>
       <c r="AG6" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>21</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AN6" t="n">
         <v>10.5</v>
       </c>
-      <c r="AH6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>65</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>24</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>110</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>17.5</v>
-      </c>
       <c r="AO6" t="n">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>15:00:00</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Braga</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Benfica</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="G7" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="H7" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="M7" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="N7" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="O7" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P7" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>2.24</v>
-      </c>
-      <c r="R7" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="S7" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="T7" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="W7" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="X7" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="Z7" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AA7" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB7" t="n">
-        <v>12</v>
-      </c>
-      <c r="AC7" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>11</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>26</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>25</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AH7" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>50</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>120</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>70</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Inter</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="G8" t="n">
-        <v>4.3</v>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="K8" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="L8" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N8" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="R8" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S8" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="T8" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="U8" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="W8" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="X8" t="n">
-        <v>17</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>13</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>23</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AG8" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH8" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AI8" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ8" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AL8" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>46</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>17:30:00</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Sporting Lisbon</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Rio Ave</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G9" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H9" t="n">
-        <v>25</v>
-      </c>
-      <c r="I9" t="n">
-        <v>27</v>
-      </c>
-      <c r="J9" t="n">
-        <v>11.5</v>
-      </c>
-      <c r="K9" t="n">
-        <v>12</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N9" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="O9" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="P9" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R9" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S9" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="T9" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="U9" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="V9" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W9" t="n">
-        <v>8</v>
-      </c>
-      <c r="X9" t="n">
-        <v>44</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>310</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>27</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="AH9" t="n">
-        <v>65</v>
-      </c>
-      <c r="AI9" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL9" t="n">
-        <v>60</v>
-      </c>
-      <c r="AM9" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN9" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="AO9" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>CD Marathon</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="G10" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H10" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="I10" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="J10" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K10" t="n">
-        <v>4.7</v>
-      </c>
-      <c r="L10" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="M10" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N10" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="O10" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="R10" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="S10" t="n">
-        <v>2.76</v>
-      </c>
-      <c r="T10" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W10" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X10" t="n">
-        <v>34</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>990</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AG10" t="n">
-        <v>12</v>
-      </c>
-      <c r="AH10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ10" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM10" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN10" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AO10" t="n">
         <v>1000</v>
       </c>
     </row>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO6"/>
+  <dimension ref="A1:AO4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -653,126 +653,126 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:00:00</t>
+          <t>16:45:00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bologna</t>
+          <t>Atalanta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Sassuolo</t>
+          <t>Inter</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>2.46</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>2.34</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>5.7</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>3.05</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AA2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AC2" t="n">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AL2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AM2" t="n">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="AN2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="AO2" t="n">
-        <v>0</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -788,78 +788,78 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>15:00:00</t>
+          <t>17:30:00</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Braga</t>
+          <t>Sporting Lisbon</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Benfica</t>
+          <t>Rio Ave</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1.75</v>
+        <v>1.21</v>
       </c>
       <c r="G3" t="n">
-        <v>1.76</v>
+        <v>1.22</v>
       </c>
       <c r="H3" t="n">
+        <v>25</v>
+      </c>
+      <c r="I3" t="n">
+        <v>28</v>
+      </c>
+      <c r="J3" t="n">
         <v>7</v>
       </c>
-      <c r="I3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>3.4</v>
-      </c>
       <c r="K3" t="n">
-        <v>3.5</v>
+        <v>7.4</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>3.65</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="R3" t="n">
-        <v>4</v>
+        <v>1.3</v>
       </c>
       <c r="S3" t="n">
-        <v>1.32</v>
+        <v>4.1</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="V3" t="n">
-        <v>1.16</v>
+        <v>1.04</v>
       </c>
       <c r="W3" t="n">
-        <v>2.3</v>
+        <v>5.4</v>
       </c>
       <c r="X3" t="n">
-        <v>1000</v>
+        <v>21</v>
       </c>
       <c r="Y3" t="n">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="Z3" t="n">
         <v>1000</v>
@@ -868,52 +868,52 @@
         <v>1000</v>
       </c>
       <c r="AB3" t="n">
-        <v>1000</v>
+        <v>5.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>1000</v>
+        <v>16.5</v>
       </c>
       <c r="AD3" t="n">
-        <v>1000</v>
+        <v>990</v>
       </c>
       <c r="AE3" t="n">
         <v>1000</v>
       </c>
       <c r="AF3" t="n">
-        <v>1000</v>
+        <v>5.2</v>
       </c>
       <c r="AG3" t="n">
-        <v>4.2</v>
+        <v>13</v>
       </c>
       <c r="AH3" t="n">
-        <v>4.3</v>
+        <v>990</v>
       </c>
       <c r="AI3" t="n">
-        <v>10.5</v>
+        <v>1000</v>
       </c>
       <c r="AJ3" t="n">
-        <v>1000</v>
+        <v>7.4</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>490</v>
       </c>
       <c r="AL3" t="n">
-        <v>8.800000000000001</v>
+        <v>1000</v>
       </c>
       <c r="AM3" t="n">
-        <v>20</v>
+        <v>1000</v>
       </c>
       <c r="AN3" t="n">
-        <v>13</v>
+        <v>6.2</v>
       </c>
       <c r="AO3" t="n">
-        <v>30</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Italian Serie A</t>
+          <t>Honduras Liga Nacional</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -923,396 +923,126 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>16:45:00</t>
+          <t>18:00:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Atalanta</t>
+          <t>CD Marathon</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Inter</t>
+          <t>Olancho</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>3.85</v>
+        <v>1.82</v>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>1.91</v>
       </c>
       <c r="H4" t="n">
-        <v>2.1</v>
+        <v>4.4</v>
       </c>
       <c r="I4" t="n">
-        <v>2.12</v>
+        <v>4.9</v>
       </c>
       <c r="J4" t="n">
-        <v>3.7</v>
+        <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>3.75</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.06</v>
       </c>
       <c r="N4" t="n">
-        <v>4.3</v>
+        <v>4.1</v>
       </c>
       <c r="O4" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P4" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="S4" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="W4" t="n">
         <v>2.1</v>
       </c>
-      <c r="Q4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.76</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.28</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.89</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.34</v>
-      </c>
       <c r="X4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>10</v>
+        <v>18.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>12.5</v>
+        <v>40</v>
       </c>
       <c r="AA4" t="n">
+        <v>120</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>65</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>25</v>
+      </c>
+      <c r="AK4" t="n">
         <v>23</v>
       </c>
-      <c r="AB4" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>8</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>19.5</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>28</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>32</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>44</v>
-      </c>
       <c r="AL4" t="n">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="AM4" t="n">
-        <v>85</v>
+        <v>130</v>
       </c>
       <c r="AN4" t="n">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="AO4" t="n">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>17:30:00</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sporting Lisbon</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Rio Ave</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="H5" t="n">
-        <v>26</v>
-      </c>
-      <c r="I5" t="n">
-        <v>28</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11</v>
-      </c>
-      <c r="K5" t="n">
-        <v>12</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1.23</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="O5" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="R5" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="S5" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.54</v>
-      </c>
-      <c r="U5" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="W5" t="n">
-        <v>8</v>
-      </c>
-      <c r="X5" t="n">
-        <v>46</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>100</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>340</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>25</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>90</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>980</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>400</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK5" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL5" t="n">
-        <v>55</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>450</v>
-      </c>
-      <c r="AN5" t="n">
-        <v>3</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>CD Marathon</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="G6" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="H6" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K6" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="L6" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N6" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="P6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S6" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="T6" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.06</v>
-      </c>
-      <c r="V6" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="W6" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="X6" t="n">
-        <v>24</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>38</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>55</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>990</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>21</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN6" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AO6" t="n">
-        <v>1000</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
+++ b/Jogos_do_Dia_Betfair_Back_Lay_2025-12-28.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="A1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,411 +640,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Italian Serie A</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>16:45:00</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Atalanta</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Inter</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>6</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="I2" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J2" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.34</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="N2" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="O2" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="S2" t="n">
-        <v>32</v>
-      </c>
-      <c r="T2" t="n">
-        <v>5.7</v>
-      </c>
-      <c r="U2" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="W2" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="X2" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>480</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>490</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>650</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Portuguese Primeira Liga</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>17:30:00</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Sporting Lisbon</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Rio Ave</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="H3" t="n">
-        <v>25</v>
-      </c>
-      <c r="I3" t="n">
-        <v>28</v>
-      </c>
-      <c r="J3" t="n">
-        <v>7</v>
-      </c>
-      <c r="K3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="L3" t="n">
-        <v>2</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N3" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R3" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="S3" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="V3" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="W3" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="X3" t="n">
-        <v>21</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>50</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>16.5</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>990</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>5.2</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>13</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>990</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>490</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Honduras Liga Nacional</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-12-28</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>18:00:00</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>CD Marathon</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Olancho</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="I4" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="R4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="S4" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T4" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="U4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="V4" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X4" t="n">
-        <v>20</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>120</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>21</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>65</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>11</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>80</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>25</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>23</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>40</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>130</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>70</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
